--- a/raw_data/20200818_saline/20200818_Sensor0_Test_11.xlsx
+++ b/raw_data/20200818_saline/20200818_Sensor0_Test_11.xlsx
@@ -1,1489 +1,1905 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="true"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr date1904="1" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox (GaTech)\Lab files\code\Impedance_fit\raw_data\20200818_saline\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6282F20-452F-439E-B2F4-FD61A9C58C9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="2240" yWindow="2240" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <si>
-    <t>Inf</t>
-  </si>
-  <si>
-    <t>-Inf</t>
-  </si>
-  <si>
-    <t>#NV</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+  <si>
+    <t>Untitled</t>
+  </si>
+  <si>
+    <t>Untitled 1</t>
+  </si>
+  <si>
+    <t>Untitled 2</t>
+  </si>
+  <si>
+    <t>Untitled 3</t>
+  </si>
+  <si>
+    <t>Untitled 4</t>
+  </si>
+  <si>
+    <t>Untitled 5</t>
+  </si>
+  <si>
+    <t>Untitled 6</t>
+  </si>
+  <si>
+    <t>Untitled 7</t>
+  </si>
+  <si>
+    <t>Untitled 8</t>
+  </si>
+  <si>
+    <t>Untitled 9</t>
+  </si>
+  <si>
+    <t>Untitled 10</t>
+  </si>
+  <si>
+    <t>Untitled 11</t>
+  </si>
+  <si>
+    <t>Untitled 12</t>
+  </si>
+  <si>
+    <t>Untitled 13</t>
+  </si>
+  <si>
+    <t>Untitled 14</t>
+  </si>
+  <si>
+    <t>Untitled 15</t>
+  </si>
+  <si>
+    <t>Untitled 16</t>
+  </si>
+  <si>
+    <t>Untitled 17</t>
+  </si>
+  <si>
+    <t>Untitled 18</t>
+  </si>
+  <si>
+    <t>Untitled 19</t>
+  </si>
+  <si>
+    <t>Untitled 20</t>
+  </si>
+  <si>
+    <t>Untitled 21</t>
+  </si>
+  <si>
+    <t>Untitled 22</t>
+  </si>
+  <si>
+    <t>Untitled 23</t>
+  </si>
+  <si>
+    <t>Untitled 24</t>
+  </si>
+  <si>
+    <t>Untitled 25</t>
+  </si>
+  <si>
+    <t>Untitled 26</t>
+  </si>
+  <si>
+    <t>Untitled 27</t>
+  </si>
+  <si>
+    <t>Untitled 28</t>
+  </si>
+  <si>
+    <t>Untitled 29</t>
+  </si>
+  <si>
+    <t>Untitled 30</t>
+  </si>
+  <si>
+    <t>Untitled 31</t>
+  </si>
+  <si>
+    <t>Untitled 32</t>
+  </si>
+  <si>
+    <t>Untitled 33</t>
+  </si>
+  <si>
+    <t>Untitled 34</t>
+  </si>
+  <si>
+    <t>Untitled 35</t>
+  </si>
+  <si>
+    <t>Untitled 36</t>
+  </si>
+  <si>
+    <t>Untitled 37</t>
+  </si>
+  <si>
+    <t>Untitled 38</t>
+  </si>
+  <si>
+    <t>Untitled 39</t>
+  </si>
+  <si>
+    <t>Untitled 40</t>
+  </si>
+  <si>
+    <t>Untitled 41</t>
+  </si>
+  <si>
+    <t>Untitled 42</t>
+  </si>
+  <si>
+    <t>Untitled 43</t>
+  </si>
+  <si>
+    <t>Untitled 44</t>
+  </si>
+  <si>
+    <t>Untitled 45</t>
+  </si>
+  <si>
+    <t>Untitled 46</t>
+  </si>
+  <si>
+    <t>Untitled 47</t>
+  </si>
+  <si>
+    <t>Untitled 48</t>
+  </si>
+  <si>
+    <t>Untitled 49</t>
+  </si>
+  <si>
+    <t>Untitled 50</t>
+  </si>
+  <si>
+    <t>Untitled 51</t>
+  </si>
+  <si>
+    <t>Untitled 52</t>
+  </si>
+  <si>
+    <t>Untitled 53</t>
+  </si>
+  <si>
+    <t>Untitled 54</t>
+  </si>
+  <si>
+    <t>Untitled 55</t>
+  </si>
+  <si>
+    <t>Untitled 56</t>
+  </si>
+  <si>
+    <t>Untitled 57</t>
+  </si>
+  <si>
+    <t>Untitled 58</t>
+  </si>
+  <si>
+    <t>Untitled 59</t>
+  </si>
+  <si>
+    <t>Untitled 60</t>
+  </si>
+  <si>
+    <t>Untitled 61</t>
+  </si>
+  <si>
+    <t>Untitled 62</t>
+  </si>
+  <si>
+    <t>Untitled 63</t>
+  </si>
+  <si>
+    <t>Untitled 64</t>
+  </si>
+  <si>
+    <t>Untitled 65</t>
+  </si>
+  <si>
+    <t>Untitled 66</t>
+  </si>
+  <si>
+    <t>Untitled 67</t>
+  </si>
+  <si>
+    <t>Untitled 68</t>
+  </si>
+  <si>
+    <t>Untitled 69</t>
+  </si>
+  <si>
+    <t>Untitled 70</t>
+  </si>
+  <si>
+    <t>Untitled 71</t>
+  </si>
+  <si>
+    <t>Untitled 72</t>
+  </si>
+  <si>
+    <t>Untitled 73</t>
+  </si>
+  <si>
+    <t>Untitled 74</t>
+  </si>
+  <si>
+    <t>Untitled 75</t>
+  </si>
+  <si>
+    <t>Untitled 76</t>
+  </si>
+  <si>
+    <t>Untitled 77</t>
+  </si>
+  <si>
+    <t>Untitled 78</t>
+  </si>
+  <si>
+    <t>Untitled 79</t>
+  </si>
+  <si>
+    <t>Untitled 80</t>
+  </si>
+  <si>
+    <t>Untitled 81</t>
+  </si>
+  <si>
+    <t>Untitled 82</t>
+  </si>
+  <si>
+    <t>Untitled 83</t>
+  </si>
+  <si>
+    <t>Untitled 84</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"> </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="1">
-    <fill/>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0"/>
-    <xf numFmtId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CG26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Untitled</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Untitled 1</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Untitled 2</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Untitled 3</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Untitled 4</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Untitled 5</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Untitled 6</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Untitled 7</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Untitled 8</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Untitled 9</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Untitled 10</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Untitled 11</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Untitled 12</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Untitled 13</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Untitled 14</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Untitled 15</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Untitled 16</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Untitled 17</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Untitled 18</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Untitled 19</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Untitled 20</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Untitled 21</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Untitled 22</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Untitled 23</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Untitled 24</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>Untitled 25</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Untitled 26</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>Untitled 27</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>Untitled 28</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>Untitled 29</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>Untitled 30</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>Untitled 31</t>
-        </is>
-      </c>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>Untitled 32</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>Untitled 33</t>
-        </is>
-      </c>
-      <c r="AI1" t="inlineStr">
-        <is>
-          <t>Untitled 34</t>
-        </is>
-      </c>
-      <c r="AJ1" t="inlineStr">
-        <is>
-          <t>Untitled 35</t>
-        </is>
-      </c>
-      <c r="AK1" t="inlineStr">
-        <is>
-          <t>Untitled 36</t>
-        </is>
-      </c>
-      <c r="AL1" t="inlineStr">
-        <is>
-          <t>Untitled 37</t>
-        </is>
-      </c>
-      <c r="AM1" t="inlineStr">
-        <is>
-          <t>Untitled 38</t>
-        </is>
-      </c>
-      <c r="AN1" t="inlineStr">
-        <is>
-          <t>Untitled 39</t>
-        </is>
-      </c>
-      <c r="AO1" t="inlineStr">
-        <is>
-          <t>Untitled 40</t>
-        </is>
-      </c>
-      <c r="AP1" t="inlineStr">
-        <is>
-          <t>Untitled 41</t>
-        </is>
-      </c>
-      <c r="AQ1" t="inlineStr">
-        <is>
-          <t>Untitled 42</t>
-        </is>
-      </c>
-      <c r="AR1" t="inlineStr">
-        <is>
-          <t>Untitled 43</t>
-        </is>
-      </c>
-      <c r="AS1" t="inlineStr">
-        <is>
-          <t>Untitled 44</t>
-        </is>
-      </c>
-      <c r="AT1" t="inlineStr">
-        <is>
-          <t>Untitled 45</t>
-        </is>
-      </c>
-      <c r="AU1" t="inlineStr">
-        <is>
-          <t>Untitled 46</t>
-        </is>
-      </c>
-      <c r="AV1" t="inlineStr">
-        <is>
-          <t>Untitled 47</t>
-        </is>
-      </c>
-      <c r="AW1" t="inlineStr">
-        <is>
-          <t>Untitled 48</t>
-        </is>
-      </c>
-      <c r="AX1" t="inlineStr">
-        <is>
-          <t>Untitled 49</t>
-        </is>
-      </c>
-      <c r="AY1" t="inlineStr">
-        <is>
-          <t>Untitled 50</t>
-        </is>
-      </c>
-      <c r="AZ1" t="inlineStr">
-        <is>
-          <t>Untitled 51</t>
-        </is>
-      </c>
-      <c r="BA1" t="inlineStr">
-        <is>
-          <t>Untitled 52</t>
-        </is>
-      </c>
-      <c r="BB1" t="inlineStr">
-        <is>
-          <t>Untitled 53</t>
-        </is>
-      </c>
-      <c r="BC1" t="inlineStr">
-        <is>
-          <t>Untitled 54</t>
-        </is>
-      </c>
-      <c r="BD1" t="inlineStr">
-        <is>
-          <t>Untitled 55</t>
-        </is>
-      </c>
-      <c r="BE1" t="inlineStr">
-        <is>
-          <t>Untitled 56</t>
-        </is>
-      </c>
-      <c r="BF1" t="inlineStr">
-        <is>
-          <t>Untitled 57</t>
-        </is>
-      </c>
-      <c r="BG1" t="inlineStr">
-        <is>
-          <t>Untitled 58</t>
-        </is>
-      </c>
-      <c r="BH1" t="inlineStr">
-        <is>
-          <t>Untitled 59</t>
-        </is>
-      </c>
-      <c r="BI1" t="inlineStr">
-        <is>
-          <t>Untitled 60</t>
-        </is>
-      </c>
-      <c r="BJ1" t="inlineStr">
-        <is>
-          <t>Untitled 61</t>
-        </is>
-      </c>
-      <c r="BK1" t="inlineStr">
-        <is>
-          <t>Untitled 62</t>
-        </is>
-      </c>
-      <c r="BL1" t="inlineStr">
-        <is>
-          <t>Untitled 63</t>
-        </is>
-      </c>
-      <c r="BM1" t="inlineStr">
-        <is>
-          <t>Untitled 64</t>
-        </is>
-      </c>
-      <c r="BN1" t="inlineStr">
-        <is>
-          <t>Untitled 65</t>
-        </is>
-      </c>
-      <c r="BO1" t="inlineStr">
-        <is>
-          <t>Untitled 66</t>
-        </is>
-      </c>
-      <c r="BP1" t="inlineStr">
-        <is>
-          <t>Untitled 67</t>
-        </is>
-      </c>
-      <c r="BQ1" t="inlineStr">
-        <is>
-          <t>Untitled 68</t>
-        </is>
-      </c>
-      <c r="BR1" t="inlineStr">
-        <is>
-          <t>Untitled 69</t>
-        </is>
-      </c>
-      <c r="BS1" t="inlineStr">
-        <is>
-          <t>Untitled 70</t>
-        </is>
-      </c>
-      <c r="BT1" t="inlineStr">
-        <is>
-          <t>Untitled 71</t>
-        </is>
-      </c>
-      <c r="BU1" t="inlineStr">
-        <is>
-          <t>Untitled 72</t>
-        </is>
-      </c>
-      <c r="BV1" t="inlineStr">
-        <is>
-          <t>Untitled 73</t>
-        </is>
-      </c>
-      <c r="BW1" t="inlineStr">
-        <is>
-          <t>Untitled 74</t>
-        </is>
-      </c>
-      <c r="BX1" t="inlineStr">
-        <is>
-          <t>Untitled 75</t>
-        </is>
-      </c>
-      <c r="BY1" t="inlineStr">
-        <is>
-          <t>Untitled 76</t>
-        </is>
-      </c>
-      <c r="BZ1" t="inlineStr">
-        <is>
-          <t>Untitled 77</t>
-        </is>
-      </c>
-      <c r="CA1" t="inlineStr">
-        <is>
-          <t>Untitled 78</t>
-        </is>
-      </c>
-      <c r="CB1" t="inlineStr">
-        <is>
-          <t>Untitled 79</t>
-        </is>
-      </c>
-      <c r="CC1" t="inlineStr">
-        <is>
-          <t>Untitled 80</t>
-        </is>
-      </c>
-      <c r="CD1" t="inlineStr">
-        <is>
-          <t>Untitled 81</t>
-        </is>
-      </c>
-      <c r="CE1" t="inlineStr">
-        <is>
-          <t>Untitled 82</t>
-        </is>
-      </c>
-      <c r="CF1" t="inlineStr">
-        <is>
-          <t>Untitled 83</t>
-        </is>
-      </c>
-      <c r="CG1" t="inlineStr">
-        <is>
-          <t>Untitled 84</t>
-        </is>
+    <row r="1" spans="1:85">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:85">
       <c r="A2" s="1">
-        <v>9002.913071</v>
+        <v>9002.9130710000009</v>
       </c>
       <c r="B2" s="1">
-        <v>2.500809</v>
+        <v>2.5008089999999998</v>
       </c>
       <c r="C2" s="1">
-        <v>902.339000</v>
+        <v>902.33900000000006</v>
       </c>
       <c r="D2" s="1">
-        <v>-195.161000</v>
+        <v>-195.161</v>
       </c>
       <c r="E2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>9013.331434</v>
+        <v>9013.3314339999997</v>
       </c>
       <c r="G2" s="1">
-        <v>2.503703</v>
+        <v>2.5037029999999998</v>
       </c>
       <c r="H2" s="1">
-        <v>919.821000</v>
+        <v>919.82100000000003</v>
       </c>
       <c r="I2" s="1">
-        <v>-165.799000</v>
+        <v>-165.79900000000001</v>
       </c>
       <c r="J2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>9023.784724</v>
+        <v>9023.7847239999992</v>
       </c>
       <c r="L2" s="1">
-        <v>2.506607</v>
+        <v>2.5066069999999998</v>
       </c>
       <c r="M2" s="1">
-        <v>941.496000</v>
+        <v>941.49599999999998</v>
       </c>
       <c r="N2" s="1">
-        <v>-118.557000</v>
+        <v>-118.557</v>
       </c>
       <c r="O2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P2" s="1">
-        <v>9034.271668</v>
+        <v>9034.2716679999994</v>
       </c>
       <c r="Q2" s="1">
-        <v>2.509520</v>
+        <v>2.5095200000000002</v>
       </c>
       <c r="R2" s="1">
-        <v>947.999000</v>
+        <v>947.99900000000002</v>
       </c>
       <c r="S2" s="1">
-        <v>-103.326000</v>
+        <v>-103.32599999999999</v>
       </c>
       <c r="T2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U2" s="1">
-        <v>9044.846343</v>
+        <v>9044.8463429999993</v>
       </c>
       <c r="V2" s="1">
-        <v>2.512457</v>
+        <v>2.5124569999999999</v>
       </c>
       <c r="W2" s="1">
-        <v>954.358000</v>
+        <v>954.35799999999995</v>
       </c>
       <c r="X2" s="1">
-        <v>-89.661100</v>
+        <v>-89.661100000000005</v>
       </c>
       <c r="Y2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="1">
-        <v>9055.567866</v>
+        <v>9055.5678659999994</v>
       </c>
       <c r="AA2" s="1">
-        <v>2.515436</v>
+        <v>2.5154359999999998</v>
       </c>
       <c r="AB2" s="1">
-        <v>961.565000</v>
+        <v>961.56500000000005</v>
       </c>
       <c r="AC2" s="1">
-        <v>-80.258400</v>
+        <v>-80.258399999999995</v>
       </c>
       <c r="AD2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="1">
-        <v>9066.094469</v>
+        <v>9066.0944689999997</v>
       </c>
       <c r="AF2" s="1">
-        <v>2.518360</v>
+        <v>2.5183599999999999</v>
       </c>
       <c r="AG2" s="1">
-        <v>966.568000</v>
+        <v>966.56799999999998</v>
       </c>
       <c r="AH2" s="1">
-        <v>-79.846800</v>
+        <v>-79.846800000000002</v>
       </c>
       <c r="AI2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ2" s="1">
-        <v>9076.544670</v>
+        <v>9076.5446699999993</v>
       </c>
       <c r="AK2" s="1">
-        <v>2.521262</v>
+        <v>2.5212620000000001</v>
       </c>
       <c r="AL2" s="1">
-        <v>974.421000</v>
+        <v>974.42100000000005</v>
       </c>
       <c r="AM2" s="1">
-        <v>-87.744500</v>
+        <v>-87.744500000000002</v>
       </c>
       <c r="AN2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO2" s="1">
-        <v>9087.076752</v>
+        <v>9087.0767520000009</v>
       </c>
       <c r="AP2" s="1">
-        <v>2.524188</v>
+        <v>2.5241880000000001</v>
       </c>
       <c r="AQ2" s="1">
-        <v>983.639000</v>
+        <v>983.63900000000001</v>
       </c>
       <c r="AR2" s="1">
-        <v>-102.696000</v>
+        <v>-102.696</v>
       </c>
       <c r="AS2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT2" s="1">
-        <v>9098.082976</v>
+        <v>9098.0829759999997</v>
       </c>
       <c r="AU2" s="1">
-        <v>2.527245</v>
+        <v>2.5272450000000002</v>
       </c>
       <c r="AV2" s="1">
-        <v>995.073000</v>
+        <v>995.07299999999998</v>
       </c>
       <c r="AW2" s="1">
-        <v>-124.268000</v>
+        <v>-124.268</v>
       </c>
       <c r="AX2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="1">
-        <v>9109.568336</v>
+        <v>9109.5683360000003</v>
       </c>
       <c r="AZ2" s="1">
-        <v>2.530436</v>
+        <v>2.5304359999999999</v>
       </c>
       <c r="BA2" s="1">
-        <v>1004.740000</v>
+        <v>1004.74</v>
       </c>
       <c r="BB2" s="1">
-        <v>-143.016000</v>
+        <v>-143.01599999999999</v>
       </c>
       <c r="BC2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD2" s="1">
         <v>9120.246212</v>
       </c>
       <c r="BE2" s="1">
-        <v>2.533402</v>
+        <v>2.5334020000000002</v>
       </c>
       <c r="BF2" s="1">
-        <v>1050.040000</v>
+        <v>1050.04</v>
       </c>
       <c r="BG2" s="1">
-        <v>-227.739000</v>
+        <v>-227.739</v>
       </c>
       <c r="BH2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI2" s="1">
-        <v>9130.958313</v>
+        <v>9130.9583129999992</v>
       </c>
       <c r="BJ2" s="1">
-        <v>2.536377</v>
+        <v>2.5363769999999999</v>
       </c>
       <c r="BK2" s="1">
-        <v>1129.230000</v>
+        <v>1129.23</v>
       </c>
       <c r="BL2" s="1">
-        <v>-363.917000</v>
+        <v>-363.91699999999997</v>
       </c>
       <c r="BM2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN2" s="1">
-        <v>9140.924392</v>
+        <v>9140.9243920000008</v>
       </c>
       <c r="BO2" s="1">
-        <v>2.539146</v>
+        <v>2.5391460000000001</v>
       </c>
       <c r="BP2" s="1">
-        <v>1260.290000</v>
+        <v>1260.29</v>
       </c>
       <c r="BQ2" s="1">
-        <v>-574.903000</v>
+        <v>-574.90300000000002</v>
       </c>
       <c r="BR2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS2" s="1">
-        <v>9151.252639</v>
+        <v>9151.2526390000003</v>
       </c>
       <c r="BT2" s="1">
-        <v>2.542015</v>
+        <v>2.5420150000000001</v>
       </c>
       <c r="BU2" s="1">
-        <v>1407.600000</v>
+        <v>1407.6</v>
       </c>
       <c r="BV2" s="1">
-        <v>-800.660000</v>
+        <v>-800.66</v>
       </c>
       <c r="BW2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX2" s="1">
-        <v>9161.936908</v>
+        <v>9161.9369079999997</v>
       </c>
       <c r="BY2" s="1">
-        <v>2.544982</v>
+        <v>2.5449820000000001</v>
       </c>
       <c r="BZ2" s="1">
-        <v>1570.500000</v>
+        <v>1570.5</v>
       </c>
       <c r="CA2" s="1">
-        <v>-1036.300000</v>
+        <v>-1036.3</v>
       </c>
       <c r="CB2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC2" s="1">
-        <v>9173.194605</v>
+        <v>9173.1946050000006</v>
       </c>
       <c r="CD2" s="1">
-        <v>2.548110</v>
+        <v>2.5481099999999999</v>
       </c>
       <c r="CE2" s="1">
-        <v>1982.330000</v>
+        <v>1982.33</v>
       </c>
       <c r="CF2" s="1">
-        <v>-1584.780000</v>
+        <v>-1584.78</v>
       </c>
       <c r="CG2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:85">
       <c r="A3" s="1">
-        <v>9003.315699</v>
+        <v>9003.3156990000007</v>
       </c>
       <c r="B3" s="1">
-        <v>2.500921</v>
+        <v>2.5009209999999999</v>
       </c>
       <c r="C3" s="1">
-        <v>902.301000</v>
+        <v>902.30100000000004</v>
       </c>
       <c r="D3" s="1">
-        <v>-195.389000</v>
+        <v>-195.38900000000001</v>
       </c>
       <c r="E3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>9013.704528</v>
+        <v>9013.7045280000002</v>
       </c>
       <c r="G3" s="1">
-        <v>2.503807</v>
+        <v>2.5038070000000001</v>
       </c>
       <c r="H3" s="1">
-        <v>919.316000</v>
+        <v>919.31600000000003</v>
       </c>
       <c r="I3" s="1">
-        <v>-165.575000</v>
+        <v>-165.57499999999999</v>
       </c>
       <c r="J3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
-        <v>9024.155730</v>
+        <v>9024.1557300000004</v>
       </c>
       <c r="L3" s="1">
-        <v>2.506710</v>
+        <v>2.50671</v>
       </c>
       <c r="M3" s="1">
-        <v>941.410000</v>
+        <v>941.41</v>
       </c>
       <c r="N3" s="1">
-        <v>-118.500000</v>
+        <v>-118.5</v>
       </c>
       <c r="O3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P3" s="1">
-        <v>9035.004228</v>
+        <v>9035.0042279999998</v>
       </c>
       <c r="Q3" s="1">
-        <v>2.509723</v>
+        <v>2.5097230000000001</v>
       </c>
       <c r="R3" s="1">
-        <v>947.970000</v>
+        <v>947.97</v>
       </c>
       <c r="S3" s="1">
-        <v>-103.314000</v>
+        <v>-103.31399999999999</v>
       </c>
       <c r="T3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U3" s="1">
-        <v>9045.567062</v>
+        <v>9045.5670620000001</v>
       </c>
       <c r="V3" s="1">
-        <v>2.512658</v>
+        <v>2.5126580000000001</v>
       </c>
       <c r="W3" s="1">
-        <v>954.416000</v>
+        <v>954.41600000000005</v>
       </c>
       <c r="X3" s="1">
-        <v>-89.674800</v>
+        <v>-89.674800000000005</v>
       </c>
       <c r="Y3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="1">
-        <v>9055.915064</v>
+        <v>9055.9150640000007</v>
       </c>
       <c r="AA3" s="1">
-        <v>2.515532</v>
+        <v>2.5155319999999999</v>
       </c>
       <c r="AB3" s="1">
-        <v>961.367000</v>
+        <v>961.36699999999996</v>
       </c>
       <c r="AC3" s="1">
-        <v>-80.313000</v>
+        <v>-80.313000000000002</v>
       </c>
       <c r="AD3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="1">
-        <v>9066.467450</v>
+        <v>9066.4674500000001</v>
       </c>
       <c r="AF3" s="1">
-        <v>2.518463</v>
+        <v>2.5184630000000001</v>
       </c>
       <c r="AG3" s="1">
-        <v>966.456000</v>
+        <v>966.45600000000002</v>
       </c>
       <c r="AH3" s="1">
-        <v>-79.882100</v>
+        <v>-79.882099999999994</v>
       </c>
       <c r="AI3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ3" s="1">
-        <v>9076.896364</v>
+        <v>9076.8963640000002</v>
       </c>
       <c r="AK3" s="1">
-        <v>2.521360</v>
+        <v>2.52136</v>
       </c>
       <c r="AL3" s="1">
-        <v>974.415000</v>
+        <v>974.41499999999996</v>
       </c>
       <c r="AM3" s="1">
-        <v>-87.727900</v>
+        <v>-87.727900000000005</v>
       </c>
       <c r="AN3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO3" s="1">
-        <v>9087.773598</v>
+        <v>9087.7735979999998</v>
       </c>
       <c r="AP3" s="1">
-        <v>2.524382</v>
+        <v>2.5243820000000001</v>
       </c>
       <c r="AQ3" s="1">
-        <v>983.649000</v>
+        <v>983.649</v>
       </c>
       <c r="AR3" s="1">
-        <v>-102.701000</v>
+        <v>-102.70099999999999</v>
       </c>
       <c r="AS3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="1">
-        <v>9098.772879</v>
+        <v>9098.7728790000001</v>
       </c>
       <c r="AU3" s="1">
-        <v>2.527437</v>
+        <v>2.5274369999999999</v>
       </c>
       <c r="AV3" s="1">
-        <v>995.083000</v>
+        <v>995.08299999999997</v>
       </c>
       <c r="AW3" s="1">
-        <v>-124.268000</v>
+        <v>-124.268</v>
       </c>
       <c r="AX3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="1">
-        <v>9109.988429</v>
+        <v>9109.9884290000009</v>
       </c>
       <c r="AZ3" s="1">
-        <v>2.530552</v>
+        <v>2.5305520000000001</v>
       </c>
       <c r="BA3" s="1">
-        <v>1004.730000</v>
+        <v>1004.73</v>
       </c>
       <c r="BB3" s="1">
-        <v>-143.000000</v>
+        <v>-143</v>
       </c>
       <c r="BC3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD3" s="1">
-        <v>9120.607268</v>
+        <v>9120.6072679999997</v>
       </c>
       <c r="BE3" s="1">
-        <v>2.533502</v>
+        <v>2.5335019999999999</v>
       </c>
       <c r="BF3" s="1">
-        <v>1050.010000</v>
+        <v>1050.01</v>
       </c>
       <c r="BG3" s="1">
-        <v>-227.767000</v>
+        <v>-227.767</v>
       </c>
       <c r="BH3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI3" s="1">
-        <v>9131.335236</v>
+        <v>9131.3352360000008</v>
       </c>
       <c r="BJ3" s="1">
-        <v>2.536482</v>
+        <v>2.5364819999999999</v>
       </c>
       <c r="BK3" s="1">
-        <v>1129.220000</v>
+        <v>1129.22</v>
       </c>
       <c r="BL3" s="1">
-        <v>-363.936000</v>
+        <v>-363.93599999999998</v>
       </c>
       <c r="BM3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN3" s="1">
-        <v>9141.346487</v>
+        <v>9141.3464870000007</v>
       </c>
       <c r="BO3" s="1">
         <v>2.539263</v>
       </c>
       <c r="BP3" s="1">
-        <v>1260.310000</v>
+        <v>1260.31</v>
       </c>
       <c r="BQ3" s="1">
-        <v>-574.929000</v>
+        <v>-574.92899999999997</v>
       </c>
       <c r="BR3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS3" s="1">
         <v>9151.680171</v>
       </c>
       <c r="BT3" s="1">
-        <v>2.542133</v>
+        <v>2.5421330000000002</v>
       </c>
       <c r="BU3" s="1">
-        <v>1407.630000</v>
+        <v>1407.63</v>
       </c>
       <c r="BV3" s="1">
-        <v>-800.691000</v>
+        <v>-800.69100000000003</v>
       </c>
       <c r="BW3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX3" s="1">
-        <v>9162.421005</v>
+        <v>9162.4210050000002</v>
       </c>
       <c r="BY3" s="1">
-        <v>2.545117</v>
+        <v>2.5451169999999999</v>
       </c>
       <c r="BZ3" s="1">
-        <v>1570.510000</v>
+        <v>1570.51</v>
       </c>
       <c r="CA3" s="1">
-        <v>-1036.380000</v>
+        <v>-1036.3800000000001</v>
       </c>
       <c r="CB3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC3" s="1">
-        <v>9173.484797</v>
+        <v>9173.4847969999992</v>
       </c>
       <c r="CD3" s="1">
-        <v>2.548190</v>
+        <v>2.54819</v>
       </c>
       <c r="CE3" s="1">
-        <v>1983.170000</v>
+        <v>1983.17</v>
       </c>
       <c r="CF3" s="1">
-        <v>-1585.690000</v>
+        <v>-1585.69</v>
       </c>
       <c r="CG3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:85">
       <c r="A4" s="1">
-        <v>9003.656077</v>
+        <v>9003.6560769999996</v>
       </c>
       <c r="B4" s="1">
-        <v>2.501016</v>
+        <v>2.5010159999999999</v>
       </c>
       <c r="C4" s="1">
-        <v>902.289000</v>
+        <v>902.28899999999999</v>
       </c>
       <c r="D4" s="1">
-        <v>-195.330000</v>
+        <v>-195.33</v>
       </c>
       <c r="E4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>9014.372639</v>
+        <v>9014.3726389999993</v>
       </c>
       <c r="G4" s="1">
-        <v>2.503992</v>
+        <v>2.5039920000000002</v>
       </c>
       <c r="H4" s="1">
-        <v>919.468000</v>
+        <v>919.46799999999996</v>
       </c>
       <c r="I4" s="1">
-        <v>-165.621000</v>
+        <v>-165.62100000000001</v>
       </c>
       <c r="J4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
-        <v>9024.846657</v>
+        <v>9024.8466570000001</v>
       </c>
       <c r="L4" s="1">
-        <v>2.506902</v>
+        <v>2.5069020000000002</v>
       </c>
       <c r="M4" s="1">
-        <v>941.603000</v>
+        <v>941.60299999999995</v>
       </c>
       <c r="N4" s="1">
-        <v>-118.543000</v>
+        <v>-118.54300000000001</v>
       </c>
       <c r="O4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1">
-        <v>9035.352454</v>
+        <v>9035.3524539999999</v>
       </c>
       <c r="Q4" s="1">
-        <v>2.509820</v>
+        <v>2.5098199999999999</v>
       </c>
       <c r="R4" s="1">
-        <v>947.987000</v>
+        <v>947.98699999999997</v>
       </c>
       <c r="S4" s="1">
-        <v>-103.341000</v>
+        <v>-103.34099999999999</v>
       </c>
       <c r="T4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1">
-        <v>9045.912055</v>
+        <v>9045.9120550000007</v>
       </c>
       <c r="V4" s="1">
         <v>2.512753</v>
       </c>
       <c r="W4" s="1">
-        <v>954.356000</v>
+        <v>954.35599999999999</v>
       </c>
       <c r="X4" s="1">
-        <v>-89.633900</v>
+        <v>-89.633899999999997</v>
       </c>
       <c r="Y4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="1">
-        <v>9056.265241</v>
+        <v>9056.2652409999992</v>
       </c>
       <c r="AA4" s="1">
-        <v>2.515629</v>
+        <v>2.5156290000000001</v>
       </c>
       <c r="AB4" s="1">
-        <v>961.512000</v>
+        <v>961.51199999999994</v>
       </c>
       <c r="AC4" s="1">
-        <v>-80.255800</v>
+        <v>-80.255799999999994</v>
       </c>
       <c r="AD4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="1">
-        <v>9067.110763</v>
+        <v>9067.1107630000006</v>
       </c>
       <c r="AF4" s="1">
-        <v>2.518642</v>
+        <v>2.5186419999999998</v>
       </c>
       <c r="AG4" s="1">
-        <v>966.513000</v>
+        <v>966.51300000000003</v>
       </c>
       <c r="AH4" s="1">
-        <v>-79.878300</v>
+        <v>-79.878299999999996</v>
       </c>
       <c r="AI4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="1">
-        <v>9077.547580</v>
+        <v>9077.5475800000004</v>
       </c>
       <c r="AK4" s="1">
         <v>2.521541</v>
       </c>
       <c r="AL4" s="1">
-        <v>974.416000</v>
+        <v>974.41600000000005</v>
       </c>
       <c r="AM4" s="1">
-        <v>-87.715400</v>
+        <v>-87.715400000000002</v>
       </c>
       <c r="AN4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO4" s="1">
-        <v>9088.192732</v>
+        <v>9088.1927319999995</v>
       </c>
       <c r="AP4" s="1">
-        <v>2.524498</v>
+        <v>2.5244979999999999</v>
       </c>
       <c r="AQ4" s="1">
-        <v>983.649000</v>
+        <v>983.649</v>
       </c>
       <c r="AR4" s="1">
-        <v>-102.675000</v>
+        <v>-102.675</v>
       </c>
       <c r="AS4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="1">
-        <v>9099.232671</v>
+        <v>9099.2326709999998</v>
       </c>
       <c r="AU4" s="1">
-        <v>2.527565</v>
+        <v>2.5275650000000001</v>
       </c>
       <c r="AV4" s="1">
-        <v>995.096000</v>
+        <v>995.096</v>
       </c>
       <c r="AW4" s="1">
-        <v>-124.286000</v>
+        <v>-124.286</v>
       </c>
       <c r="AX4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="1">
-        <v>9110.346565</v>
+        <v>9110.3465649999998</v>
       </c>
       <c r="AZ4" s="1">
-        <v>2.530652</v>
+        <v>2.5306519999999999</v>
       </c>
       <c r="BA4" s="1">
-        <v>1004.730000</v>
+        <v>1004.73</v>
       </c>
       <c r="BB4" s="1">
-        <v>-143.018000</v>
+        <v>-143.018</v>
       </c>
       <c r="BC4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD4" s="1">
-        <v>9120.969383</v>
+        <v>9120.9693829999997</v>
       </c>
       <c r="BE4" s="1">
-        <v>2.533603</v>
+        <v>2.5336029999999998</v>
       </c>
       <c r="BF4" s="1">
-        <v>1050.040000</v>
+        <v>1050.04</v>
       </c>
       <c r="BG4" s="1">
-        <v>-227.777000</v>
+        <v>-227.77699999999999</v>
       </c>
       <c r="BH4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI4" s="1">
-        <v>9131.740996</v>
+        <v>9131.7409960000005</v>
       </c>
       <c r="BJ4" s="1">
-        <v>2.536595</v>
+        <v>2.5365950000000002</v>
       </c>
       <c r="BK4" s="1">
-        <v>1129.250000</v>
+        <v>1129.25</v>
       </c>
       <c r="BL4" s="1">
-        <v>-363.916000</v>
+        <v>-363.916</v>
       </c>
       <c r="BM4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN4" s="1">
-        <v>9141.756679</v>
+        <v>9141.7566790000001</v>
       </c>
       <c r="BO4" s="1">
         <v>2.539377</v>
       </c>
       <c r="BP4" s="1">
-        <v>1260.340000</v>
+        <v>1260.3399999999999</v>
       </c>
       <c r="BQ4" s="1">
-        <v>-574.952000</v>
+        <v>-574.952</v>
       </c>
       <c r="BR4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS4" s="1">
-        <v>9152.180117</v>
+        <v>9152.1801169999999</v>
       </c>
       <c r="BT4" s="1">
-        <v>2.542272</v>
+        <v>2.5422720000000001</v>
       </c>
       <c r="BU4" s="1">
-        <v>1407.590000</v>
+        <v>1407.59</v>
       </c>
       <c r="BV4" s="1">
-        <v>-800.791000</v>
+        <v>-800.79100000000005</v>
       </c>
       <c r="BW4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX4" s="1">
-        <v>9162.866907</v>
+        <v>9162.8669069999996</v>
       </c>
       <c r="BY4" s="1">
-        <v>2.545241</v>
+        <v>2.5452409999999999</v>
       </c>
       <c r="BZ4" s="1">
-        <v>1570.530000</v>
+        <v>1570.53</v>
       </c>
       <c r="CA4" s="1">
-        <v>-1036.260000</v>
+        <v>-1036.26</v>
       </c>
       <c r="CB4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC4" s="1">
-        <v>9174.018956</v>
+        <v>9174.0189559999999</v>
       </c>
       <c r="CD4" s="1">
-        <v>2.548339</v>
+        <v>2.5483389999999999</v>
       </c>
       <c r="CE4" s="1">
-        <v>1981.270000</v>
+        <v>1981.27</v>
       </c>
       <c r="CF4" s="1">
-        <v>-1585.590000</v>
+        <v>-1585.59</v>
       </c>
       <c r="CG4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:85">
       <c r="A5" s="1">
-        <v>9004.341052</v>
+        <v>9004.3410519999998</v>
       </c>
       <c r="B5" s="1">
-        <v>2.501206</v>
+        <v>2.5012059999999998</v>
       </c>
       <c r="C5" s="1">
-        <v>902.315000</v>
+        <v>902.31500000000005</v>
       </c>
       <c r="D5" s="1">
-        <v>-195.263000</v>
+        <v>-195.26300000000001</v>
       </c>
       <c r="E5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>9014.736238</v>
+        <v>9014.7362379999995</v>
       </c>
       <c r="G5" s="1">
-        <v>2.504093</v>
+        <v>2.5040930000000001</v>
       </c>
       <c r="H5" s="1">
-        <v>919.221000</v>
+        <v>919.221</v>
       </c>
       <c r="I5" s="1">
-        <v>-165.829000</v>
+        <v>-165.82900000000001</v>
       </c>
       <c r="J5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
-        <v>9025.190918</v>
+        <v>9025.1909180000002</v>
       </c>
       <c r="L5" s="1">
-        <v>2.506997</v>
+        <v>2.5069970000000001</v>
       </c>
       <c r="M5" s="1">
-        <v>941.475000</v>
+        <v>941.47500000000002</v>
       </c>
       <c r="N5" s="1">
-        <v>-118.452000</v>
+        <v>-118.452</v>
       </c>
       <c r="O5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P5" s="1">
-        <v>9035.703092</v>
+        <v>9035.7030919999997</v>
       </c>
       <c r="Q5" s="1">
-        <v>2.509918</v>
+        <v>2.5099179999999999</v>
       </c>
       <c r="R5" s="1">
-        <v>947.977000</v>
+        <v>947.97699999999998</v>
       </c>
       <c r="S5" s="1">
-        <v>-103.288000</v>
+        <v>-103.288</v>
       </c>
       <c r="T5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U5" s="1">
-        <v>9046.252005</v>
+        <v>9046.2520050000003</v>
       </c>
       <c r="V5" s="1">
         <v>2.512848</v>
       </c>
       <c r="W5" s="1">
-        <v>954.399000</v>
+        <v>954.399</v>
       </c>
       <c r="X5" s="1">
-        <v>-89.671400</v>
+        <v>-89.671400000000006</v>
       </c>
       <c r="Y5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="1">
-        <v>9056.922968</v>
+        <v>9056.9229680000008</v>
       </c>
       <c r="AA5" s="1">
-        <v>2.515812</v>
+        <v>2.5158119999999999</v>
       </c>
       <c r="AB5" s="1">
-        <v>961.540000</v>
+        <v>961.54</v>
       </c>
       <c r="AC5" s="1">
-        <v>-80.225900</v>
+        <v>-80.225899999999996</v>
       </c>
       <c r="AD5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="1">
-        <v>9067.496649</v>
+        <v>9067.4966490000006</v>
       </c>
       <c r="AF5" s="1">
-        <v>2.518749</v>
+        <v>2.5187490000000001</v>
       </c>
       <c r="AG5" s="1">
-        <v>966.445000</v>
+        <v>966.44500000000005</v>
       </c>
       <c r="AH5" s="1">
-        <v>-80.004200</v>
+        <v>-80.004199999999997</v>
       </c>
       <c r="AI5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="1">
-        <v>9077.942540</v>
+        <v>9077.94254</v>
       </c>
       <c r="AK5" s="1">
-        <v>2.521651</v>
+        <v>2.5216509999999999</v>
       </c>
       <c r="AL5" s="1">
-        <v>974.394000</v>
+        <v>974.39400000000001</v>
       </c>
       <c r="AM5" s="1">
-        <v>-87.723500</v>
+        <v>-87.723500000000001</v>
       </c>
       <c r="AN5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO5" s="1">
-        <v>9088.570696</v>
+        <v>9088.5706960000007</v>
       </c>
       <c r="AP5" s="1">
-        <v>2.524603</v>
+        <v>2.5246029999999999</v>
       </c>
       <c r="AQ5" s="1">
-        <v>983.617000</v>
+        <v>983.61699999999996</v>
       </c>
       <c r="AR5" s="1">
-        <v>-102.691000</v>
+        <v>-102.691</v>
       </c>
       <c r="AS5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="1">
-        <v>9099.599216</v>
+        <v>9099.5992160000005</v>
       </c>
       <c r="AU5" s="1">
         <v>2.527666</v>
       </c>
       <c r="AV5" s="1">
-        <v>995.084000</v>
+        <v>995.08399999999995</v>
       </c>
       <c r="AW5" s="1">
-        <v>-124.251000</v>
+        <v>-124.251</v>
       </c>
       <c r="AX5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="1">
-        <v>9110.705647</v>
+        <v>9110.7056470000007</v>
       </c>
       <c r="AZ5" s="1">
-        <v>2.530752</v>
+        <v>2.5307520000000001</v>
       </c>
       <c r="BA5" s="1">
-        <v>1004.720000</v>
+        <v>1004.72</v>
       </c>
       <c r="BB5" s="1">
-        <v>-143.005000</v>
+        <v>-143.005</v>
       </c>
       <c r="BC5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD5" s="1">
-        <v>9121.386483</v>
+        <v>9121.3864830000002</v>
       </c>
       <c r="BE5" s="1">
-        <v>2.533718</v>
+        <v>2.5337179999999999</v>
       </c>
       <c r="BF5" s="1">
-        <v>1050.040000</v>
+        <v>1050.04</v>
       </c>
       <c r="BG5" s="1">
-        <v>-227.767000</v>
+        <v>-227.767</v>
       </c>
       <c r="BH5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI5" s="1">
-        <v>9132.159624</v>
+        <v>9132.1596239999999</v>
       </c>
       <c r="BJ5" s="1">
-        <v>2.536711</v>
+        <v>2.5367109999999999</v>
       </c>
       <c r="BK5" s="1">
-        <v>1129.250000</v>
+        <v>1129.25</v>
       </c>
       <c r="BL5" s="1">
-        <v>-363.927000</v>
+        <v>-363.92700000000002</v>
       </c>
       <c r="BM5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN5" s="1">
-        <v>9142.163399</v>
+        <v>9142.1633989999991</v>
       </c>
       <c r="BO5" s="1">
-        <v>2.539490</v>
+        <v>2.5394899999999998</v>
       </c>
       <c r="BP5" s="1">
-        <v>1260.300000</v>
+        <v>1260.3</v>
       </c>
       <c r="BQ5" s="1">
-        <v>-574.937000</v>
+        <v>-574.93700000000001</v>
       </c>
       <c r="BR5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS5" s="1">
-        <v>9152.523832</v>
+        <v>9152.5238320000008</v>
       </c>
       <c r="BT5" s="1">
-        <v>2.542368</v>
+        <v>2.5423680000000002</v>
       </c>
       <c r="BU5" s="1">
-        <v>1407.600000</v>
+        <v>1407.6</v>
       </c>
       <c r="BV5" s="1">
-        <v>-800.763000</v>
+        <v>-800.76300000000003</v>
       </c>
       <c r="BW5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX5" s="1">
         <v>9163.288047</v>
       </c>
       <c r="BY5" s="1">
-        <v>2.545358</v>
+        <v>2.5453579999999998</v>
       </c>
       <c r="BZ5" s="1">
-        <v>1570.510000</v>
+        <v>1570.51</v>
       </c>
       <c r="CA5" s="1">
-        <v>-1036.310000</v>
+        <v>-1036.31</v>
       </c>
       <c r="CB5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC5" s="1">
         <v>9174.559131</v>
@@ -1492,1026 +1908,1026 @@
         <v>2.548489</v>
       </c>
       <c r="CE5" s="1">
-        <v>1983.270000</v>
+        <v>1983.27</v>
       </c>
       <c r="CF5" s="1">
-        <v>-1586.930000</v>
+        <v>-1586.93</v>
       </c>
       <c r="CG5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:85">
       <c r="A6" s="1">
-        <v>9004.679847</v>
+        <v>9004.6798469999994</v>
       </c>
       <c r="B6" s="1">
-        <v>2.501300</v>
+        <v>2.5013000000000001</v>
       </c>
       <c r="C6" s="1">
-        <v>902.238000</v>
+        <v>902.23800000000006</v>
       </c>
       <c r="D6" s="1">
-        <v>-195.180000</v>
+        <v>-195.18</v>
       </c>
       <c r="E6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>9015.081450</v>
+        <v>9015.0814499999997</v>
       </c>
       <c r="G6" s="1">
-        <v>2.504189</v>
+        <v>2.5041890000000002</v>
       </c>
       <c r="H6" s="1">
-        <v>919.342000</v>
+        <v>919.34199999999998</v>
       </c>
       <c r="I6" s="1">
-        <v>-165.757000</v>
+        <v>-165.75700000000001</v>
       </c>
       <c r="J6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
-        <v>9025.538577</v>
+        <v>9025.5385769999993</v>
       </c>
       <c r="L6" s="1">
-        <v>2.507094</v>
+        <v>2.5070939999999999</v>
       </c>
       <c r="M6" s="1">
-        <v>941.375000</v>
+        <v>941.375</v>
       </c>
       <c r="N6" s="1">
-        <v>-118.504000</v>
+        <v>-118.504</v>
       </c>
       <c r="O6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P6" s="1">
-        <v>9036.351363</v>
+        <v>9036.3513629999998</v>
       </c>
       <c r="Q6" s="1">
-        <v>2.510098</v>
+        <v>2.5100980000000002</v>
       </c>
       <c r="R6" s="1">
-        <v>948.004000</v>
+        <v>948.00400000000002</v>
       </c>
       <c r="S6" s="1">
-        <v>-103.291000</v>
+        <v>-103.291</v>
       </c>
       <c r="T6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U6" s="1">
-        <v>9046.904740</v>
+        <v>9046.9047399999999</v>
       </c>
       <c r="V6" s="1">
         <v>2.513029</v>
       </c>
       <c r="W6" s="1">
-        <v>954.326000</v>
+        <v>954.32600000000002</v>
       </c>
       <c r="X6" s="1">
-        <v>-89.653600</v>
+        <v>-89.653599999999997</v>
       </c>
       <c r="Y6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="1">
-        <v>9057.311057</v>
+        <v>9057.3110570000008</v>
       </c>
       <c r="AA6" s="1">
-        <v>2.515920</v>
+        <v>2.5159199999999999</v>
       </c>
       <c r="AB6" s="1">
-        <v>961.525000</v>
+        <v>961.52499999999998</v>
       </c>
       <c r="AC6" s="1">
-        <v>-80.294300</v>
+        <v>-80.294300000000007</v>
       </c>
       <c r="AD6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="1">
-        <v>9067.843352</v>
+        <v>9067.8433519999999</v>
       </c>
       <c r="AF6" s="1">
-        <v>2.518845</v>
+        <v>2.5188449999999998</v>
       </c>
       <c r="AG6" s="1">
-        <v>966.653000</v>
+        <v>966.65300000000002</v>
       </c>
       <c r="AH6" s="1">
-        <v>-79.834100</v>
+        <v>-79.834100000000007</v>
       </c>
       <c r="AI6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="1">
-        <v>9078.288138</v>
+        <v>9078.2881379999999</v>
       </c>
       <c r="AK6" s="1">
         <v>2.521747</v>
       </c>
       <c r="AL6" s="1">
-        <v>974.406000</v>
+        <v>974.40599999999995</v>
       </c>
       <c r="AM6" s="1">
-        <v>-87.759100</v>
+        <v>-87.759100000000004</v>
       </c>
       <c r="AN6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO6" s="1">
-        <v>9088.929308</v>
+        <v>9088.9293080000007</v>
       </c>
       <c r="AP6" s="1">
-        <v>2.524703</v>
+        <v>2.5247030000000001</v>
       </c>
       <c r="AQ6" s="1">
-        <v>983.664000</v>
+        <v>983.66399999999999</v>
       </c>
       <c r="AR6" s="1">
-        <v>-102.698000</v>
+        <v>-102.69799999999999</v>
       </c>
       <c r="AS6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="1">
-        <v>9099.961326</v>
+        <v>9099.9613260000006</v>
       </c>
       <c r="AU6" s="1">
-        <v>2.527767</v>
+        <v>2.5277669999999999</v>
       </c>
       <c r="AV6" s="1">
-        <v>995.088000</v>
+        <v>995.08799999999997</v>
       </c>
       <c r="AW6" s="1">
-        <v>-124.268000</v>
+        <v>-124.268</v>
       </c>
       <c r="AX6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="1">
-        <v>9111.118799</v>
+        <v>9111.1187989999999</v>
       </c>
       <c r="AZ6" s="1">
-        <v>2.530866</v>
+        <v>2.5308660000000001</v>
       </c>
       <c r="BA6" s="1">
-        <v>1004.720000</v>
+        <v>1004.72</v>
       </c>
       <c r="BB6" s="1">
-        <v>-143.017000</v>
+        <v>-143.017</v>
       </c>
       <c r="BC6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD6" s="1">
-        <v>9121.692017</v>
+        <v>9121.6920169999994</v>
       </c>
       <c r="BE6" s="1">
-        <v>2.533803</v>
+        <v>2.5338029999999998</v>
       </c>
       <c r="BF6" s="1">
-        <v>1050.040000</v>
+        <v>1050.04</v>
       </c>
       <c r="BG6" s="1">
-        <v>-227.746000</v>
+        <v>-227.74600000000001</v>
       </c>
       <c r="BH6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI6" s="1">
-        <v>9132.491411</v>
+        <v>9132.4914110000009</v>
       </c>
       <c r="BJ6" s="1">
-        <v>2.536803</v>
+        <v>2.5368029999999999</v>
       </c>
       <c r="BK6" s="1">
-        <v>1129.190000</v>
+        <v>1129.19</v>
       </c>
       <c r="BL6" s="1">
-        <v>-363.942000</v>
+        <v>-363.94200000000001</v>
       </c>
       <c r="BM6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN6" s="1">
-        <v>9142.562709</v>
+        <v>9142.5627089999998</v>
       </c>
       <c r="BO6" s="1">
-        <v>2.539601</v>
+        <v>2.5396010000000002</v>
       </c>
       <c r="BP6" s="1">
-        <v>1260.290000</v>
+        <v>1260.29</v>
       </c>
       <c r="BQ6" s="1">
-        <v>-574.957000</v>
+        <v>-574.95699999999999</v>
       </c>
       <c r="BR6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS6" s="1">
-        <v>9152.955352</v>
+        <v>9152.9553520000009</v>
       </c>
       <c r="BT6" s="1">
-        <v>2.542488</v>
+        <v>2.5424880000000001</v>
       </c>
       <c r="BU6" s="1">
-        <v>1407.600000</v>
+        <v>1407.6</v>
       </c>
       <c r="BV6" s="1">
-        <v>-800.758000</v>
+        <v>-800.75800000000004</v>
       </c>
       <c r="BW6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX6" s="1">
-        <v>9163.701178</v>
+        <v>9163.7011779999993</v>
       </c>
       <c r="BY6" s="1">
-        <v>2.545473</v>
+        <v>2.5454729999999999</v>
       </c>
       <c r="BZ6" s="1">
-        <v>1570.430000</v>
+        <v>1570.43</v>
       </c>
       <c r="CA6" s="1">
-        <v>-1036.420000</v>
+        <v>-1036.42</v>
       </c>
       <c r="CB6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC6" s="1">
-        <v>9175.100471</v>
+        <v>9175.1004709999997</v>
       </c>
       <c r="CD6" s="1">
-        <v>2.548639</v>
+        <v>2.5486390000000001</v>
       </c>
       <c r="CE6" s="1">
-        <v>1982.240000</v>
+        <v>1982.24</v>
       </c>
       <c r="CF6" s="1">
-        <v>-1584.890000</v>
+        <v>-1584.89</v>
       </c>
       <c r="CG6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:85">
       <c r="A7" s="1">
-        <v>9005.022092</v>
+        <v>9005.0220919999992</v>
       </c>
       <c r="B7" s="1">
         <v>2.501395</v>
       </c>
       <c r="C7" s="1">
-        <v>902.365000</v>
+        <v>902.36500000000001</v>
       </c>
       <c r="D7" s="1">
-        <v>-195.118000</v>
+        <v>-195.11799999999999</v>
       </c>
       <c r="E7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>9015.730687</v>
+        <v>9015.7306869999993</v>
       </c>
       <c r="G7" s="1">
-        <v>2.504370</v>
+        <v>2.5043700000000002</v>
       </c>
       <c r="H7" s="1">
-        <v>919.153000</v>
+        <v>919.15300000000002</v>
       </c>
       <c r="I7" s="1">
-        <v>-165.376000</v>
+        <v>-165.376</v>
       </c>
       <c r="J7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
-        <v>9026.182880</v>
+        <v>9026.1828800000003</v>
       </c>
       <c r="L7" s="1">
-        <v>2.507273</v>
+        <v>2.5072730000000001</v>
       </c>
       <c r="M7" s="1">
-        <v>941.561000</v>
+        <v>941.56100000000004</v>
       </c>
       <c r="N7" s="1">
-        <v>-118.393000</v>
+        <v>-118.393</v>
       </c>
       <c r="O7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P7" s="1">
-        <v>9036.748161</v>
+        <v>9036.7481609999995</v>
       </c>
       <c r="Q7" s="1">
         <v>2.510208</v>
       </c>
       <c r="R7" s="1">
-        <v>948.020000</v>
+        <v>948.02</v>
       </c>
       <c r="S7" s="1">
-        <v>-103.311000</v>
+        <v>-103.31100000000001</v>
       </c>
       <c r="T7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U7" s="1">
-        <v>9047.285668</v>
+        <v>9047.2856680000004</v>
       </c>
       <c r="V7" s="1">
-        <v>2.513135</v>
+        <v>2.5131350000000001</v>
       </c>
       <c r="W7" s="1">
-        <v>954.371000</v>
+        <v>954.37099999999998</v>
       </c>
       <c r="X7" s="1">
-        <v>-89.662100</v>
+        <v>-89.662099999999995</v>
       </c>
       <c r="Y7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="1">
-        <v>9057.659494</v>
+        <v>9057.6594939999995</v>
       </c>
       <c r="AA7" s="1">
-        <v>2.516017</v>
+        <v>2.5160170000000002</v>
       </c>
       <c r="AB7" s="1">
-        <v>961.443000</v>
+        <v>961.44299999999998</v>
       </c>
       <c r="AC7" s="1">
-        <v>-80.297300</v>
+        <v>-80.297300000000007</v>
       </c>
       <c r="AD7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="1">
-        <v>9068.183608</v>
+        <v>9068.1836079999994</v>
       </c>
       <c r="AF7" s="1">
-        <v>2.518940</v>
+        <v>2.5189400000000002</v>
       </c>
       <c r="AG7" s="1">
-        <v>966.329000</v>
+        <v>966.32899999999995</v>
       </c>
       <c r="AH7" s="1">
-        <v>-79.842400</v>
+        <v>-79.842399999999998</v>
       </c>
       <c r="AI7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ7" s="1">
         <v>9078.641259</v>
       </c>
       <c r="AK7" s="1">
-        <v>2.521845</v>
+        <v>2.5218449999999999</v>
       </c>
       <c r="AL7" s="1">
-        <v>974.415000</v>
+        <v>974.41499999999996</v>
       </c>
       <c r="AM7" s="1">
-        <v>-87.752500</v>
+        <v>-87.752499999999998</v>
       </c>
       <c r="AN7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO7" s="1">
-        <v>9089.340957</v>
+        <v>9089.3409570000003</v>
       </c>
       <c r="AP7" s="1">
-        <v>2.524817</v>
+        <v>2.5248170000000001</v>
       </c>
       <c r="AQ7" s="1">
-        <v>983.664000</v>
+        <v>983.66399999999999</v>
       </c>
       <c r="AR7" s="1">
-        <v>-102.708000</v>
+        <v>-102.708</v>
       </c>
       <c r="AS7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="1">
-        <v>9100.373713</v>
+        <v>9100.3737130000009</v>
       </c>
       <c r="AU7" s="1">
         <v>2.527882</v>
       </c>
       <c r="AV7" s="1">
-        <v>995.066000</v>
+        <v>995.06600000000003</v>
       </c>
       <c r="AW7" s="1">
-        <v>-124.264000</v>
+        <v>-124.264</v>
       </c>
       <c r="AX7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="1">
-        <v>9111.422863</v>
+        <v>9111.4228629999998</v>
       </c>
       <c r="AZ7" s="1">
         <v>2.530951</v>
       </c>
       <c r="BA7" s="1">
-        <v>1004.720000</v>
+        <v>1004.72</v>
       </c>
       <c r="BB7" s="1">
-        <v>-143.021000</v>
+        <v>-143.02099999999999</v>
       </c>
       <c r="BC7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD7" s="1">
-        <v>9122.053601</v>
+        <v>9122.0536009999996</v>
       </c>
       <c r="BE7" s="1">
-        <v>2.533904</v>
+        <v>2.5339040000000002</v>
       </c>
       <c r="BF7" s="1">
-        <v>1050.040000</v>
+        <v>1050.04</v>
       </c>
       <c r="BG7" s="1">
-        <v>-227.756000</v>
+        <v>-227.756</v>
       </c>
       <c r="BH7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI7" s="1">
         <v>9132.866387</v>
       </c>
       <c r="BJ7" s="1">
-        <v>2.536907</v>
+        <v>2.5369069999999998</v>
       </c>
       <c r="BK7" s="1">
-        <v>1129.220000</v>
+        <v>1129.22</v>
       </c>
       <c r="BL7" s="1">
-        <v>-363.942000</v>
+        <v>-363.94200000000001</v>
       </c>
       <c r="BM7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN7" s="1">
-        <v>9142.983781</v>
+        <v>9142.9837810000008</v>
       </c>
       <c r="BO7" s="1">
-        <v>2.539718</v>
+        <v>2.5397180000000001</v>
       </c>
       <c r="BP7" s="1">
-        <v>1260.310000</v>
+        <v>1260.31</v>
       </c>
       <c r="BQ7" s="1">
-        <v>-574.940000</v>
+        <v>-574.94000000000005</v>
       </c>
       <c r="BR7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS7" s="1">
-        <v>9153.366048</v>
+        <v>9153.3660479999999</v>
       </c>
       <c r="BT7" s="1">
         <v>2.542602</v>
       </c>
       <c r="BU7" s="1">
-        <v>1407.570000</v>
+        <v>1407.57</v>
       </c>
       <c r="BV7" s="1">
-        <v>-800.824000</v>
+        <v>-800.82399999999996</v>
       </c>
       <c r="BW7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX7" s="1">
-        <v>9164.140176</v>
+        <v>9164.1401760000008</v>
       </c>
       <c r="BY7" s="1">
-        <v>2.545594</v>
+        <v>2.5455939999999999</v>
       </c>
       <c r="BZ7" s="1">
-        <v>1570.470000</v>
+        <v>1570.47</v>
       </c>
       <c r="CA7" s="1">
-        <v>-1036.430000</v>
+        <v>-1036.43</v>
       </c>
       <c r="CB7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC7" s="1">
-        <v>9175.638395</v>
+        <v>9175.6383949999999</v>
       </c>
       <c r="CD7" s="1">
-        <v>2.548788</v>
+        <v>2.5487880000000001</v>
       </c>
       <c r="CE7" s="1">
-        <v>1982.010000</v>
+        <v>1982.01</v>
       </c>
       <c r="CF7" s="1">
-        <v>-1587.020000</v>
+        <v>-1587.02</v>
       </c>
       <c r="CG7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:85">
       <c r="A8" s="1">
-        <v>9005.678794</v>
+        <v>9005.6787939999995</v>
       </c>
       <c r="B8" s="1">
-        <v>2.501577</v>
+        <v>2.5015770000000002</v>
       </c>
       <c r="C8" s="1">
-        <v>902.342000</v>
+        <v>902.34199999999998</v>
       </c>
       <c r="D8" s="1">
-        <v>-195.230000</v>
+        <v>-195.23</v>
       </c>
       <c r="E8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>9016.114707</v>
+        <v>9016.1147070000006</v>
       </c>
       <c r="G8" s="1">
-        <v>2.504476</v>
+        <v>2.5044759999999999</v>
       </c>
       <c r="H8" s="1">
-        <v>919.725000</v>
+        <v>919.72500000000002</v>
       </c>
       <c r="I8" s="1">
-        <v>-165.675000</v>
+        <v>-165.67500000000001</v>
       </c>
       <c r="J8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
-        <v>9026.572272</v>
+        <v>9026.5722719999994</v>
       </c>
       <c r="L8" s="1">
-        <v>2.507381</v>
+        <v>2.5073810000000001</v>
       </c>
       <c r="M8" s="1">
-        <v>941.276000</v>
+        <v>941.27599999999995</v>
       </c>
       <c r="N8" s="1">
-        <v>-118.437000</v>
+        <v>-118.437</v>
       </c>
       <c r="O8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P8" s="1">
-        <v>9037.096117</v>
+        <v>9037.0961169999991</v>
       </c>
       <c r="Q8" s="1">
-        <v>2.510304</v>
+        <v>2.5103040000000001</v>
       </c>
       <c r="R8" s="1">
-        <v>948.002000</v>
+        <v>948.00199999999995</v>
       </c>
       <c r="S8" s="1">
-        <v>-103.317000</v>
+        <v>-103.31699999999999</v>
       </c>
       <c r="T8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U8" s="1">
-        <v>9047.625960</v>
+        <v>9047.6259599999994</v>
       </c>
       <c r="V8" s="1">
-        <v>2.513229</v>
+        <v>2.5132289999999999</v>
       </c>
       <c r="W8" s="1">
-        <v>954.359000</v>
+        <v>954.35900000000004</v>
       </c>
       <c r="X8" s="1">
-        <v>-89.659600</v>
+        <v>-89.659599999999998</v>
       </c>
       <c r="Y8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="1">
-        <v>9058.006693</v>
+        <v>9058.0066929999994</v>
       </c>
       <c r="AA8" s="1">
-        <v>2.516113</v>
+        <v>2.5161129999999998</v>
       </c>
       <c r="AB8" s="1">
-        <v>961.463000</v>
+        <v>961.46299999999997</v>
       </c>
       <c r="AC8" s="1">
-        <v>-80.197400</v>
+        <v>-80.197400000000002</v>
       </c>
       <c r="AD8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="1">
-        <v>9068.596776</v>
+        <v>9068.5967760000003</v>
       </c>
       <c r="AF8" s="1">
-        <v>2.519055</v>
+        <v>2.5190549999999998</v>
       </c>
       <c r="AG8" s="1">
-        <v>966.577000</v>
+        <v>966.577</v>
       </c>
       <c r="AH8" s="1">
-        <v>-79.862800</v>
+        <v>-79.862799999999993</v>
       </c>
       <c r="AI8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ8" s="1">
-        <v>9079.059081</v>
+        <v>9079.0590809999994</v>
       </c>
       <c r="AK8" s="1">
-        <v>2.521961</v>
+        <v>2.5219610000000001</v>
       </c>
       <c r="AL8" s="1">
-        <v>974.420000</v>
+        <v>974.42</v>
       </c>
       <c r="AM8" s="1">
-        <v>-87.736200</v>
+        <v>-87.736199999999997</v>
       </c>
       <c r="AN8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO8" s="1">
-        <v>9089.648971</v>
+        <v>9089.6489710000005</v>
       </c>
       <c r="AP8" s="1">
         <v>2.524902</v>
       </c>
       <c r="AQ8" s="1">
-        <v>983.623000</v>
+        <v>983.62300000000005</v>
       </c>
       <c r="AR8" s="1">
-        <v>-102.705000</v>
+        <v>-102.705</v>
       </c>
       <c r="AS8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="1">
-        <v>9100.692399</v>
+        <v>9100.6923989999996</v>
       </c>
       <c r="AU8" s="1">
-        <v>2.527970</v>
+        <v>2.5279699999999998</v>
       </c>
       <c r="AV8" s="1">
-        <v>995.077000</v>
+        <v>995.077</v>
       </c>
       <c r="AW8" s="1">
-        <v>-124.273000</v>
+        <v>-124.273</v>
       </c>
       <c r="AX8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY8" s="1">
-        <v>9111.782446</v>
+        <v>9111.7824459999993</v>
       </c>
       <c r="AZ8" s="1">
-        <v>2.531051</v>
+        <v>2.5310510000000002</v>
       </c>
       <c r="BA8" s="1">
-        <v>1004.730000</v>
+        <v>1004.73</v>
       </c>
       <c r="BB8" s="1">
-        <v>-143.008000</v>
+        <v>-143.00800000000001</v>
       </c>
       <c r="BC8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD8" s="1">
-        <v>9122.413696</v>
+        <v>9122.4136959999996</v>
       </c>
       <c r="BE8" s="1">
-        <v>2.534004</v>
+        <v>2.5340039999999999</v>
       </c>
       <c r="BF8" s="1">
-        <v>1050.020000</v>
+        <v>1050.02</v>
       </c>
       <c r="BG8" s="1">
-        <v>-227.779000</v>
+        <v>-227.779</v>
       </c>
       <c r="BH8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI8" s="1">
-        <v>9133.241362</v>
+        <v>9133.2413620000007</v>
       </c>
       <c r="BJ8" s="1">
-        <v>2.537011</v>
+        <v>2.5370110000000001</v>
       </c>
       <c r="BK8" s="1">
-        <v>1129.220000</v>
+        <v>1129.22</v>
       </c>
       <c r="BL8" s="1">
-        <v>-363.948000</v>
+        <v>-363.94799999999998</v>
       </c>
       <c r="BM8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN8" s="1">
-        <v>9143.395461</v>
+        <v>9143.3954610000001</v>
       </c>
       <c r="BO8" s="1">
-        <v>2.539832</v>
+        <v>2.5398320000000001</v>
       </c>
       <c r="BP8" s="1">
-        <v>1260.310000</v>
+        <v>1260.31</v>
       </c>
       <c r="BQ8" s="1">
-        <v>-574.945000</v>
+        <v>-574.94500000000005</v>
       </c>
       <c r="BR8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS8" s="1">
-        <v>9153.797559</v>
+        <v>9153.7975590000005</v>
       </c>
       <c r="BT8" s="1">
-        <v>2.542722</v>
+        <v>2.5427219999999999</v>
       </c>
       <c r="BU8" s="1">
-        <v>1407.590000</v>
+        <v>1407.59</v>
       </c>
       <c r="BV8" s="1">
-        <v>-800.860000</v>
+        <v>-800.86</v>
       </c>
       <c r="BW8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX8" s="1">
-        <v>9164.555315</v>
+        <v>9164.5553149999996</v>
       </c>
       <c r="BY8" s="1">
-        <v>2.545710</v>
+        <v>2.5457100000000001</v>
       </c>
       <c r="BZ8" s="1">
-        <v>1570.530000</v>
+        <v>1570.53</v>
       </c>
       <c r="CA8" s="1">
-        <v>-1036.250000</v>
+        <v>-1036.25</v>
       </c>
       <c r="CB8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC8" s="1">
-        <v>9176.177545</v>
+        <v>9176.1775450000005</v>
       </c>
       <c r="CD8" s="1">
-        <v>2.548938</v>
+        <v>2.5489380000000001</v>
       </c>
       <c r="CE8" s="1">
-        <v>1983.050000</v>
+        <v>1983.05</v>
       </c>
       <c r="CF8" s="1">
-        <v>-1585.760000</v>
+        <v>-1585.76</v>
       </c>
       <c r="CG8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:85">
       <c r="A9" s="1">
-        <v>9006.048781</v>
+        <v>9006.0487809999995</v>
       </c>
       <c r="B9" s="1">
-        <v>2.501680</v>
+        <v>2.5016799999999999</v>
       </c>
       <c r="C9" s="1">
-        <v>902.419000</v>
+        <v>902.41899999999998</v>
       </c>
       <c r="D9" s="1">
-        <v>-195.404000</v>
+        <v>-195.404</v>
       </c>
       <c r="E9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>9016.460338</v>
+        <v>9016.4603380000008</v>
       </c>
       <c r="G9" s="1">
         <v>2.504572</v>
       </c>
       <c r="H9" s="1">
-        <v>919.364000</v>
+        <v>919.36400000000003</v>
       </c>
       <c r="I9" s="1">
-        <v>-165.240000</v>
+        <v>-165.24</v>
       </c>
       <c r="J9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
-        <v>9026.918479</v>
+        <v>9026.9184789999999</v>
       </c>
       <c r="L9" s="1">
-        <v>2.507477</v>
+        <v>2.5074770000000002</v>
       </c>
       <c r="M9" s="1">
-        <v>941.387000</v>
+        <v>941.38699999999994</v>
       </c>
       <c r="N9" s="1">
-        <v>-118.472000</v>
+        <v>-118.47199999999999</v>
       </c>
       <c r="O9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P9" s="1">
-        <v>9037.444081</v>
+        <v>9037.4440809999996</v>
       </c>
       <c r="Q9" s="1">
-        <v>2.510401</v>
+        <v>2.5104009999999999</v>
       </c>
       <c r="R9" s="1">
-        <v>947.977000</v>
+        <v>947.97699999999998</v>
       </c>
       <c r="S9" s="1">
-        <v>-103.316000</v>
+        <v>-103.316</v>
       </c>
       <c r="T9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U9" s="1">
-        <v>9047.972130</v>
+        <v>9047.9721300000001</v>
       </c>
       <c r="V9" s="1">
-        <v>2.513326</v>
+        <v>2.5133260000000002</v>
       </c>
       <c r="W9" s="1">
-        <v>954.325000</v>
+        <v>954.32500000000005</v>
       </c>
       <c r="X9" s="1">
-        <v>-89.637200</v>
+        <v>-89.637200000000007</v>
       </c>
       <c r="Y9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="1">
-        <v>9058.430312</v>
+        <v>9058.4303120000004</v>
       </c>
       <c r="AA9" s="1">
-        <v>2.516231</v>
+        <v>2.5162309999999999</v>
       </c>
       <c r="AB9" s="1">
-        <v>961.572000</v>
+        <v>961.572</v>
       </c>
       <c r="AC9" s="1">
-        <v>-80.175100</v>
+        <v>-80.1751</v>
       </c>
       <c r="AD9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="1">
-        <v>9068.889415</v>
+        <v>9068.8894149999996</v>
       </c>
       <c r="AF9" s="1">
         <v>2.519136</v>
       </c>
       <c r="AG9" s="1">
-        <v>966.423000</v>
+        <v>966.423</v>
       </c>
       <c r="AH9" s="1">
-        <v>-79.884100</v>
+        <v>-79.884100000000004</v>
       </c>
       <c r="AI9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="1">
-        <v>9079.340121</v>
+        <v>9079.3401209999993</v>
       </c>
       <c r="AK9" s="1">
-        <v>2.522039</v>
+        <v>2.5220389999999999</v>
       </c>
       <c r="AL9" s="1">
-        <v>974.417000</v>
+        <v>974.41700000000003</v>
       </c>
       <c r="AM9" s="1">
-        <v>-87.744200</v>
+        <v>-87.744200000000006</v>
       </c>
       <c r="AN9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO9" s="1">
-        <v>9090.013035</v>
+        <v>9090.0130349999999</v>
       </c>
       <c r="AP9" s="1">
         <v>2.525004</v>
       </c>
       <c r="AQ9" s="1">
-        <v>983.631000</v>
+        <v>983.63099999999997</v>
       </c>
       <c r="AR9" s="1">
-        <v>-102.695000</v>
+        <v>-102.69499999999999</v>
       </c>
       <c r="AS9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="1">
-        <v>9101.054973</v>
+        <v>9101.0549730000002</v>
       </c>
       <c r="AU9" s="1">
-        <v>2.528071</v>
+        <v>2.5280710000000002</v>
       </c>
       <c r="AV9" s="1">
-        <v>995.074000</v>
+        <v>995.07399999999996</v>
       </c>
       <c r="AW9" s="1">
-        <v>-124.256000</v>
+        <v>-124.256</v>
       </c>
       <c r="AX9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY9" s="1">
-        <v>9112.142542</v>
+        <v>9112.1425419999996</v>
       </c>
       <c r="AZ9" s="1">
-        <v>2.531151</v>
+        <v>2.5311509999999999</v>
       </c>
       <c r="BA9" s="1">
-        <v>1004.730000</v>
+        <v>1004.73</v>
       </c>
       <c r="BB9" s="1">
-        <v>-142.994000</v>
+        <v>-142.994</v>
       </c>
       <c r="BC9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD9" s="1">
-        <v>9123.133391</v>
+        <v>9123.1333909999994</v>
       </c>
       <c r="BE9" s="1">
-        <v>2.534204</v>
+        <v>2.5342039999999999</v>
       </c>
       <c r="BF9" s="1">
-        <v>1050.020000</v>
+        <v>1050.02</v>
       </c>
       <c r="BG9" s="1">
-        <v>-227.799000</v>
+        <v>-227.79900000000001</v>
       </c>
       <c r="BH9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI9" s="1">
-        <v>9133.659030</v>
+        <v>9133.6590300000007</v>
       </c>
       <c r="BJ9" s="1">
         <v>2.537128</v>
       </c>
       <c r="BK9" s="1">
-        <v>1129.230000</v>
+        <v>1129.23</v>
       </c>
       <c r="BL9" s="1">
-        <v>-363.947000</v>
+        <v>-363.947</v>
       </c>
       <c r="BM9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN9" s="1">
-        <v>9143.802180</v>
+        <v>9143.8021800000006</v>
       </c>
       <c r="BO9" s="1">
-        <v>2.539945</v>
+        <v>2.5399449999999999</v>
       </c>
       <c r="BP9" s="1">
-        <v>1260.310000</v>
+        <v>1260.31</v>
       </c>
       <c r="BQ9" s="1">
-        <v>-574.934000</v>
+        <v>-574.93399999999997</v>
       </c>
       <c r="BR9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS9" s="1">
-        <v>9154.227094</v>
+        <v>9154.2270939999999</v>
       </c>
       <c r="BT9" s="1">
-        <v>2.542841</v>
+        <v>2.5428410000000001</v>
       </c>
       <c r="BU9" s="1">
-        <v>1407.550000</v>
+        <v>1407.55</v>
       </c>
       <c r="BV9" s="1">
-        <v>-800.941000</v>
+        <v>-800.94100000000003</v>
       </c>
       <c r="BW9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX9" s="1">
-        <v>9165.007144</v>
+        <v>9165.0071439999992</v>
       </c>
       <c r="BY9" s="1">
-        <v>2.545835</v>
+        <v>2.5458349999999998</v>
       </c>
       <c r="BZ9" s="1">
-        <v>1570.450000</v>
+        <v>1570.45</v>
       </c>
       <c r="CA9" s="1">
-        <v>-1036.470000</v>
+        <v>-1036.47</v>
       </c>
       <c r="CB9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC9" s="1">
         <v>9177.029176</v>
@@ -2520,664 +2936,664 @@
         <v>2.549175</v>
       </c>
       <c r="CE9" s="1">
-        <v>1982.340000</v>
+        <v>1982.34</v>
       </c>
       <c r="CF9" s="1">
-        <v>-1586.950000</v>
+        <v>-1586.95</v>
       </c>
       <c r="CG9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:85">
       <c r="A10" s="1">
-        <v>9006.392543</v>
+        <v>9006.3925429999999</v>
       </c>
       <c r="B10" s="1">
         <v>2.501776</v>
       </c>
       <c r="C10" s="1">
-        <v>902.388000</v>
+        <v>902.38800000000003</v>
       </c>
       <c r="D10" s="1">
-        <v>-195.341000</v>
+        <v>-195.34100000000001</v>
       </c>
       <c r="E10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
         <v>9016.805515</v>
       </c>
       <c r="G10" s="1">
-        <v>2.504668</v>
+        <v>2.5046680000000001</v>
       </c>
       <c r="H10" s="1">
-        <v>919.554000</v>
+        <v>919.55399999999997</v>
       </c>
       <c r="I10" s="1">
-        <v>-165.746000</v>
+        <v>-165.74600000000001</v>
       </c>
       <c r="J10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
-        <v>9027.265646</v>
+        <v>9027.2656459999998</v>
       </c>
       <c r="L10" s="1">
         <v>2.507574</v>
       </c>
       <c r="M10" s="1">
-        <v>941.546000</v>
+        <v>941.54600000000005</v>
       </c>
       <c r="N10" s="1">
-        <v>-118.497000</v>
+        <v>-118.497</v>
       </c>
       <c r="O10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P10" s="1">
-        <v>9037.867163</v>
+        <v>9037.8671630000008</v>
       </c>
       <c r="Q10" s="1">
-        <v>2.510519</v>
+        <v>2.5105189999999999</v>
       </c>
       <c r="R10" s="1">
-        <v>947.938000</v>
+        <v>947.93799999999999</v>
       </c>
       <c r="S10" s="1">
-        <v>-103.295000</v>
+        <v>-103.295</v>
       </c>
       <c r="T10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U10" s="1">
-        <v>9048.492967</v>
+        <v>9048.4929670000001</v>
       </c>
       <c r="V10" s="1">
-        <v>2.513470</v>
+        <v>2.5134699999999999</v>
       </c>
       <c r="W10" s="1">
-        <v>954.310000</v>
+        <v>954.31</v>
       </c>
       <c r="X10" s="1">
-        <v>-89.585100</v>
+        <v>-89.585099999999997</v>
       </c>
       <c r="Y10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="1">
-        <v>9058.705556</v>
+        <v>9058.7055560000008</v>
       </c>
       <c r="AA10" s="1">
-        <v>2.516307</v>
+        <v>2.5163069999999998</v>
       </c>
       <c r="AB10" s="1">
-        <v>961.509000</v>
+        <v>961.50900000000001</v>
       </c>
       <c r="AC10" s="1">
-        <v>-80.283300</v>
+        <v>-80.283299999999997</v>
       </c>
       <c r="AD10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="1">
-        <v>9069.232646</v>
+        <v>9069.2326460000004</v>
       </c>
       <c r="AF10" s="1">
         <v>2.519231</v>
       </c>
       <c r="AG10" s="1">
-        <v>966.475000</v>
+        <v>966.47500000000002</v>
       </c>
       <c r="AH10" s="1">
-        <v>-79.886500</v>
+        <v>-79.886499999999998</v>
       </c>
       <c r="AI10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ10" s="1">
         <v>9079.689832</v>
       </c>
       <c r="AK10" s="1">
-        <v>2.522136</v>
+        <v>2.5221360000000002</v>
       </c>
       <c r="AL10" s="1">
-        <v>974.446000</v>
+        <v>974.44600000000003</v>
       </c>
       <c r="AM10" s="1">
-        <v>-87.722700</v>
+        <v>-87.722700000000003</v>
       </c>
       <c r="AN10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO10" s="1">
-        <v>9090.374628</v>
+        <v>9090.3746279999996</v>
       </c>
       <c r="AP10" s="1">
-        <v>2.525104</v>
+        <v>2.5251039999999998</v>
       </c>
       <c r="AQ10" s="1">
-        <v>983.626000</v>
+        <v>983.62599999999998</v>
       </c>
       <c r="AR10" s="1">
-        <v>-102.708000</v>
+        <v>-102.708</v>
       </c>
       <c r="AS10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="1">
-        <v>9101.785612</v>
+        <v>9101.7856119999997</v>
       </c>
       <c r="AU10" s="1">
-        <v>2.528274</v>
+        <v>2.5282740000000001</v>
       </c>
       <c r="AV10" s="1">
-        <v>995.070000</v>
+        <v>995.07</v>
       </c>
       <c r="AW10" s="1">
-        <v>-124.260000</v>
+        <v>-124.26</v>
       </c>
       <c r="AX10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="1">
-        <v>9112.858803</v>
+        <v>9112.8588029999992</v>
       </c>
       <c r="AZ10" s="1">
-        <v>2.531350</v>
+        <v>2.5313500000000002</v>
       </c>
       <c r="BA10" s="1">
-        <v>1004.730000</v>
+        <v>1004.73</v>
       </c>
       <c r="BB10" s="1">
-        <v>-143.009000</v>
+        <v>-143.00899999999999</v>
       </c>
       <c r="BC10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD10" s="1">
-        <v>9123.498446</v>
+        <v>9123.4984459999996</v>
       </c>
       <c r="BE10" s="1">
-        <v>2.534305</v>
+        <v>2.5343049999999998</v>
       </c>
       <c r="BF10" s="1">
-        <v>1050.040000</v>
+        <v>1050.04</v>
       </c>
       <c r="BG10" s="1">
-        <v>-227.748000</v>
+        <v>-227.74799999999999</v>
       </c>
       <c r="BH10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI10" s="1">
-        <v>9134.016609</v>
+        <v>9134.0166090000002</v>
       </c>
       <c r="BJ10" s="1">
-        <v>2.537227</v>
+        <v>2.5372270000000001</v>
       </c>
       <c r="BK10" s="1">
-        <v>1129.240000</v>
+        <v>1129.24</v>
       </c>
       <c r="BL10" s="1">
-        <v>-363.967000</v>
+        <v>-363.96699999999998</v>
       </c>
       <c r="BM10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN10" s="1">
-        <v>9144.198979</v>
+        <v>9144.1989790000007</v>
       </c>
       <c r="BO10" s="1">
-        <v>2.540055</v>
+        <v>2.5400550000000002</v>
       </c>
       <c r="BP10" s="1">
-        <v>1260.320000</v>
+        <v>1260.32</v>
       </c>
       <c r="BQ10" s="1">
-        <v>-574.985000</v>
+        <v>-574.98500000000001</v>
       </c>
       <c r="BR10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS10" s="1">
-        <v>9154.939847</v>
+        <v>9154.9398469999996</v>
       </c>
       <c r="BT10" s="1">
-        <v>2.543039</v>
+        <v>2.5430389999999998</v>
       </c>
       <c r="BU10" s="1">
-        <v>1407.620000</v>
+        <v>1407.62</v>
       </c>
       <c r="BV10" s="1">
-        <v>-800.838000</v>
+        <v>-800.83799999999997</v>
       </c>
       <c r="BW10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX10" s="1">
-        <v>9165.753127</v>
+        <v>9165.7531269999999</v>
       </c>
       <c r="BY10" s="1">
-        <v>2.546043</v>
+        <v>2.5460430000000001</v>
       </c>
       <c r="BZ10" s="1">
-        <v>1570.480000</v>
+        <v>1570.48</v>
       </c>
       <c r="CA10" s="1">
-        <v>-1036.390000</v>
+        <v>-1036.3900000000001</v>
       </c>
       <c r="CB10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC10" s="1">
-        <v>9177.257833</v>
+        <v>9177.2578329999997</v>
       </c>
       <c r="CD10" s="1">
-        <v>2.549238</v>
+        <v>2.5492379999999999</v>
       </c>
       <c r="CE10" s="1">
-        <v>1982.340000</v>
+        <v>1982.34</v>
       </c>
       <c r="CF10" s="1">
-        <v>-1587.210000</v>
+        <v>-1587.21</v>
       </c>
       <c r="CG10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:85">
       <c r="A11" s="1">
-        <v>9006.735241</v>
+        <v>9006.7352410000003</v>
       </c>
       <c r="B11" s="1">
         <v>2.501871</v>
       </c>
       <c r="C11" s="1">
-        <v>902.395000</v>
+        <v>902.39499999999998</v>
       </c>
       <c r="D11" s="1">
-        <v>-195.249000</v>
+        <v>-195.249</v>
       </c>
       <c r="E11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>9017.202850</v>
+        <v>9017.2028499999997</v>
       </c>
       <c r="G11" s="1">
-        <v>2.504779</v>
+        <v>2.5047790000000001</v>
       </c>
       <c r="H11" s="1">
-        <v>919.378000</v>
+        <v>919.37800000000004</v>
       </c>
       <c r="I11" s="1">
-        <v>-165.674000</v>
+        <v>-165.67400000000001</v>
       </c>
       <c r="J11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
-        <v>9027.684270</v>
+        <v>9027.6842699999997</v>
       </c>
       <c r="L11" s="1">
-        <v>2.507690</v>
+        <v>2.5076900000000002</v>
       </c>
       <c r="M11" s="1">
-        <v>941.466000</v>
+        <v>941.46600000000001</v>
       </c>
       <c r="N11" s="1">
-        <v>-118.548000</v>
+        <v>-118.548</v>
       </c>
       <c r="O11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P11" s="1">
-        <v>9038.146879</v>
+        <v>9038.1468789999999</v>
       </c>
       <c r="Q11" s="1">
         <v>2.510596</v>
       </c>
       <c r="R11" s="1">
-        <v>947.973000</v>
+        <v>947.97299999999996</v>
       </c>
       <c r="S11" s="1">
-        <v>-103.302000</v>
+        <v>-103.30200000000001</v>
       </c>
       <c r="T11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U11" s="1">
-        <v>9048.663059</v>
+        <v>9048.6630590000004</v>
       </c>
       <c r="V11" s="1">
-        <v>2.513518</v>
+        <v>2.5135179999999999</v>
       </c>
       <c r="W11" s="1">
-        <v>954.402000</v>
+        <v>954.40200000000004</v>
       </c>
       <c r="X11" s="1">
-        <v>-89.664500</v>
+        <v>-89.664500000000004</v>
       </c>
       <c r="Y11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="1">
-        <v>9059.052783</v>
+        <v>9059.0527829999992</v>
       </c>
       <c r="AA11" s="1">
-        <v>2.516404</v>
+        <v>2.5164040000000001</v>
       </c>
       <c r="AB11" s="1">
-        <v>961.454000</v>
+        <v>961.45399999999995</v>
       </c>
       <c r="AC11" s="1">
-        <v>-80.329000</v>
+        <v>-80.328999999999994</v>
       </c>
       <c r="AD11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="1">
-        <v>9069.577399</v>
+        <v>9069.5773989999998</v>
       </c>
       <c r="AF11" s="1">
-        <v>2.519327</v>
+        <v>2.5193270000000001</v>
       </c>
       <c r="AG11" s="1">
-        <v>966.461000</v>
+        <v>966.46100000000001</v>
       </c>
       <c r="AH11" s="1">
-        <v>-79.950700</v>
+        <v>-79.950699999999998</v>
       </c>
       <c r="AI11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ11" s="1">
-        <v>9080.037033</v>
+        <v>9080.0370330000005</v>
       </c>
       <c r="AK11" s="1">
-        <v>2.522233</v>
+        <v>2.5222329999999999</v>
       </c>
       <c r="AL11" s="1">
-        <v>974.396000</v>
+        <v>974.39599999999996</v>
       </c>
       <c r="AM11" s="1">
-        <v>-87.749500</v>
+        <v>-87.749499999999998</v>
       </c>
       <c r="AN11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO11" s="1">
-        <v>9091.099274</v>
+        <v>9091.0992740000002</v>
       </c>
       <c r="AP11" s="1">
-        <v>2.525305</v>
+        <v>2.5253049999999999</v>
       </c>
       <c r="AQ11" s="1">
-        <v>983.641000</v>
+        <v>983.64099999999996</v>
       </c>
       <c r="AR11" s="1">
-        <v>-102.718000</v>
+        <v>-102.718</v>
       </c>
       <c r="AS11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="1">
-        <v>9102.173772</v>
+        <v>9102.1737720000001</v>
       </c>
       <c r="AU11" s="1">
-        <v>2.528382</v>
+        <v>2.5283820000000001</v>
       </c>
       <c r="AV11" s="1">
-        <v>995.089000</v>
+        <v>995.08900000000006</v>
       </c>
       <c r="AW11" s="1">
-        <v>-124.265000</v>
+        <v>-124.265</v>
       </c>
       <c r="AX11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="1">
-        <v>9113.218860</v>
+        <v>9113.2188600000009</v>
       </c>
       <c r="AZ11" s="1">
-        <v>2.531450</v>
+        <v>2.53145</v>
       </c>
       <c r="BA11" s="1">
-        <v>1004.730000</v>
+        <v>1004.73</v>
       </c>
       <c r="BB11" s="1">
-        <v>-143.020000</v>
+        <v>-143.02000000000001</v>
       </c>
       <c r="BC11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD11" s="1">
-        <v>9123.857088</v>
+        <v>9123.8570880000007</v>
       </c>
       <c r="BE11" s="1">
         <v>2.534405</v>
       </c>
       <c r="BF11" s="1">
-        <v>1050.040000</v>
+        <v>1050.04</v>
       </c>
       <c r="BG11" s="1">
-        <v>-227.778000</v>
+        <v>-227.77799999999999</v>
       </c>
       <c r="BH11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI11" s="1">
-        <v>9134.426811</v>
+        <v>9134.4268109999994</v>
       </c>
       <c r="BJ11" s="1">
-        <v>2.537341</v>
+        <v>2.5373410000000001</v>
       </c>
       <c r="BK11" s="1">
-        <v>1129.230000</v>
+        <v>1129.23</v>
       </c>
       <c r="BL11" s="1">
-        <v>-363.944000</v>
+        <v>-363.94400000000002</v>
       </c>
       <c r="BM11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN11" s="1">
-        <v>9144.921650</v>
+        <v>9144.9216500000002</v>
       </c>
       <c r="BO11" s="1">
-        <v>2.540256</v>
+        <v>2.5402559999999998</v>
       </c>
       <c r="BP11" s="1">
-        <v>1260.300000</v>
+        <v>1260.3</v>
       </c>
       <c r="BQ11" s="1">
-        <v>-574.958000</v>
+        <v>-574.95799999999997</v>
       </c>
       <c r="BR11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS11" s="1">
-        <v>9155.070293</v>
+        <v>9155.0702930000007</v>
       </c>
       <c r="BT11" s="1">
         <v>2.543075</v>
       </c>
       <c r="BU11" s="1">
-        <v>1407.610000</v>
+        <v>1407.61</v>
       </c>
       <c r="BV11" s="1">
-        <v>-800.938000</v>
+        <v>-800.93799999999999</v>
       </c>
       <c r="BW11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX11" s="1">
-        <v>9165.908374</v>
+        <v>9165.9083740000005</v>
       </c>
       <c r="BY11" s="1">
-        <v>2.546086</v>
+        <v>2.5460859999999998</v>
       </c>
       <c r="BZ11" s="1">
-        <v>1570.700000</v>
+        <v>1570.7</v>
       </c>
       <c r="CA11" s="1">
-        <v>-1036.360000</v>
+        <v>-1036.3599999999999</v>
       </c>
       <c r="CB11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC11" s="1">
-        <v>9177.773675</v>
+        <v>9177.7736750000004</v>
       </c>
       <c r="CD11" s="1">
         <v>2.549382</v>
       </c>
       <c r="CE11" s="1">
-        <v>1983.540000</v>
+        <v>1983.54</v>
       </c>
       <c r="CF11" s="1">
-        <v>-1585.870000</v>
+        <v>-1585.87</v>
       </c>
       <c r="CG11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:85">
       <c r="A12" s="1">
-        <v>9007.146922</v>
+        <v>9007.1469219999999</v>
       </c>
       <c r="B12" s="1">
-        <v>2.501985</v>
+        <v>2.5019849999999999</v>
       </c>
       <c r="C12" s="1">
-        <v>902.275000</v>
+        <v>902.27499999999998</v>
       </c>
       <c r="D12" s="1">
-        <v>-195.310000</v>
+        <v>-195.31</v>
       </c>
       <c r="E12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
         <v>9017.496486</v>
       </c>
       <c r="G12" s="1">
-        <v>2.504860</v>
+        <v>2.5048599999999999</v>
       </c>
       <c r="H12" s="1">
-        <v>919.790000</v>
+        <v>919.79</v>
       </c>
       <c r="I12" s="1">
-        <v>-165.732000</v>
+        <v>-165.732</v>
       </c>
       <c r="J12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
-        <v>9027.976413</v>
+        <v>9027.9764130000003</v>
       </c>
       <c r="L12" s="1">
         <v>2.507771</v>
       </c>
       <c r="M12" s="1">
-        <v>941.653000</v>
+        <v>941.65300000000002</v>
       </c>
       <c r="N12" s="1">
-        <v>-118.577000</v>
+        <v>-118.577</v>
       </c>
       <c r="O12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P12" s="1">
-        <v>9038.494081</v>
+        <v>9038.4940810000007</v>
       </c>
       <c r="Q12" s="1">
-        <v>2.510693</v>
+        <v>2.5106929999999998</v>
       </c>
       <c r="R12" s="1">
-        <v>947.992000</v>
+        <v>947.99199999999996</v>
       </c>
       <c r="S12" s="1">
-        <v>-103.295000</v>
+        <v>-103.295</v>
       </c>
       <c r="T12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U12" s="1">
-        <v>9049.005334</v>
+        <v>9049.0053339999995</v>
       </c>
       <c r="V12" s="1">
-        <v>2.513613</v>
+        <v>2.5136129999999999</v>
       </c>
       <c r="W12" s="1">
-        <v>954.406000</v>
+        <v>954.40599999999995</v>
       </c>
       <c r="X12" s="1">
-        <v>-89.615700</v>
+        <v>-89.615700000000004</v>
       </c>
       <c r="Y12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="1">
-        <v>9059.398995</v>
+        <v>9059.3989949999996</v>
       </c>
       <c r="AA12" s="1">
-        <v>2.516500</v>
+        <v>2.5165000000000002</v>
       </c>
       <c r="AB12" s="1">
-        <v>961.521000</v>
+        <v>961.52099999999996</v>
       </c>
       <c r="AC12" s="1">
-        <v>-80.283200</v>
+        <v>-80.283199999999994</v>
       </c>
       <c r="AD12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="1">
-        <v>9070.259382</v>
+        <v>9070.2593820000002</v>
       </c>
       <c r="AF12" s="1">
-        <v>2.519516</v>
+        <v>2.5195159999999999</v>
       </c>
       <c r="AG12" s="1">
-        <v>966.350000</v>
+        <v>966.35</v>
       </c>
       <c r="AH12" s="1">
-        <v>-79.934000</v>
+        <v>-79.933999999999997</v>
       </c>
       <c r="AI12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="1">
-        <v>9080.732423</v>
+        <v>9080.7324229999995</v>
       </c>
       <c r="AK12" s="1">
-        <v>2.522426</v>
+        <v>2.5224259999999998</v>
       </c>
       <c r="AL12" s="1">
-        <v>974.418000</v>
+        <v>974.41800000000001</v>
       </c>
       <c r="AM12" s="1">
-        <v>-87.765500</v>
+        <v>-87.765500000000003</v>
       </c>
       <c r="AN12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO12" s="1">
-        <v>9091.476265</v>
+        <v>9091.4762649999993</v>
       </c>
       <c r="AP12" s="1">
-        <v>2.525410</v>
+        <v>2.5254099999999999</v>
       </c>
       <c r="AQ12" s="1">
-        <v>983.646000</v>
+        <v>983.64599999999996</v>
       </c>
       <c r="AR12" s="1">
-        <v>-102.681000</v>
+        <v>-102.681</v>
       </c>
       <c r="AS12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="1">
         <v>9102.537515</v>
@@ -3186,255 +3602,255 @@
         <v>2.528483</v>
       </c>
       <c r="AV12" s="1">
-        <v>995.082000</v>
+        <v>995.08199999999999</v>
       </c>
       <c r="AW12" s="1">
-        <v>-124.267000</v>
+        <v>-124.267</v>
       </c>
       <c r="AX12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="1">
-        <v>9113.577965</v>
+        <v>9113.5779650000004</v>
       </c>
       <c r="AZ12" s="1">
         <v>2.531549</v>
       </c>
       <c r="BA12" s="1">
-        <v>1004.730000</v>
+        <v>1004.73</v>
       </c>
       <c r="BB12" s="1">
-        <v>-143.014000</v>
+        <v>-143.01400000000001</v>
       </c>
       <c r="BC12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD12" s="1">
-        <v>9124.522686</v>
+        <v>9124.5226860000002</v>
       </c>
       <c r="BE12" s="1">
-        <v>2.534590</v>
+        <v>2.5345900000000001</v>
       </c>
       <c r="BF12" s="1">
-        <v>1050.030000</v>
+        <v>1050.03</v>
       </c>
       <c r="BG12" s="1">
-        <v>-227.769000</v>
+        <v>-227.76900000000001</v>
       </c>
       <c r="BH12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI12" s="1">
-        <v>9134.849392</v>
+        <v>9134.8493920000001</v>
       </c>
       <c r="BJ12" s="1">
         <v>2.537458</v>
       </c>
       <c r="BK12" s="1">
-        <v>1129.220000</v>
+        <v>1129.22</v>
       </c>
       <c r="BL12" s="1">
-        <v>-363.955000</v>
+        <v>-363.95499999999998</v>
       </c>
       <c r="BM12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN12" s="1">
-        <v>9145.044658</v>
+        <v>9145.0446580000007</v>
       </c>
       <c r="BO12" s="1">
-        <v>2.540290</v>
+        <v>2.5402900000000002</v>
       </c>
       <c r="BP12" s="1">
-        <v>1260.330000</v>
+        <v>1260.33</v>
       </c>
       <c r="BQ12" s="1">
-        <v>-574.994000</v>
+        <v>-574.99400000000003</v>
       </c>
       <c r="BR12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS12" s="1">
-        <v>9155.507797</v>
+        <v>9155.5077970000002</v>
       </c>
       <c r="BT12" s="1">
-        <v>2.543197</v>
+        <v>2.5431970000000002</v>
       </c>
       <c r="BU12" s="1">
-        <v>1407.610000</v>
+        <v>1407.61</v>
       </c>
       <c r="BV12" s="1">
-        <v>-800.949000</v>
+        <v>-800.94899999999996</v>
       </c>
       <c r="BW12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX12" s="1">
-        <v>9166.332950</v>
+        <v>9166.33295</v>
       </c>
       <c r="BY12" s="1">
-        <v>2.546204</v>
+        <v>2.5462039999999999</v>
       </c>
       <c r="BZ12" s="1">
-        <v>1570.490000</v>
+        <v>1570.49</v>
       </c>
       <c r="CA12" s="1">
-        <v>-1036.420000</v>
+        <v>-1036.42</v>
       </c>
       <c r="CB12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC12" s="1">
-        <v>9178.296454</v>
+        <v>9178.2964539999994</v>
       </c>
       <c r="CD12" s="1">
-        <v>2.549527</v>
+        <v>2.5495269999999999</v>
       </c>
       <c r="CE12" s="1">
-        <v>1981.240000</v>
+        <v>1981.24</v>
       </c>
       <c r="CF12" s="1">
-        <v>-1586.200000</v>
+        <v>-1586.2</v>
       </c>
       <c r="CG12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:85">
       <c r="A13" s="1">
-        <v>9007.436126</v>
+        <v>9007.4361260000005</v>
       </c>
       <c r="B13" s="1">
-        <v>2.502066</v>
+        <v>2.5020660000000001</v>
       </c>
       <c r="C13" s="1">
-        <v>902.220000</v>
+        <v>902.22</v>
       </c>
       <c r="D13" s="1">
-        <v>-195.351000</v>
+        <v>-195.351</v>
       </c>
       <c r="E13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>9017.839180</v>
+        <v>9017.8391800000009</v>
       </c>
       <c r="G13" s="1">
-        <v>2.504955</v>
+        <v>2.5049549999999998</v>
       </c>
       <c r="H13" s="1">
-        <v>919.582000</v>
+        <v>919.58199999999999</v>
       </c>
       <c r="I13" s="1">
-        <v>-165.622000</v>
+        <v>-165.62200000000001</v>
       </c>
       <c r="J13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
-        <v>9028.319149</v>
+        <v>9028.3191490000008</v>
       </c>
       <c r="L13" s="1">
-        <v>2.507866</v>
+        <v>2.5078659999999999</v>
       </c>
       <c r="M13" s="1">
-        <v>941.483000</v>
+        <v>941.48299999999995</v>
       </c>
       <c r="N13" s="1">
-        <v>-118.506000</v>
+        <v>-118.506</v>
       </c>
       <c r="O13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P13" s="1">
-        <v>9038.843263</v>
+        <v>9038.8432630000007</v>
       </c>
       <c r="Q13" s="1">
-        <v>2.510790</v>
+        <v>2.5107900000000001</v>
       </c>
       <c r="R13" s="1">
-        <v>948.007000</v>
+        <v>948.00699999999995</v>
       </c>
       <c r="S13" s="1">
-        <v>-103.312000</v>
+        <v>-103.312</v>
       </c>
       <c r="T13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U13" s="1">
-        <v>9049.690305</v>
+        <v>9049.6903050000001</v>
       </c>
       <c r="V13" s="1">
-        <v>2.513803</v>
+        <v>2.5138029999999998</v>
       </c>
       <c r="W13" s="1">
-        <v>954.430000</v>
+        <v>954.43</v>
       </c>
       <c r="X13" s="1">
-        <v>-89.620300</v>
+        <v>-89.6203</v>
       </c>
       <c r="Y13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="1">
-        <v>9060.099348</v>
+        <v>9060.0993479999997</v>
       </c>
       <c r="AA13" s="1">
-        <v>2.516694</v>
+        <v>2.5166940000000002</v>
       </c>
       <c r="AB13" s="1">
-        <v>961.456000</v>
+        <v>961.45600000000002</v>
       </c>
       <c r="AC13" s="1">
-        <v>-80.286400</v>
+        <v>-80.2864</v>
       </c>
       <c r="AD13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="1">
-        <v>9070.606070</v>
+        <v>9070.6060699999998</v>
       </c>
       <c r="AF13" s="1">
-        <v>2.519613</v>
+        <v>2.5196130000000001</v>
       </c>
       <c r="AG13" s="1">
-        <v>966.315000</v>
+        <v>966.31500000000005</v>
       </c>
       <c r="AH13" s="1">
-        <v>-79.713300</v>
+        <v>-79.713300000000004</v>
       </c>
       <c r="AI13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="1">
-        <v>9081.081574</v>
+        <v>9081.0815739999998</v>
       </c>
       <c r="AK13" s="1">
-        <v>2.522523</v>
+        <v>2.5225230000000001</v>
       </c>
       <c r="AL13" s="1">
-        <v>974.424000</v>
+        <v>974.42399999999998</v>
       </c>
       <c r="AM13" s="1">
-        <v>-87.708400</v>
+        <v>-87.708399999999997</v>
       </c>
       <c r="AN13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO13" s="1">
-        <v>9091.835337</v>
+        <v>9091.8353370000004</v>
       </c>
       <c r="AP13" s="1">
-        <v>2.525510</v>
+        <v>2.5255100000000001</v>
       </c>
       <c r="AQ13" s="1">
-        <v>983.634000</v>
+        <v>983.63400000000001</v>
       </c>
       <c r="AR13" s="1">
-        <v>-102.709000</v>
+        <v>-102.709</v>
       </c>
       <c r="AS13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="1">
         <v>9103.201658</v>
@@ -3443,28 +3859,28 @@
         <v>2.528667</v>
       </c>
       <c r="AV13" s="1">
-        <v>995.077000</v>
+        <v>995.077</v>
       </c>
       <c r="AW13" s="1">
-        <v>-124.256000</v>
+        <v>-124.256</v>
       </c>
       <c r="AX13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="1">
-        <v>9114.237645</v>
+        <v>9114.2376449999992</v>
       </c>
       <c r="AZ13" s="1">
         <v>2.531733</v>
       </c>
       <c r="BA13" s="1">
-        <v>1004.750000</v>
+        <v>1004.75</v>
       </c>
       <c r="BB13" s="1">
-        <v>-142.998000</v>
+        <v>-142.99799999999999</v>
       </c>
       <c r="BC13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD13" s="1">
         <v>9124.976557</v>
@@ -3473,437 +3889,437 @@
         <v>2.534716</v>
       </c>
       <c r="BF13" s="1">
-        <v>1050.000000</v>
+        <v>1050</v>
       </c>
       <c r="BG13" s="1">
-        <v>-227.792000</v>
+        <v>-227.792</v>
       </c>
       <c r="BH13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI13" s="1">
-        <v>9135.142564</v>
+        <v>9135.1425639999998</v>
       </c>
       <c r="BJ13" s="1">
-        <v>2.537540</v>
+        <v>2.5375399999999999</v>
       </c>
       <c r="BK13" s="1">
-        <v>1129.230000</v>
+        <v>1129.23</v>
       </c>
       <c r="BL13" s="1">
-        <v>-363.938000</v>
+        <v>-363.93799999999999</v>
       </c>
       <c r="BM13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN13" s="1">
-        <v>9145.439506</v>
+        <v>9145.4395060000006</v>
       </c>
       <c r="BO13" s="1">
-        <v>2.540400</v>
+        <v>2.5404</v>
       </c>
       <c r="BP13" s="1">
-        <v>1260.300000</v>
+        <v>1260.3</v>
       </c>
       <c r="BQ13" s="1">
-        <v>-574.949000</v>
+        <v>-574.94899999999996</v>
       </c>
       <c r="BR13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS13" s="1">
-        <v>9155.934820</v>
+        <v>9155.9348200000004</v>
       </c>
       <c r="BT13" s="1">
-        <v>2.543315</v>
+        <v>2.5433150000000002</v>
       </c>
       <c r="BU13" s="1">
-        <v>1407.570000</v>
+        <v>1407.57</v>
       </c>
       <c r="BV13" s="1">
-        <v>-800.931000</v>
+        <v>-800.93100000000004</v>
       </c>
       <c r="BW13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX13" s="1">
-        <v>9166.756069</v>
+        <v>9166.7560689999991</v>
       </c>
       <c r="BY13" s="1">
-        <v>2.546321</v>
+        <v>2.5463209999999998</v>
       </c>
       <c r="BZ13" s="1">
-        <v>1570.470000</v>
+        <v>1570.47</v>
       </c>
       <c r="CA13" s="1">
-        <v>-1036.410000</v>
+        <v>-1036.4100000000001</v>
       </c>
       <c r="CB13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC13" s="1">
-        <v>9178.830646</v>
+        <v>9178.8306460000003</v>
       </c>
       <c r="CD13" s="1">
-        <v>2.549675</v>
+        <v>2.5496750000000001</v>
       </c>
       <c r="CE13" s="1">
-        <v>1983.290000</v>
+        <v>1983.29</v>
       </c>
       <c r="CF13" s="1">
-        <v>-1586.830000</v>
+        <v>-1586.83</v>
       </c>
       <c r="CG13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:85">
       <c r="A14" s="1">
-        <v>9007.777832</v>
+        <v>9007.7778319999998</v>
       </c>
       <c r="B14" s="1">
-        <v>2.502161</v>
+        <v>2.5021610000000001</v>
       </c>
       <c r="C14" s="1">
-        <v>902.372000</v>
+        <v>902.37199999999996</v>
       </c>
       <c r="D14" s="1">
-        <v>-195.207000</v>
+        <v>-195.20699999999999</v>
       </c>
       <c r="E14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>9018.184891</v>
+        <v>9018.1848910000008</v>
       </c>
       <c r="G14" s="1">
-        <v>2.505051</v>
+        <v>2.5050509999999999</v>
       </c>
       <c r="H14" s="1">
-        <v>919.261000</v>
+        <v>919.26099999999997</v>
       </c>
       <c r="I14" s="1">
-        <v>-165.717000</v>
+        <v>-165.71700000000001</v>
       </c>
       <c r="J14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
-        <v>9028.664888</v>
+        <v>9028.6648879999993</v>
       </c>
       <c r="L14" s="1">
         <v>2.507962</v>
       </c>
       <c r="M14" s="1">
-        <v>941.557000</v>
+        <v>941.55700000000002</v>
       </c>
       <c r="N14" s="1">
-        <v>-118.689000</v>
+        <v>-118.68899999999999</v>
       </c>
       <c r="O14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>9039.541133</v>
+        <v>9039.5411330000006</v>
       </c>
       <c r="Q14" s="1">
-        <v>2.510984</v>
+        <v>2.5109840000000001</v>
       </c>
       <c r="R14" s="1">
-        <v>947.991000</v>
+        <v>947.99099999999999</v>
       </c>
       <c r="S14" s="1">
-        <v>-103.342000</v>
+        <v>-103.342</v>
       </c>
       <c r="T14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U14" s="1">
-        <v>9050.035488</v>
+        <v>9050.0354879999995</v>
       </c>
       <c r="V14" s="1">
-        <v>2.513899</v>
+        <v>2.5138989999999999</v>
       </c>
       <c r="W14" s="1">
-        <v>954.340000</v>
+        <v>954.34</v>
       </c>
       <c r="X14" s="1">
-        <v>-89.622900</v>
+        <v>-89.622900000000001</v>
       </c>
       <c r="Y14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="1">
-        <v>9060.447011</v>
+        <v>9060.4470110000002</v>
       </c>
       <c r="AA14" s="1">
         <v>2.516791</v>
       </c>
       <c r="AB14" s="1">
-        <v>961.575000</v>
+        <v>961.57500000000005</v>
       </c>
       <c r="AC14" s="1">
-        <v>-80.280100</v>
+        <v>-80.280100000000004</v>
       </c>
       <c r="AD14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="1">
-        <v>9070.949796</v>
+        <v>9070.9497960000008</v>
       </c>
       <c r="AF14" s="1">
-        <v>2.519708</v>
+        <v>2.5197080000000001</v>
       </c>
       <c r="AG14" s="1">
-        <v>966.295000</v>
+        <v>966.29499999999996</v>
       </c>
       <c r="AH14" s="1">
-        <v>-79.846100</v>
+        <v>-79.846100000000007</v>
       </c>
       <c r="AI14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="1">
-        <v>9081.429769</v>
+        <v>9081.4297690000003</v>
       </c>
       <c r="AK14" s="1">
-        <v>2.522619</v>
+        <v>2.5226190000000002</v>
       </c>
       <c r="AL14" s="1">
-        <v>974.416000</v>
+        <v>974.41600000000005</v>
       </c>
       <c r="AM14" s="1">
-        <v>-87.714000</v>
+        <v>-87.713999999999999</v>
       </c>
       <c r="AN14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO14" s="1">
-        <v>9092.494024</v>
+        <v>9092.4940239999996</v>
       </c>
       <c r="AP14" s="1">
         <v>2.525693</v>
       </c>
       <c r="AQ14" s="1">
-        <v>983.624000</v>
+        <v>983.62400000000002</v>
       </c>
       <c r="AR14" s="1">
-        <v>-102.703000</v>
+        <v>-102.703</v>
       </c>
       <c r="AS14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="1">
-        <v>9103.665417</v>
+        <v>9103.6654170000002</v>
       </c>
       <c r="AU14" s="1">
-        <v>2.528796</v>
+        <v>2.5287959999999998</v>
       </c>
       <c r="AV14" s="1">
-        <v>995.070000</v>
+        <v>995.07</v>
       </c>
       <c r="AW14" s="1">
-        <v>-124.264000</v>
+        <v>-124.264</v>
       </c>
       <c r="AX14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="1">
-        <v>9114.653292</v>
+        <v>9114.6532920000009</v>
       </c>
       <c r="AZ14" s="1">
-        <v>2.531848</v>
+        <v>2.5318480000000001</v>
       </c>
       <c r="BA14" s="1">
-        <v>1004.760000</v>
+        <v>1004.76</v>
       </c>
       <c r="BB14" s="1">
-        <v>-143.006000</v>
+        <v>-143.006</v>
       </c>
       <c r="BC14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD14" s="1">
-        <v>9125.335164</v>
+        <v>9125.3351640000001</v>
       </c>
       <c r="BE14" s="1">
         <v>2.534815</v>
       </c>
       <c r="BF14" s="1">
-        <v>1050.020000</v>
+        <v>1050.02</v>
       </c>
       <c r="BG14" s="1">
-        <v>-227.767000</v>
+        <v>-227.767</v>
       </c>
       <c r="BH14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI14" s="1">
-        <v>9135.538372</v>
+        <v>9135.5383720000009</v>
       </c>
       <c r="BJ14" s="1">
-        <v>2.537650</v>
+        <v>2.5376500000000002</v>
       </c>
       <c r="BK14" s="1">
-        <v>1129.230000</v>
+        <v>1129.23</v>
       </c>
       <c r="BL14" s="1">
-        <v>-363.934000</v>
+        <v>-363.93400000000003</v>
       </c>
       <c r="BM14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN14" s="1">
-        <v>9145.862592</v>
+        <v>9145.8625919999995</v>
       </c>
       <c r="BO14" s="1">
-        <v>2.540517</v>
+        <v>2.5405169999999999</v>
       </c>
       <c r="BP14" s="1">
-        <v>1260.350000</v>
+        <v>1260.3499999999999</v>
       </c>
       <c r="BQ14" s="1">
-        <v>-574.946000</v>
+        <v>-574.94600000000003</v>
       </c>
       <c r="BR14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS14" s="1">
-        <v>9156.352128</v>
+        <v>9156.3521280000004</v>
       </c>
       <c r="BT14" s="1">
         <v>2.543431</v>
       </c>
       <c r="BU14" s="1">
-        <v>1407.590000</v>
+        <v>1407.59</v>
       </c>
       <c r="BV14" s="1">
-        <v>-800.901000</v>
+        <v>-800.90099999999995</v>
       </c>
       <c r="BW14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX14" s="1">
-        <v>9167.173706</v>
+        <v>9167.1737059999996</v>
       </c>
       <c r="BY14" s="1">
-        <v>2.546437</v>
+        <v>2.5464370000000001</v>
       </c>
       <c r="BZ14" s="1">
-        <v>1570.450000</v>
+        <v>1570.45</v>
       </c>
       <c r="CA14" s="1">
-        <v>-1036.470000</v>
+        <v>-1036.47</v>
       </c>
       <c r="CB14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC14" s="1">
-        <v>9179.371781</v>
+        <v>9179.3717809999998</v>
       </c>
       <c r="CD14" s="1">
-        <v>2.549825</v>
+        <v>2.5498249999999998</v>
       </c>
       <c r="CE14" s="1">
-        <v>1981.850000</v>
+        <v>1981.85</v>
       </c>
       <c r="CF14" s="1">
-        <v>-1585.240000</v>
+        <v>-1585.24</v>
       </c>
       <c r="CG14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:85">
       <c r="A15" s="1">
-        <v>9008.117097</v>
+        <v>9008.1170970000003</v>
       </c>
       <c r="B15" s="1">
-        <v>2.502255</v>
+        <v>2.5022549999999999</v>
       </c>
       <c r="C15" s="1">
-        <v>902.222000</v>
+        <v>902.22199999999998</v>
       </c>
       <c r="D15" s="1">
-        <v>-195.090000</v>
+        <v>-195.09</v>
       </c>
       <c r="E15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>9018.872842</v>
+        <v>9018.8728420000007</v>
       </c>
       <c r="G15" s="1">
         <v>2.505242</v>
       </c>
       <c r="H15" s="1">
-        <v>919.149000</v>
+        <v>919.149</v>
       </c>
       <c r="I15" s="1">
-        <v>-165.752000</v>
+        <v>-165.75200000000001</v>
       </c>
       <c r="J15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
-        <v>9029.355324</v>
+        <v>9029.3553240000001</v>
       </c>
       <c r="L15" s="1">
-        <v>2.508154</v>
+        <v>2.5081540000000002</v>
       </c>
       <c r="M15" s="1">
-        <v>941.625000</v>
+        <v>941.625</v>
       </c>
       <c r="N15" s="1">
-        <v>-118.493000</v>
+        <v>-118.49299999999999</v>
       </c>
       <c r="O15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P15" s="1">
-        <v>9039.889821</v>
+        <v>9039.8898210000007</v>
       </c>
       <c r="Q15" s="1">
-        <v>2.511081</v>
+        <v>2.5110809999999999</v>
       </c>
       <c r="R15" s="1">
-        <v>947.963000</v>
+        <v>947.96299999999997</v>
       </c>
       <c r="S15" s="1">
-        <v>-103.341000</v>
+        <v>-103.34099999999999</v>
       </c>
       <c r="T15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U15" s="1">
-        <v>9050.379215</v>
+        <v>9050.3792150000008</v>
       </c>
       <c r="V15" s="1">
-        <v>2.513994</v>
+        <v>2.5139939999999998</v>
       </c>
       <c r="W15" s="1">
-        <v>954.337000</v>
+        <v>954.33699999999999</v>
       </c>
       <c r="X15" s="1">
-        <v>-89.610900</v>
+        <v>-89.610900000000001</v>
       </c>
       <c r="Y15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="1">
-        <v>9060.796722</v>
+        <v>9060.7967219999991</v>
       </c>
       <c r="AA15" s="1">
-        <v>2.516888</v>
+        <v>2.5168879999999998</v>
       </c>
       <c r="AB15" s="1">
-        <v>961.478000</v>
+        <v>961.47799999999995</v>
       </c>
       <c r="AC15" s="1">
-        <v>-80.260300</v>
+        <v>-80.260300000000001</v>
       </c>
       <c r="AD15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="1">
         <v>9071.600547</v>
@@ -3912,1298 +4328,1298 @@
         <v>2.519889</v>
       </c>
       <c r="AG15" s="1">
-        <v>966.503000</v>
+        <v>966.50300000000004</v>
       </c>
       <c r="AH15" s="1">
-        <v>-79.925400</v>
+        <v>-79.925399999999996</v>
       </c>
       <c r="AI15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ15" s="1">
-        <v>9082.100853</v>
+        <v>9082.1008529999999</v>
       </c>
       <c r="AK15" s="1">
-        <v>2.522806</v>
+        <v>2.5228060000000001</v>
       </c>
       <c r="AL15" s="1">
-        <v>974.403000</v>
+        <v>974.40300000000002</v>
       </c>
       <c r="AM15" s="1">
-        <v>-87.748900</v>
+        <v>-87.748900000000006</v>
       </c>
       <c r="AN15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO15" s="1">
-        <v>9092.914135</v>
+        <v>9092.9141350000009</v>
       </c>
       <c r="AP15" s="1">
-        <v>2.525809</v>
+        <v>2.5258090000000002</v>
       </c>
       <c r="AQ15" s="1">
-        <v>983.622000</v>
+        <v>983.62199999999996</v>
       </c>
       <c r="AR15" s="1">
-        <v>-102.702000</v>
+        <v>-102.702</v>
       </c>
       <c r="AS15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="1">
-        <v>9104.030969</v>
+        <v>9104.0309689999995</v>
       </c>
       <c r="AU15" s="1">
-        <v>2.528897</v>
+        <v>2.5288970000000002</v>
       </c>
       <c r="AV15" s="1">
-        <v>995.076000</v>
+        <v>995.07600000000002</v>
       </c>
       <c r="AW15" s="1">
-        <v>-124.288000</v>
+        <v>-124.288</v>
       </c>
       <c r="AX15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="1">
-        <v>9115.039307</v>
+        <v>9115.0393069999991</v>
       </c>
       <c r="AZ15" s="1">
         <v>2.531955</v>
       </c>
       <c r="BA15" s="1">
-        <v>1004.750000</v>
+        <v>1004.75</v>
       </c>
       <c r="BB15" s="1">
-        <v>-143.003000</v>
+        <v>-143.00299999999999</v>
       </c>
       <c r="BC15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD15" s="1">
-        <v>9125.696748</v>
+        <v>9125.6967480000003</v>
       </c>
       <c r="BE15" s="1">
-        <v>2.534916</v>
+        <v>2.5349159999999999</v>
       </c>
       <c r="BF15" s="1">
-        <v>1050.040000</v>
+        <v>1050.04</v>
       </c>
       <c r="BG15" s="1">
-        <v>-227.762000</v>
+        <v>-227.762</v>
       </c>
       <c r="BH15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI15" s="1">
-        <v>9135.954974</v>
+        <v>9135.9549740000002</v>
       </c>
       <c r="BJ15" s="1">
-        <v>2.537765</v>
+        <v>2.5377649999999998</v>
       </c>
       <c r="BK15" s="1">
-        <v>1129.240000</v>
+        <v>1129.24</v>
       </c>
       <c r="BL15" s="1">
-        <v>-363.954000</v>
+        <v>-363.95400000000001</v>
       </c>
       <c r="BM15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN15" s="1">
-        <v>9146.282178</v>
+        <v>9146.2821779999995</v>
       </c>
       <c r="BO15" s="1">
-        <v>2.540634</v>
+        <v>2.5406339999999998</v>
       </c>
       <c r="BP15" s="1">
-        <v>1260.320000</v>
+        <v>1260.32</v>
       </c>
       <c r="BQ15" s="1">
-        <v>-574.970000</v>
+        <v>-574.97</v>
       </c>
       <c r="BR15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS15" s="1">
-        <v>9156.778020</v>
+        <v>9156.7780199999997</v>
       </c>
       <c r="BT15" s="1">
-        <v>2.543549</v>
+        <v>2.5435490000000001</v>
       </c>
       <c r="BU15" s="1">
-        <v>1407.610000</v>
+        <v>1407.61</v>
       </c>
       <c r="BV15" s="1">
-        <v>-800.994000</v>
+        <v>-800.99400000000003</v>
       </c>
       <c r="BW15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX15" s="1">
-        <v>9167.617093</v>
+        <v>9167.6170930000008</v>
       </c>
       <c r="BY15" s="1">
-        <v>2.546560</v>
+        <v>2.5465599999999999</v>
       </c>
       <c r="BZ15" s="1">
-        <v>1570.540000</v>
+        <v>1570.54</v>
       </c>
       <c r="CA15" s="1">
-        <v>-1036.330000</v>
+        <v>-1036.33</v>
       </c>
       <c r="CB15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC15" s="1">
-        <v>9179.912916</v>
+        <v>9179.9129159999993</v>
       </c>
       <c r="CD15" s="1">
         <v>2.549976</v>
       </c>
       <c r="CE15" s="1">
-        <v>1982.160000</v>
+        <v>1982.16</v>
       </c>
       <c r="CF15" s="1">
-        <v>-1586.730000</v>
+        <v>-1586.73</v>
       </c>
       <c r="CG15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:85">
       <c r="A16" s="1">
-        <v>9008.801078</v>
+        <v>9008.8010780000004</v>
       </c>
       <c r="B16" s="1">
-        <v>2.502445</v>
+        <v>2.5024449999999998</v>
       </c>
       <c r="C16" s="1">
-        <v>902.374000</v>
+        <v>902.37400000000002</v>
       </c>
       <c r="D16" s="1">
-        <v>-195.201000</v>
+        <v>-195.20099999999999</v>
       </c>
       <c r="E16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>9019.216601</v>
+        <v>9019.2166010000001</v>
       </c>
       <c r="G16" s="1">
-        <v>2.505338</v>
+        <v>2.5053380000000001</v>
       </c>
       <c r="H16" s="1">
-        <v>919.409000</v>
+        <v>919.40899999999999</v>
       </c>
       <c r="I16" s="1">
-        <v>-165.807000</v>
+        <v>-165.80699999999999</v>
       </c>
       <c r="J16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
-        <v>9029.703483</v>
+        <v>9029.7034829999993</v>
       </c>
       <c r="L16" s="1">
         <v>2.508251</v>
       </c>
       <c r="M16" s="1">
-        <v>941.324000</v>
+        <v>941.32399999999996</v>
       </c>
       <c r="N16" s="1">
-        <v>-118.575000</v>
+        <v>-118.575</v>
       </c>
       <c r="O16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P16" s="1">
-        <v>9040.237022</v>
+        <v>9040.2370219999993</v>
       </c>
       <c r="Q16" s="1">
         <v>2.511177</v>
       </c>
       <c r="R16" s="1">
-        <v>947.988000</v>
+        <v>947.98800000000006</v>
       </c>
       <c r="S16" s="1">
-        <v>-103.340000</v>
+        <v>-103.34</v>
       </c>
       <c r="T16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U16" s="1">
-        <v>9051.020542</v>
+        <v>9051.0205420000002</v>
       </c>
       <c r="V16" s="1">
-        <v>2.514172</v>
+        <v>2.5141719999999999</v>
       </c>
       <c r="W16" s="1">
-        <v>954.323000</v>
+        <v>954.32299999999998</v>
       </c>
       <c r="X16" s="1">
-        <v>-89.619100</v>
+        <v>-89.619100000000003</v>
       </c>
       <c r="Y16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="1">
-        <v>9061.444961</v>
+        <v>9061.4449609999992</v>
       </c>
       <c r="AA16" s="1">
-        <v>2.517068</v>
+        <v>2.5170680000000001</v>
       </c>
       <c r="AB16" s="1">
-        <v>961.546000</v>
+        <v>961.54600000000005</v>
       </c>
       <c r="AC16" s="1">
-        <v>-80.327300</v>
+        <v>-80.327299999999994</v>
       </c>
       <c r="AD16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="1">
-        <v>9071.982468</v>
+        <v>9071.9824680000002</v>
       </c>
       <c r="AF16" s="1">
-        <v>2.519995</v>
+        <v>2.5199950000000002</v>
       </c>
       <c r="AG16" s="1">
-        <v>966.563000</v>
+        <v>966.56299999999999</v>
       </c>
       <c r="AH16" s="1">
-        <v>-79.792800</v>
+        <v>-79.7928</v>
       </c>
       <c r="AI16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ16" s="1">
-        <v>9082.475830</v>
+        <v>9082.4758299999994</v>
       </c>
       <c r="AK16" s="1">
-        <v>2.522910</v>
+        <v>2.52291</v>
       </c>
       <c r="AL16" s="1">
-        <v>974.370000</v>
+        <v>974.37</v>
       </c>
       <c r="AM16" s="1">
-        <v>-87.724200</v>
+        <v>-87.724199999999996</v>
       </c>
       <c r="AN16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO16" s="1">
-        <v>9093.300024</v>
+        <v>9093.3000240000001</v>
       </c>
       <c r="AP16" s="1">
-        <v>2.525917</v>
+        <v>2.5259170000000002</v>
       </c>
       <c r="AQ16" s="1">
-        <v>983.650000</v>
+        <v>983.65</v>
       </c>
       <c r="AR16" s="1">
-        <v>-102.714000</v>
+        <v>-102.714</v>
       </c>
       <c r="AS16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="1">
-        <v>9104.396024</v>
+        <v>9104.3960239999997</v>
       </c>
       <c r="AU16" s="1">
-        <v>2.528999</v>
+        <v>2.5289990000000002</v>
       </c>
       <c r="AV16" s="1">
-        <v>995.074000</v>
+        <v>995.07399999999996</v>
       </c>
       <c r="AW16" s="1">
-        <v>-124.244000</v>
+        <v>-124.244</v>
       </c>
       <c r="AX16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="1">
-        <v>9115.396297</v>
+        <v>9115.3962969999993</v>
       </c>
       <c r="AZ16" s="1">
-        <v>2.532055</v>
+        <v>2.5320550000000002</v>
       </c>
       <c r="BA16" s="1">
-        <v>1004.730000</v>
+        <v>1004.73</v>
       </c>
       <c r="BB16" s="1">
-        <v>-143.010000</v>
+        <v>-143.01</v>
       </c>
       <c r="BC16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD16" s="1">
-        <v>9126.110903</v>
+        <v>9126.1109030000007</v>
       </c>
       <c r="BE16" s="1">
         <v>2.535031</v>
       </c>
       <c r="BF16" s="1">
-        <v>1050.020000</v>
+        <v>1050.02</v>
       </c>
       <c r="BG16" s="1">
-        <v>-227.784000</v>
+        <v>-227.78399999999999</v>
       </c>
       <c r="BH16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI16" s="1">
-        <v>9136.290305</v>
+        <v>9136.2903050000004</v>
       </c>
       <c r="BJ16" s="1">
-        <v>2.537858</v>
+        <v>2.5378579999999999</v>
       </c>
       <c r="BK16" s="1">
-        <v>1129.200000</v>
+        <v>1129.2</v>
       </c>
       <c r="BL16" s="1">
-        <v>-363.962000</v>
+        <v>-363.96199999999999</v>
       </c>
       <c r="BM16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN16" s="1">
-        <v>9146.683936</v>
+        <v>9146.6839359999994</v>
       </c>
       <c r="BO16" s="1">
-        <v>2.540746</v>
+        <v>2.5407459999999999</v>
       </c>
       <c r="BP16" s="1">
-        <v>1260.340000</v>
+        <v>1260.3399999999999</v>
       </c>
       <c r="BQ16" s="1">
-        <v>-574.971000</v>
+        <v>-574.971</v>
       </c>
       <c r="BR16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS16" s="1">
-        <v>9157.208578</v>
+        <v>9157.2085779999998</v>
       </c>
       <c r="BT16" s="1">
         <v>2.543669</v>
       </c>
       <c r="BU16" s="1">
-        <v>1407.620000</v>
+        <v>1407.62</v>
       </c>
       <c r="BV16" s="1">
-        <v>-800.970000</v>
+        <v>-800.97</v>
       </c>
       <c r="BW16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX16" s="1">
-        <v>9168.039685</v>
+        <v>9168.0396849999997</v>
       </c>
       <c r="BY16" s="1">
         <v>2.546678</v>
       </c>
       <c r="BZ16" s="1">
-        <v>1570.430000</v>
+        <v>1570.43</v>
       </c>
       <c r="CA16" s="1">
-        <v>-1036.280000</v>
+        <v>-1036.28</v>
       </c>
       <c r="CB16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC16" s="1">
-        <v>9180.451603</v>
+        <v>9180.4516029999995</v>
       </c>
       <c r="CD16" s="1">
         <v>2.550125</v>
       </c>
       <c r="CE16" s="1">
-        <v>1983.240000</v>
+        <v>1983.24</v>
       </c>
       <c r="CF16" s="1">
-        <v>-1585.670000</v>
+        <v>-1585.67</v>
       </c>
       <c r="CG16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:85">
       <c r="A17" s="1">
-        <v>9009.148538</v>
+        <v>9009.1485379999995</v>
       </c>
       <c r="B17" s="1">
-        <v>2.502541</v>
+        <v>2.5025409999999999</v>
       </c>
       <c r="C17" s="1">
-        <v>902.343000</v>
+        <v>902.34299999999996</v>
       </c>
       <c r="D17" s="1">
-        <v>-195.026000</v>
+        <v>-195.02600000000001</v>
       </c>
       <c r="E17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
-        <v>9019.565256</v>
+        <v>9019.5652559999999</v>
       </c>
       <c r="G17" s="1">
-        <v>2.505435</v>
+        <v>2.5054349999999999</v>
       </c>
       <c r="H17" s="1">
-        <v>919.366000</v>
+        <v>919.36599999999999</v>
       </c>
       <c r="I17" s="1">
-        <v>-165.270000</v>
+        <v>-165.27</v>
       </c>
       <c r="J17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
-        <v>9030.055642</v>
+        <v>9030.0556419999994</v>
       </c>
       <c r="L17" s="1">
-        <v>2.508349</v>
+        <v>2.5083489999999999</v>
       </c>
       <c r="M17" s="1">
-        <v>941.525000</v>
+        <v>941.52499999999998</v>
       </c>
       <c r="N17" s="1">
-        <v>-118.721000</v>
+        <v>-118.721</v>
       </c>
       <c r="O17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P17" s="1">
-        <v>9040.883804</v>
+        <v>9040.8838039999991</v>
       </c>
       <c r="Q17" s="1">
-        <v>2.511357</v>
+        <v>2.5113569999999998</v>
       </c>
       <c r="R17" s="1">
-        <v>948.019000</v>
+        <v>948.01900000000001</v>
       </c>
       <c r="S17" s="1">
-        <v>-103.291000</v>
+        <v>-103.291</v>
       </c>
       <c r="T17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U17" s="1">
-        <v>9051.409934</v>
+        <v>9051.4099339999993</v>
       </c>
       <c r="V17" s="1">
         <v>2.514281</v>
       </c>
       <c r="W17" s="1">
-        <v>954.424000</v>
+        <v>954.42399999999998</v>
       </c>
       <c r="X17" s="1">
-        <v>-89.673800</v>
+        <v>-89.6738</v>
       </c>
       <c r="Y17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="1">
-        <v>9061.842752</v>
+        <v>9061.8427520000005</v>
       </c>
       <c r="AA17" s="1">
-        <v>2.517179</v>
+        <v>2.5171790000000001</v>
       </c>
       <c r="AB17" s="1">
-        <v>961.569000</v>
+        <v>961.56899999999996</v>
       </c>
       <c r="AC17" s="1">
-        <v>-80.210000</v>
+        <v>-80.209999999999994</v>
       </c>
       <c r="AD17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="1">
-        <v>9072.321236</v>
+        <v>9072.3212359999998</v>
       </c>
       <c r="AF17" s="1">
         <v>2.520089</v>
       </c>
       <c r="AG17" s="1">
-        <v>966.422000</v>
+        <v>966.42200000000003</v>
       </c>
       <c r="AH17" s="1">
-        <v>-79.817900</v>
+        <v>-79.817899999999995</v>
       </c>
       <c r="AI17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ17" s="1">
-        <v>9082.825015</v>
+        <v>9082.8250150000003</v>
       </c>
       <c r="AK17" s="1">
-        <v>2.523007</v>
+        <v>2.5230070000000002</v>
       </c>
       <c r="AL17" s="1">
-        <v>974.405000</v>
+        <v>974.40499999999997</v>
       </c>
       <c r="AM17" s="1">
-        <v>-87.754900</v>
+        <v>-87.754900000000006</v>
       </c>
       <c r="AN17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO17" s="1">
-        <v>9093.657702</v>
+        <v>9093.6577020000004</v>
       </c>
       <c r="AP17" s="1">
-        <v>2.526016</v>
+        <v>2.5260159999999998</v>
       </c>
       <c r="AQ17" s="1">
-        <v>983.633000</v>
+        <v>983.63300000000004</v>
       </c>
       <c r="AR17" s="1">
-        <v>-102.704000</v>
+        <v>-102.70399999999999</v>
       </c>
       <c r="AS17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="1">
-        <v>9104.804755</v>
+        <v>9104.8047549999992</v>
       </c>
       <c r="AU17" s="1">
         <v>2.529112</v>
       </c>
       <c r="AV17" s="1">
-        <v>995.085000</v>
+        <v>995.08500000000004</v>
       </c>
       <c r="AW17" s="1">
-        <v>-124.281000</v>
+        <v>-124.28100000000001</v>
       </c>
       <c r="AX17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY17" s="1">
-        <v>9115.811981</v>
+        <v>9115.8119810000007</v>
       </c>
       <c r="AZ17" s="1">
-        <v>2.532170</v>
+        <v>2.5321699999999998</v>
       </c>
       <c r="BA17" s="1">
-        <v>1004.730000</v>
+        <v>1004.73</v>
       </c>
       <c r="BB17" s="1">
-        <v>-142.998000</v>
+        <v>-142.99799999999999</v>
       </c>
       <c r="BC17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD17" s="1">
-        <v>9126.421591</v>
+        <v>9126.4215910000003</v>
       </c>
       <c r="BE17" s="1">
-        <v>2.535117</v>
+        <v>2.5351170000000001</v>
       </c>
       <c r="BF17" s="1">
-        <v>1050.020000</v>
+        <v>1050.02</v>
       </c>
       <c r="BG17" s="1">
-        <v>-227.770000</v>
+        <v>-227.77</v>
       </c>
       <c r="BH17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI17" s="1">
-        <v>9136.664751</v>
+        <v>9136.6647510000003</v>
       </c>
       <c r="BJ17" s="1">
-        <v>2.537962</v>
+        <v>2.5379619999999998</v>
       </c>
       <c r="BK17" s="1">
-        <v>1129.220000</v>
+        <v>1129.22</v>
       </c>
       <c r="BL17" s="1">
-        <v>-363.958000</v>
+        <v>-363.95800000000003</v>
       </c>
       <c r="BM17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN17" s="1">
-        <v>9147.079745</v>
+        <v>9147.0797449999991</v>
       </c>
       <c r="BO17" s="1">
-        <v>2.540855</v>
+        <v>2.5408550000000001</v>
       </c>
       <c r="BP17" s="1">
-        <v>1260.330000</v>
+        <v>1260.33</v>
       </c>
       <c r="BQ17" s="1">
-        <v>-574.979000</v>
+        <v>-574.97900000000004</v>
       </c>
       <c r="BR17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS17" s="1">
-        <v>9157.618251</v>
+        <v>9157.6182509999999</v>
       </c>
       <c r="BT17" s="1">
-        <v>2.543783</v>
+        <v>2.5437829999999999</v>
       </c>
       <c r="BU17" s="1">
-        <v>1407.620000</v>
+        <v>1407.62</v>
       </c>
       <c r="BV17" s="1">
-        <v>-801.007000</v>
+        <v>-801.00699999999995</v>
       </c>
       <c r="BW17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX17" s="1">
-        <v>9168.465747</v>
+        <v>9168.4657470000002</v>
       </c>
       <c r="BY17" s="1">
-        <v>2.546796</v>
+        <v>2.5467960000000001</v>
       </c>
       <c r="BZ17" s="1">
-        <v>1570.510000</v>
+        <v>1570.51</v>
       </c>
       <c r="CA17" s="1">
-        <v>-1036.430000</v>
+        <v>-1036.43</v>
       </c>
       <c r="CB17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC17" s="1">
-        <v>9180.992210</v>
+        <v>9180.9922100000003</v>
       </c>
       <c r="CD17" s="1">
-        <v>2.550276</v>
+        <v>2.5502760000000002</v>
       </c>
       <c r="CE17" s="1">
-        <v>1981.180000</v>
+        <v>1981.18</v>
       </c>
       <c r="CF17" s="1">
-        <v>-1586.030000</v>
+        <v>-1586.03</v>
       </c>
       <c r="CG17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:85">
       <c r="A18" s="1">
-        <v>9009.487575</v>
+        <v>9009.4875749999992</v>
       </c>
       <c r="B18" s="1">
-        <v>2.502635</v>
+        <v>2.5026350000000002</v>
       </c>
       <c r="C18" s="1">
-        <v>902.490000</v>
+        <v>902.49</v>
       </c>
       <c r="D18" s="1">
-        <v>-195.247000</v>
+        <v>-195.24700000000001</v>
       </c>
       <c r="E18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
-        <v>9020.211047</v>
+        <v>9020.2110470000007</v>
       </c>
       <c r="G18" s="1">
         <v>2.505614</v>
       </c>
       <c r="H18" s="1">
-        <v>919.496000</v>
+        <v>919.49599999999998</v>
       </c>
       <c r="I18" s="1">
-        <v>-165.411000</v>
+        <v>-165.411</v>
       </c>
       <c r="J18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
         <v>9030.715322</v>
       </c>
       <c r="L18" s="1">
-        <v>2.508532</v>
+        <v>2.5085320000000002</v>
       </c>
       <c r="M18" s="1">
-        <v>941.563000</v>
+        <v>941.56299999999999</v>
       </c>
       <c r="N18" s="1">
-        <v>-118.554000</v>
+        <v>-118.554</v>
       </c>
       <c r="O18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P18" s="1">
-        <v>9041.293542</v>
+        <v>9041.2935419999994</v>
       </c>
       <c r="Q18" s="1">
-        <v>2.511470</v>
+        <v>2.5114700000000001</v>
       </c>
       <c r="R18" s="1">
-        <v>947.997000</v>
+        <v>947.99699999999996</v>
       </c>
       <c r="S18" s="1">
-        <v>-103.334000</v>
+        <v>-103.334</v>
       </c>
       <c r="T18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1">
-        <v>9051.760586</v>
+        <v>9051.7605860000003</v>
       </c>
       <c r="V18" s="1">
-        <v>2.514378</v>
+        <v>2.5143779999999998</v>
       </c>
       <c r="W18" s="1">
-        <v>954.259000</v>
+        <v>954.25900000000001</v>
       </c>
       <c r="X18" s="1">
-        <v>-89.605800</v>
+        <v>-89.605800000000002</v>
       </c>
       <c r="Y18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="1">
-        <v>9062.190945</v>
+        <v>9062.1909450000003</v>
       </c>
       <c r="AA18" s="1">
-        <v>2.517275</v>
+        <v>2.5172750000000002</v>
       </c>
       <c r="AB18" s="1">
-        <v>961.496000</v>
+        <v>961.49599999999998</v>
       </c>
       <c r="AC18" s="1">
-        <v>-80.257600</v>
+        <v>-80.257599999999996</v>
       </c>
       <c r="AD18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="1">
-        <v>9072.665954</v>
+        <v>9072.6659540000001</v>
       </c>
       <c r="AF18" s="1">
-        <v>2.520185</v>
+        <v>2.5201850000000001</v>
       </c>
       <c r="AG18" s="1">
-        <v>966.390000</v>
+        <v>966.39</v>
       </c>
       <c r="AH18" s="1">
-        <v>-79.827500</v>
+        <v>-79.827500000000001</v>
       </c>
       <c r="AI18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ18" s="1">
-        <v>9083.174692</v>
+        <v>9083.1746920000005</v>
       </c>
       <c r="AK18" s="1">
         <v>2.523104</v>
       </c>
       <c r="AL18" s="1">
-        <v>974.406000</v>
+        <v>974.40599999999995</v>
       </c>
       <c r="AM18" s="1">
-        <v>-87.724400</v>
+        <v>-87.724400000000003</v>
       </c>
       <c r="AN18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO18" s="1">
-        <v>9094.071829</v>
+        <v>9094.0718290000004</v>
       </c>
       <c r="AP18" s="1">
-        <v>2.526131</v>
+        <v>2.5261309999999999</v>
       </c>
       <c r="AQ18" s="1">
-        <v>983.643000</v>
+        <v>983.64300000000003</v>
       </c>
       <c r="AR18" s="1">
-        <v>-102.689000</v>
+        <v>-102.68899999999999</v>
       </c>
       <c r="AS18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="1">
-        <v>9105.126162</v>
+        <v>9105.1261620000005</v>
       </c>
       <c r="AU18" s="1">
-        <v>2.529202</v>
+        <v>2.5292020000000002</v>
       </c>
       <c r="AV18" s="1">
-        <v>995.078000</v>
+        <v>995.07799999999997</v>
       </c>
       <c r="AW18" s="1">
-        <v>-124.265000</v>
+        <v>-124.265</v>
       </c>
       <c r="AX18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY18" s="1">
-        <v>9116.118474</v>
+        <v>9116.1184740000008</v>
       </c>
       <c r="AZ18" s="1">
-        <v>2.532255</v>
+        <v>2.5322550000000001</v>
       </c>
       <c r="BA18" s="1">
-        <v>1004.710000</v>
+        <v>1004.71</v>
       </c>
       <c r="BB18" s="1">
-        <v>-142.988000</v>
+        <v>-142.988</v>
       </c>
       <c r="BC18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD18" s="1">
-        <v>9126.781002</v>
+        <v>9126.7810019999997</v>
       </c>
       <c r="BE18" s="1">
-        <v>2.535217</v>
+        <v>2.5352169999999998</v>
       </c>
       <c r="BF18" s="1">
-        <v>1050.030000</v>
+        <v>1050.03</v>
       </c>
       <c r="BG18" s="1">
-        <v>-227.803000</v>
+        <v>-227.803</v>
       </c>
       <c r="BH18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI18" s="1">
-        <v>9137.051165</v>
+        <v>9137.0511650000008</v>
       </c>
       <c r="BJ18" s="1">
-        <v>2.538070</v>
+        <v>2.5380699999999998</v>
       </c>
       <c r="BK18" s="1">
-        <v>1129.220000</v>
+        <v>1129.22</v>
       </c>
       <c r="BL18" s="1">
-        <v>-363.947000</v>
+        <v>-363.947</v>
       </c>
       <c r="BM18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN18" s="1">
-        <v>9147.503359</v>
+        <v>9147.5033590000003</v>
       </c>
       <c r="BO18" s="1">
-        <v>2.540973</v>
+        <v>2.5409730000000001</v>
       </c>
       <c r="BP18" s="1">
-        <v>1260.300000</v>
+        <v>1260.3</v>
       </c>
       <c r="BQ18" s="1">
-        <v>-574.940000</v>
+        <v>-574.94000000000005</v>
       </c>
       <c r="BR18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS18" s="1">
-        <v>9158.047778</v>
+        <v>9158.0477780000001</v>
       </c>
       <c r="BT18" s="1">
-        <v>2.543902</v>
+        <v>2.5439020000000001</v>
       </c>
       <c r="BU18" s="1">
-        <v>1407.660000</v>
+        <v>1407.66</v>
       </c>
       <c r="BV18" s="1">
-        <v>-800.995000</v>
+        <v>-800.995</v>
       </c>
       <c r="BW18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX18" s="1">
-        <v>9168.913635</v>
+        <v>9168.9136350000008</v>
       </c>
       <c r="BY18" s="1">
-        <v>2.546920</v>
+        <v>2.5469200000000001</v>
       </c>
       <c r="BZ18" s="1">
-        <v>1570.480000</v>
+        <v>1570.48</v>
       </c>
       <c r="CA18" s="1">
-        <v>-1036.470000</v>
+        <v>-1036.47</v>
       </c>
       <c r="CB18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC18" s="1">
-        <v>9181.522930</v>
+        <v>9181.5229299999992</v>
       </c>
       <c r="CD18" s="1">
-        <v>2.550423</v>
+        <v>2.5504229999999999</v>
       </c>
       <c r="CE18" s="1">
-        <v>1983.310000</v>
+        <v>1983.31</v>
       </c>
       <c r="CF18" s="1">
-        <v>-1586.930000</v>
+        <v>-1586.93</v>
       </c>
       <c r="CG18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:85">
       <c r="A19" s="1">
-        <v>9010.144246</v>
+        <v>9010.1442459999998</v>
       </c>
       <c r="B19" s="1">
         <v>2.502818</v>
       </c>
       <c r="C19" s="1">
-        <v>902.389000</v>
+        <v>902.38900000000001</v>
       </c>
       <c r="D19" s="1">
-        <v>-195.097000</v>
+        <v>-195.09700000000001</v>
       </c>
       <c r="E19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
-        <v>9020.598423</v>
+        <v>9020.5984229999995</v>
       </c>
       <c r="G19" s="1">
         <v>2.505722</v>
       </c>
       <c r="H19" s="1">
-        <v>919.188000</v>
+        <v>919.18799999999999</v>
       </c>
       <c r="I19" s="1">
-        <v>-165.403000</v>
+        <v>-165.40299999999999</v>
       </c>
       <c r="J19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
-        <v>9031.086342</v>
+        <v>9031.0863420000005</v>
       </c>
       <c r="L19" s="1">
-        <v>2.508635</v>
+        <v>2.5086349999999999</v>
       </c>
       <c r="M19" s="1">
-        <v>941.488000</v>
+        <v>941.48800000000006</v>
       </c>
       <c r="N19" s="1">
-        <v>-118.435000</v>
+        <v>-118.435</v>
       </c>
       <c r="O19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P19" s="1">
-        <v>9041.633755</v>
+        <v>9041.6337550000007</v>
       </c>
       <c r="Q19" s="1">
         <v>2.511565</v>
       </c>
       <c r="R19" s="1">
-        <v>948.032000</v>
+        <v>948.03200000000004</v>
       </c>
       <c r="S19" s="1">
-        <v>-103.327000</v>
+        <v>-103.327</v>
       </c>
       <c r="T19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U19" s="1">
-        <v>9052.102350</v>
+        <v>9052.1023499999992</v>
       </c>
       <c r="V19" s="1">
-        <v>2.514473</v>
+        <v>2.5144730000000002</v>
       </c>
       <c r="W19" s="1">
-        <v>954.346000</v>
+        <v>954.346</v>
       </c>
       <c r="X19" s="1">
-        <v>-89.653000</v>
+        <v>-89.653000000000006</v>
       </c>
       <c r="Y19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="1">
-        <v>9062.538143</v>
+        <v>9062.5381429999998</v>
       </c>
       <c r="AA19" s="1">
-        <v>2.517372</v>
+        <v>2.5173719999999999</v>
       </c>
       <c r="AB19" s="1">
-        <v>961.510000</v>
+        <v>961.51</v>
       </c>
       <c r="AC19" s="1">
-        <v>-80.234800</v>
+        <v>-80.234800000000007</v>
       </c>
       <c r="AD19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="1">
-        <v>9073.077138</v>
+        <v>9073.0771380000006</v>
       </c>
       <c r="AF19" s="1">
-        <v>2.520299</v>
+        <v>2.5202990000000001</v>
       </c>
       <c r="AG19" s="1">
-        <v>966.308000</v>
+        <v>966.30799999999999</v>
       </c>
       <c r="AH19" s="1">
-        <v>-79.881100</v>
+        <v>-79.881100000000004</v>
       </c>
       <c r="AI19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ19" s="1">
-        <v>9083.688549</v>
+        <v>9083.6885490000004</v>
       </c>
       <c r="AK19" s="1">
         <v>2.523247</v>
       </c>
       <c r="AL19" s="1">
-        <v>974.383000</v>
+        <v>974.38300000000004</v>
       </c>
       <c r="AM19" s="1">
-        <v>-87.736100</v>
+        <v>-87.736099999999993</v>
       </c>
       <c r="AN19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO19" s="1">
-        <v>9094.380309</v>
+        <v>9094.3803090000001</v>
       </c>
       <c r="AP19" s="1">
-        <v>2.526217</v>
+        <v>2.5262169999999999</v>
       </c>
       <c r="AQ19" s="1">
-        <v>983.628000</v>
+        <v>983.62800000000004</v>
       </c>
       <c r="AR19" s="1">
-        <v>-102.687000</v>
+        <v>-102.687</v>
       </c>
       <c r="AS19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="1">
-        <v>9105.489208</v>
+        <v>9105.4892080000009</v>
       </c>
       <c r="AU19" s="1">
-        <v>2.529303</v>
+        <v>2.5293030000000001</v>
       </c>
       <c r="AV19" s="1">
-        <v>995.090000</v>
+        <v>995.09</v>
       </c>
       <c r="AW19" s="1">
-        <v>-124.259000</v>
+        <v>-124.259</v>
       </c>
       <c r="AX19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY19" s="1">
-        <v>9116.476088</v>
+        <v>9116.4760879999994</v>
       </c>
       <c r="AZ19" s="1">
-        <v>2.532354</v>
+        <v>2.5323540000000002</v>
       </c>
       <c r="BA19" s="1">
-        <v>1004.720000</v>
+        <v>1004.72</v>
       </c>
       <c r="BB19" s="1">
-        <v>-143.017000</v>
+        <v>-143.017</v>
       </c>
       <c r="BC19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD19" s="1">
-        <v>9127.143546</v>
+        <v>9127.1435459999993</v>
       </c>
       <c r="BE19" s="1">
-        <v>2.535318</v>
+        <v>2.5353180000000002</v>
       </c>
       <c r="BF19" s="1">
-        <v>1050.030000</v>
+        <v>1050.03</v>
       </c>
       <c r="BG19" s="1">
-        <v>-227.782000</v>
+        <v>-227.78200000000001</v>
       </c>
       <c r="BH19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI19" s="1">
-        <v>9137.453927</v>
+        <v>9137.4539270000005</v>
       </c>
       <c r="BJ19" s="1">
-        <v>2.538182</v>
+        <v>2.5381819999999999</v>
       </c>
       <c r="BK19" s="1">
-        <v>1129.200000</v>
+        <v>1129.2</v>
       </c>
       <c r="BL19" s="1">
-        <v>-363.971000</v>
+        <v>-363.971</v>
       </c>
       <c r="BM19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN19" s="1">
-        <v>9147.915504</v>
+        <v>9147.9155040000005</v>
       </c>
       <c r="BO19" s="1">
-        <v>2.541088</v>
+        <v>2.5410879999999998</v>
       </c>
       <c r="BP19" s="1">
-        <v>1260.320000</v>
+        <v>1260.32</v>
       </c>
       <c r="BQ19" s="1">
-        <v>-574.976000</v>
+        <v>-574.976</v>
       </c>
       <c r="BR19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS19" s="1">
-        <v>9158.476320</v>
+        <v>9158.4763199999998</v>
       </c>
       <c r="BT19" s="1">
-        <v>2.544021</v>
+        <v>2.5440209999999999</v>
       </c>
       <c r="BU19" s="1">
-        <v>1407.640000</v>
+        <v>1407.64</v>
       </c>
       <c r="BV19" s="1">
-        <v>-801.109000</v>
+        <v>-801.10900000000004</v>
       </c>
       <c r="BW19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX19" s="1">
-        <v>9169.482051</v>
+        <v>9169.4820510000009</v>
       </c>
       <c r="BY19" s="1">
         <v>2.547078</v>
       </c>
       <c r="BZ19" s="1">
-        <v>1570.560000</v>
+        <v>1570.56</v>
       </c>
       <c r="CA19" s="1">
-        <v>-1036.420000</v>
+        <v>-1036.42</v>
       </c>
       <c r="CB19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC19" s="1">
-        <v>9182.070514</v>
+        <v>9182.0705139999991</v>
       </c>
       <c r="CD19" s="1">
-        <v>2.550575</v>
+        <v>2.5505749999999998</v>
       </c>
       <c r="CE19" s="1">
-        <v>1981.900000</v>
+        <v>1981.9</v>
       </c>
       <c r="CF19" s="1">
-        <v>-1585.060000</v>
+        <v>-1585.06</v>
       </c>
       <c r="CG19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:85">
       <c r="A20" s="1">
-        <v>9010.509300</v>
+        <v>9010.5092999999997</v>
       </c>
       <c r="B20" s="1">
-        <v>2.502919</v>
+        <v>2.5029189999999999</v>
       </c>
       <c r="C20" s="1">
-        <v>902.332000</v>
+        <v>902.33199999999999</v>
       </c>
       <c r="D20" s="1">
-        <v>-195.368000</v>
+        <v>-195.36799999999999</v>
       </c>
       <c r="E20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
-        <v>9020.942150</v>
+        <v>9020.9421500000008</v>
       </c>
       <c r="G20" s="1">
         <v>2.505817</v>
       </c>
       <c r="H20" s="1">
-        <v>919.133000</v>
+        <v>919.13300000000004</v>
       </c>
       <c r="I20" s="1">
-        <v>-165.391000</v>
+        <v>-165.39099999999999</v>
       </c>
       <c r="J20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
-        <v>9031.431048</v>
+        <v>9031.4310480000004</v>
       </c>
       <c r="L20" s="1">
         <v>2.508731</v>
       </c>
       <c r="M20" s="1">
-        <v>941.527000</v>
+        <v>941.52700000000004</v>
       </c>
       <c r="N20" s="1">
-        <v>-118.548000</v>
+        <v>-118.548</v>
       </c>
       <c r="O20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P20" s="1">
         <v>9041.980458</v>
       </c>
       <c r="Q20" s="1">
-        <v>2.511661</v>
+        <v>2.5116610000000001</v>
       </c>
       <c r="R20" s="1">
-        <v>947.971000</v>
+        <v>947.971</v>
       </c>
       <c r="S20" s="1">
-        <v>-103.318000</v>
+        <v>-103.318</v>
       </c>
       <c r="T20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U20" s="1">
-        <v>9052.522925</v>
+        <v>9052.5229249999993</v>
       </c>
       <c r="V20" s="1">
-        <v>2.514590</v>
+        <v>2.5145900000000001</v>
       </c>
       <c r="W20" s="1">
-        <v>954.340000</v>
+        <v>954.34</v>
       </c>
       <c r="X20" s="1">
-        <v>-89.707000</v>
+        <v>-89.706999999999994</v>
       </c>
       <c r="Y20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="1">
-        <v>9062.956285</v>
+        <v>9062.9562850000002</v>
       </c>
       <c r="AA20" s="1">
-        <v>2.517488</v>
+        <v>2.5174880000000002</v>
       </c>
       <c r="AB20" s="1">
-        <v>961.500000</v>
+        <v>961.5</v>
       </c>
       <c r="AC20" s="1">
-        <v>-80.206500</v>
+        <v>-80.206500000000005</v>
       </c>
       <c r="AD20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="1">
-        <v>9073.378209</v>
+        <v>9073.3782090000004</v>
       </c>
       <c r="AF20" s="1">
-        <v>2.520383</v>
+        <v>2.5203829999999998</v>
       </c>
       <c r="AG20" s="1">
-        <v>966.472000</v>
+        <v>966.47199999999998</v>
       </c>
       <c r="AH20" s="1">
-        <v>-79.853400</v>
+        <v>-79.853399999999993</v>
       </c>
       <c r="AI20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="1">
         <v>9083.871572</v>
@@ -5212,1692 +5628,1693 @@
         <v>2.523298</v>
       </c>
       <c r="AL20" s="1">
-        <v>974.402000</v>
+        <v>974.40200000000004</v>
       </c>
       <c r="AM20" s="1">
-        <v>-87.732100</v>
+        <v>-87.732100000000003</v>
       </c>
       <c r="AN20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO20" s="1">
-        <v>9094.741092</v>
+        <v>9094.7410920000002</v>
       </c>
       <c r="AP20" s="1">
-        <v>2.526317</v>
+        <v>2.5263170000000001</v>
       </c>
       <c r="AQ20" s="1">
-        <v>983.639000</v>
+        <v>983.63900000000001</v>
       </c>
       <c r="AR20" s="1">
-        <v>-102.707000</v>
+        <v>-102.70699999999999</v>
       </c>
       <c r="AS20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="1">
-        <v>9105.856742</v>
+        <v>9105.8567419999999</v>
       </c>
       <c r="AU20" s="1">
-        <v>2.529405</v>
+        <v>2.5294050000000001</v>
       </c>
       <c r="AV20" s="1">
-        <v>995.082000</v>
+        <v>995.08199999999999</v>
       </c>
       <c r="AW20" s="1">
-        <v>-124.277000</v>
+        <v>-124.277</v>
       </c>
       <c r="AX20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY20" s="1">
-        <v>9116.832216</v>
+        <v>9116.8322160000007</v>
       </c>
       <c r="AZ20" s="1">
-        <v>2.532453</v>
+        <v>2.5324529999999998</v>
       </c>
       <c r="BA20" s="1">
-        <v>1004.750000</v>
+        <v>1004.75</v>
       </c>
       <c r="BB20" s="1">
-        <v>-143.012000</v>
+        <v>-143.012</v>
       </c>
       <c r="BC20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD20" s="1">
-        <v>9127.864233</v>
+        <v>9127.8642330000002</v>
       </c>
       <c r="BE20" s="1">
-        <v>2.535518</v>
+        <v>2.5355180000000002</v>
       </c>
       <c r="BF20" s="1">
-        <v>1050.030000</v>
+        <v>1050.03</v>
       </c>
       <c r="BG20" s="1">
-        <v>-227.792000</v>
+        <v>-227.792</v>
       </c>
       <c r="BH20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI20" s="1">
-        <v>9137.814508</v>
+        <v>9137.8145079999995</v>
       </c>
       <c r="BJ20" s="1">
-        <v>2.538282</v>
+        <v>2.5382820000000001</v>
       </c>
       <c r="BK20" s="1">
-        <v>1129.230000</v>
+        <v>1129.23</v>
       </c>
       <c r="BL20" s="1">
-        <v>-363.943000</v>
+        <v>-363.94299999999998</v>
       </c>
       <c r="BM20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN20" s="1">
-        <v>9148.318752</v>
+        <v>9148.3187519999992</v>
       </c>
       <c r="BO20" s="1">
-        <v>2.541200</v>
+        <v>2.5411999999999999</v>
       </c>
       <c r="BP20" s="1">
-        <v>1260.330000</v>
+        <v>1260.33</v>
       </c>
       <c r="BQ20" s="1">
-        <v>-574.947000</v>
+        <v>-574.947</v>
       </c>
       <c r="BR20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS20" s="1">
-        <v>9158.888993</v>
+        <v>9158.8889930000005</v>
       </c>
       <c r="BT20" s="1">
         <v>2.544136</v>
       </c>
       <c r="BU20" s="1">
-        <v>1407.720000</v>
+        <v>1407.72</v>
       </c>
       <c r="BV20" s="1">
-        <v>-801.040000</v>
+        <v>-801.04</v>
       </c>
       <c r="BW20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX20" s="1">
-        <v>9170.110518</v>
+        <v>9170.1105179999995</v>
       </c>
       <c r="BY20" s="1">
         <v>2.547253</v>
       </c>
       <c r="BZ20" s="1">
-        <v>1570.550000</v>
+        <v>1570.55</v>
       </c>
       <c r="CA20" s="1">
-        <v>-1036.430000</v>
+        <v>-1036.43</v>
       </c>
       <c r="CB20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC20" s="1">
-        <v>9182.921680</v>
+        <v>9182.9216799999995</v>
       </c>
       <c r="CD20" s="1">
-        <v>2.550812</v>
+        <v>2.5508120000000001</v>
       </c>
       <c r="CE20" s="1">
-        <v>1983.520000</v>
+        <v>1983.52</v>
       </c>
       <c r="CF20" s="1">
-        <v>-1586.270000</v>
+        <v>-1586.27</v>
       </c>
       <c r="CG20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:85">
       <c r="A21" s="1">
-        <v>9010.855508</v>
+        <v>9010.8555080000006</v>
       </c>
       <c r="B21" s="1">
         <v>2.503015</v>
       </c>
       <c r="C21" s="1">
-        <v>902.373000</v>
+        <v>902.37300000000005</v>
       </c>
       <c r="D21" s="1">
-        <v>-195.313000</v>
+        <v>-195.31299999999999</v>
       </c>
       <c r="E21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
-        <v>9021.288854</v>
+        <v>9021.2888540000004</v>
       </c>
       <c r="G21" s="1">
-        <v>2.505914</v>
+        <v>2.5059140000000002</v>
       </c>
       <c r="H21" s="1">
-        <v>919.352000</v>
+        <v>919.35199999999998</v>
       </c>
       <c r="I21" s="1">
-        <v>-165.503000</v>
+        <v>-165.50299999999999</v>
       </c>
       <c r="J21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
-        <v>9031.851161</v>
+        <v>9031.8511610000005</v>
       </c>
       <c r="L21" s="1">
         <v>2.508848</v>
       </c>
       <c r="M21" s="1">
-        <v>941.601000</v>
+        <v>941.601</v>
       </c>
       <c r="N21" s="1">
-        <v>-118.596000</v>
+        <v>-118.596</v>
       </c>
       <c r="O21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P21" s="1">
-        <v>9042.392635</v>
+        <v>9042.3926350000002</v>
       </c>
       <c r="Q21" s="1">
-        <v>2.511776</v>
+        <v>2.5117759999999998</v>
       </c>
       <c r="R21" s="1">
-        <v>947.986000</v>
+        <v>947.98599999999999</v>
       </c>
       <c r="S21" s="1">
-        <v>-103.295000</v>
+        <v>-103.295</v>
       </c>
       <c r="T21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U21" s="1">
-        <v>9052.801213</v>
+        <v>9052.8012130000006</v>
       </c>
       <c r="V21" s="1">
-        <v>2.514667</v>
+        <v>2.5146670000000002</v>
       </c>
       <c r="W21" s="1">
-        <v>954.370000</v>
+        <v>954.37</v>
       </c>
       <c r="X21" s="1">
-        <v>-89.697300</v>
+        <v>-89.697299999999998</v>
       </c>
       <c r="Y21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="1">
-        <v>9063.237043</v>
+        <v>9063.2370429999992</v>
       </c>
       <c r="AA21" s="1">
         <v>2.517566</v>
       </c>
       <c r="AB21" s="1">
-        <v>961.439000</v>
+        <v>961.43899999999996</v>
       </c>
       <c r="AC21" s="1">
-        <v>-80.240400</v>
+        <v>-80.240399999999994</v>
       </c>
       <c r="AD21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE21" s="1">
-        <v>9073.719488</v>
+        <v>9073.7194880000006</v>
       </c>
       <c r="AF21" s="1">
-        <v>2.520478</v>
+        <v>2.5204780000000002</v>
       </c>
       <c r="AG21" s="1">
-        <v>966.446000</v>
+        <v>966.44600000000003</v>
       </c>
       <c r="AH21" s="1">
-        <v>-79.900800</v>
+        <v>-79.900800000000004</v>
       </c>
       <c r="AI21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ21" s="1">
-        <v>9084.220290</v>
+        <v>9084.2202899999993</v>
       </c>
       <c r="AK21" s="1">
-        <v>2.523395</v>
+        <v>2.5233949999999998</v>
       </c>
       <c r="AL21" s="1">
-        <v>974.397000</v>
+        <v>974.39700000000005</v>
       </c>
       <c r="AM21" s="1">
-        <v>-87.703100</v>
+        <v>-87.703100000000006</v>
       </c>
       <c r="AN21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO21" s="1">
-        <v>9095.100004</v>
+        <v>9095.1000039999999</v>
       </c>
       <c r="AP21" s="1">
-        <v>2.526417</v>
+        <v>2.5264169999999999</v>
       </c>
       <c r="AQ21" s="1">
-        <v>983.622000</v>
+        <v>983.62199999999996</v>
       </c>
       <c r="AR21" s="1">
-        <v>-102.730000</v>
+        <v>-102.73</v>
       </c>
       <c r="AS21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="1">
-        <v>9106.584373</v>
+        <v>9106.5843729999997</v>
       </c>
       <c r="AU21" s="1">
-        <v>2.529607</v>
+        <v>2.5296069999999999</v>
       </c>
       <c r="AV21" s="1">
-        <v>995.074000</v>
+        <v>995.07399999999996</v>
       </c>
       <c r="AW21" s="1">
-        <v>-124.264000</v>
+        <v>-124.264</v>
       </c>
       <c r="AX21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="1">
-        <v>9117.555879</v>
+        <v>9117.5558789999995</v>
       </c>
       <c r="AZ21" s="1">
         <v>2.532654</v>
       </c>
       <c r="BA21" s="1">
-        <v>1004.710000</v>
+        <v>1004.71</v>
       </c>
       <c r="BB21" s="1">
-        <v>-143.017000</v>
+        <v>-143.017</v>
       </c>
       <c r="BC21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD21" s="1">
-        <v>9128.254095</v>
+        <v>9128.2540950000002</v>
       </c>
       <c r="BE21" s="1">
-        <v>2.535626</v>
+        <v>2.5356260000000002</v>
       </c>
       <c r="BF21" s="1">
-        <v>1050.030000</v>
+        <v>1050.03</v>
       </c>
       <c r="BG21" s="1">
-        <v>-227.765000</v>
+        <v>-227.76499999999999</v>
       </c>
       <c r="BH21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI21" s="1">
-        <v>9138.190939</v>
+        <v>9138.1909390000001</v>
       </c>
       <c r="BJ21" s="1">
         <v>2.538386</v>
       </c>
       <c r="BK21" s="1">
-        <v>1129.220000</v>
+        <v>1129.22</v>
       </c>
       <c r="BL21" s="1">
-        <v>-363.964000</v>
+        <v>-363.964</v>
       </c>
       <c r="BM21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN21" s="1">
-        <v>9148.717038</v>
+        <v>9148.7170380000007</v>
       </c>
       <c r="BO21" s="1">
-        <v>2.541310</v>
+        <v>2.5413100000000002</v>
       </c>
       <c r="BP21" s="1">
-        <v>1260.340000</v>
+        <v>1260.3399999999999</v>
       </c>
       <c r="BQ21" s="1">
-        <v>-574.991000</v>
+        <v>-574.99099999999999</v>
       </c>
       <c r="BR21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS21" s="1">
-        <v>9159.616127</v>
+        <v>9159.6161269999993</v>
       </c>
       <c r="BT21" s="1">
-        <v>2.544338</v>
+        <v>2.5443380000000002</v>
       </c>
       <c r="BU21" s="1">
-        <v>1407.690000</v>
+        <v>1407.69</v>
       </c>
       <c r="BV21" s="1">
-        <v>-801.110000</v>
+        <v>-801.11</v>
       </c>
       <c r="BW21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX21" s="1">
-        <v>9170.243409</v>
+        <v>9170.2434090000006</v>
       </c>
       <c r="BY21" s="1">
-        <v>2.547290</v>
+        <v>2.5472899999999998</v>
       </c>
       <c r="BZ21" s="1">
-        <v>1570.600000</v>
+        <v>1570.6</v>
       </c>
       <c r="CA21" s="1">
-        <v>-1036.480000</v>
+        <v>-1036.48</v>
       </c>
       <c r="CB21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC21" s="1">
-        <v>9183.152783</v>
+        <v>9183.1527829999995</v>
       </c>
       <c r="CD21" s="1">
-        <v>2.550876</v>
+        <v>2.5508760000000001</v>
       </c>
       <c r="CE21" s="1">
-        <v>1983.330000</v>
+        <v>1983.33</v>
       </c>
       <c r="CF21" s="1">
-        <v>-1586.500000</v>
+        <v>-1586.5</v>
       </c>
       <c r="CG21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:85">
       <c r="A22" s="1">
-        <v>9011.195299</v>
+        <v>9011.1952990000009</v>
       </c>
       <c r="B22" s="1">
-        <v>2.503110</v>
+        <v>2.5031099999999999</v>
       </c>
       <c r="C22" s="1">
-        <v>902.402000</v>
+        <v>902.40200000000004</v>
       </c>
       <c r="D22" s="1">
-        <v>-195.368000</v>
+        <v>-195.36799999999999</v>
       </c>
       <c r="E22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1">
-        <v>9021.701562</v>
+        <v>9021.7015620000002</v>
       </c>
       <c r="G22" s="1">
-        <v>2.506028</v>
+        <v>2.5060280000000001</v>
       </c>
       <c r="H22" s="1">
-        <v>919.171000</v>
+        <v>919.17100000000005</v>
       </c>
       <c r="I22" s="1">
-        <v>-165.516000</v>
+        <v>-165.51599999999999</v>
       </c>
       <c r="J22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
-        <v>9032.126466</v>
+        <v>9032.1264659999997</v>
       </c>
       <c r="L22" s="1">
-        <v>2.508924</v>
+        <v>2.5089239999999999</v>
       </c>
       <c r="M22" s="1">
-        <v>941.412000</v>
+        <v>941.41200000000003</v>
       </c>
       <c r="N22" s="1">
-        <v>-118.499000</v>
+        <v>-118.499</v>
       </c>
       <c r="O22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P22" s="1">
-        <v>9042.689737</v>
+        <v>9042.6897370000006</v>
       </c>
       <c r="Q22" s="1">
-        <v>2.511858</v>
+        <v>2.5118580000000001</v>
       </c>
       <c r="R22" s="1">
-        <v>947.939000</v>
+        <v>947.93899999999996</v>
       </c>
       <c r="S22" s="1">
-        <v>-103.282000</v>
+        <v>-103.282</v>
       </c>
       <c r="T22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U22" s="1">
-        <v>9053.143916</v>
+        <v>9053.1439160000009</v>
       </c>
       <c r="V22" s="1">
-        <v>2.514762</v>
+        <v>2.5147620000000002</v>
       </c>
       <c r="W22" s="1">
-        <v>954.334000</v>
+        <v>954.33399999999995</v>
       </c>
       <c r="X22" s="1">
-        <v>-89.666300</v>
+        <v>-89.666300000000007</v>
       </c>
       <c r="Y22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="1">
-        <v>9063.585732</v>
+        <v>9063.5857319999996</v>
       </c>
       <c r="AA22" s="1">
-        <v>2.517663</v>
+        <v>2.5176630000000002</v>
       </c>
       <c r="AB22" s="1">
-        <v>961.524000</v>
+        <v>961.524</v>
       </c>
       <c r="AC22" s="1">
-        <v>-80.279200</v>
+        <v>-80.279200000000003</v>
       </c>
       <c r="AD22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="1">
-        <v>9074.064215</v>
+        <v>9074.0642150000003</v>
       </c>
       <c r="AF22" s="1">
-        <v>2.520573</v>
+        <v>2.5205730000000002</v>
       </c>
       <c r="AG22" s="1">
-        <v>966.449000</v>
+        <v>966.44899999999996</v>
       </c>
       <c r="AH22" s="1">
-        <v>-79.888700</v>
+        <v>-79.8887</v>
       </c>
       <c r="AI22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ22" s="1">
-        <v>9084.914658</v>
+        <v>9084.9146579999997</v>
       </c>
       <c r="AK22" s="1">
         <v>2.523587</v>
       </c>
       <c r="AL22" s="1">
-        <v>974.406000</v>
+        <v>974.40599999999995</v>
       </c>
       <c r="AM22" s="1">
-        <v>-87.718300</v>
+        <v>-87.718299999999999</v>
       </c>
       <c r="AN22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO22" s="1">
-        <v>9095.820227</v>
+        <v>9095.8202270000002</v>
       </c>
       <c r="AP22" s="1">
-        <v>2.526617</v>
+        <v>2.5266169999999999</v>
       </c>
       <c r="AQ22" s="1">
-        <v>983.625000</v>
+        <v>983.625</v>
       </c>
       <c r="AR22" s="1">
-        <v>-102.679000</v>
+        <v>-102.679</v>
       </c>
       <c r="AS22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="1">
-        <v>9106.976213</v>
+        <v>9106.9762129999999</v>
       </c>
       <c r="AU22" s="1">
-        <v>2.529716</v>
+        <v>2.5297160000000001</v>
       </c>
       <c r="AV22" s="1">
-        <v>995.066000</v>
+        <v>995.06600000000003</v>
       </c>
       <c r="AW22" s="1">
-        <v>-124.267000</v>
+        <v>-124.267</v>
       </c>
       <c r="AX22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY22" s="1">
-        <v>9117.931846</v>
+        <v>9117.9318459999995</v>
       </c>
       <c r="AZ22" s="1">
         <v>2.532759</v>
       </c>
       <c r="BA22" s="1">
-        <v>1004.730000</v>
+        <v>1004.73</v>
       </c>
       <c r="BB22" s="1">
-        <v>-143.006000</v>
+        <v>-143.006</v>
       </c>
       <c r="BC22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD22" s="1">
-        <v>9128.636008</v>
+        <v>9128.6360079999995</v>
       </c>
       <c r="BE22" s="1">
-        <v>2.535732</v>
+        <v>2.5357319999999999</v>
       </c>
       <c r="BF22" s="1">
-        <v>1050.030000</v>
+        <v>1050.03</v>
       </c>
       <c r="BG22" s="1">
-        <v>-227.761000</v>
+        <v>-227.761</v>
       </c>
       <c r="BH22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI22" s="1">
-        <v>9138.868474</v>
+        <v>9138.8684740000008</v>
       </c>
       <c r="BJ22" s="1">
-        <v>2.538575</v>
+        <v>2.5385749999999998</v>
       </c>
       <c r="BK22" s="1">
-        <v>1129.220000</v>
+        <v>1129.22</v>
       </c>
       <c r="BL22" s="1">
-        <v>-363.945000</v>
+        <v>-363.94499999999999</v>
       </c>
       <c r="BM22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN22" s="1">
         <v>9149.436764</v>
       </c>
       <c r="BO22" s="1">
-        <v>2.541510</v>
+        <v>2.5415100000000002</v>
       </c>
       <c r="BP22" s="1">
-        <v>1260.290000</v>
+        <v>1260.29</v>
       </c>
       <c r="BQ22" s="1">
-        <v>-574.939000</v>
+        <v>-574.93899999999996</v>
       </c>
       <c r="BR22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS22" s="1">
-        <v>9159.743103</v>
+        <v>9159.7431030000007</v>
       </c>
       <c r="BT22" s="1">
-        <v>2.544373</v>
+        <v>2.5443730000000002</v>
       </c>
       <c r="BU22" s="1">
-        <v>1407.660000</v>
+        <v>1407.66</v>
       </c>
       <c r="BV22" s="1">
-        <v>-801.130000</v>
+        <v>-801.13</v>
       </c>
       <c r="BW22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX22" s="1">
-        <v>9170.668976</v>
+        <v>9170.6689760000008</v>
       </c>
       <c r="BY22" s="1">
-        <v>2.547408</v>
+        <v>2.5474079999999999</v>
       </c>
       <c r="BZ22" s="1">
-        <v>1570.470000</v>
+        <v>1570.47</v>
       </c>
       <c r="CA22" s="1">
-        <v>-1036.450000</v>
+        <v>-1036.45</v>
       </c>
       <c r="CB22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC22" s="1">
-        <v>9183.670111</v>
+        <v>9183.6701109999995</v>
       </c>
       <c r="CD22" s="1">
-        <v>2.551019</v>
+        <v>2.5510190000000001</v>
       </c>
       <c r="CE22" s="1">
-        <v>1982.790000</v>
+        <v>1982.79</v>
       </c>
       <c r="CF22" s="1">
-        <v>-1584.980000</v>
+        <v>-1584.98</v>
       </c>
       <c r="CG22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:85">
       <c r="A23" s="1">
-        <v>9011.602019</v>
+        <v>9011.6020189999999</v>
       </c>
       <c r="B23" s="1">
-        <v>2.503223</v>
+        <v>2.5032230000000002</v>
       </c>
       <c r="C23" s="1">
-        <v>902.374000</v>
+        <v>902.37400000000002</v>
       </c>
       <c r="D23" s="1">
-        <v>-195.305000</v>
+        <v>-195.30500000000001</v>
       </c>
       <c r="E23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1">
-        <v>9021.983749</v>
+        <v>9021.9837490000009</v>
       </c>
       <c r="G23" s="1">
-        <v>2.506107</v>
+        <v>2.5061070000000001</v>
       </c>
       <c r="H23" s="1">
-        <v>919.174000</v>
+        <v>919.17399999999998</v>
       </c>
       <c r="I23" s="1">
-        <v>-165.398000</v>
+        <v>-165.398</v>
       </c>
       <c r="J23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
-        <v>9032.469708</v>
+        <v>9032.4697080000005</v>
       </c>
       <c r="L23" s="1">
-        <v>2.509019</v>
+        <v>2.5090189999999999</v>
       </c>
       <c r="M23" s="1">
-        <v>941.438000</v>
+        <v>941.43799999999999</v>
       </c>
       <c r="N23" s="1">
-        <v>-118.660000</v>
+        <v>-118.66</v>
       </c>
       <c r="O23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P23" s="1">
-        <v>9043.036970</v>
+        <v>9043.0369699999992</v>
       </c>
       <c r="Q23" s="1">
-        <v>2.511955</v>
+        <v>2.5119549999999999</v>
       </c>
       <c r="R23" s="1">
-        <v>947.984000</v>
+        <v>947.98400000000004</v>
       </c>
       <c r="S23" s="1">
-        <v>-103.290000</v>
+        <v>-103.29</v>
       </c>
       <c r="T23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U23" s="1">
-        <v>9053.487643</v>
+        <v>9053.4876430000004</v>
       </c>
       <c r="V23" s="1">
-        <v>2.514858</v>
+        <v>2.5148579999999998</v>
       </c>
       <c r="W23" s="1">
-        <v>954.426000</v>
+        <v>954.42600000000004</v>
       </c>
       <c r="X23" s="1">
-        <v>-89.682300</v>
+        <v>-89.682299999999998</v>
       </c>
       <c r="Y23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="1">
-        <v>9063.933887</v>
+        <v>9063.9338869999992</v>
       </c>
       <c r="AA23" s="1">
-        <v>2.517759</v>
+        <v>2.5177589999999999</v>
       </c>
       <c r="AB23" s="1">
-        <v>961.479000</v>
+        <v>961.47900000000004</v>
       </c>
       <c r="AC23" s="1">
-        <v>-80.256600</v>
+        <v>-80.256600000000006</v>
       </c>
       <c r="AD23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="1">
-        <v>9074.749648</v>
+        <v>9074.7496480000009</v>
       </c>
       <c r="AF23" s="1">
-        <v>2.520764</v>
+        <v>2.5207639999999998</v>
       </c>
       <c r="AG23" s="1">
-        <v>966.452000</v>
+        <v>966.452</v>
       </c>
       <c r="AH23" s="1">
-        <v>-79.872900</v>
+        <v>-79.872900000000001</v>
       </c>
       <c r="AI23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="1">
-        <v>9085.265363</v>
+        <v>9085.2653630000004</v>
       </c>
       <c r="AK23" s="1">
         <v>2.523685</v>
       </c>
       <c r="AL23" s="1">
-        <v>974.404000</v>
+        <v>974.404</v>
       </c>
       <c r="AM23" s="1">
-        <v>-87.710800</v>
+        <v>-87.710800000000006</v>
       </c>
       <c r="AN23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO23" s="1">
         <v>9096.179795</v>
       </c>
       <c r="AP23" s="1">
-        <v>2.526717</v>
+        <v>2.5267170000000001</v>
       </c>
       <c r="AQ23" s="1">
-        <v>983.642000</v>
+        <v>983.64200000000005</v>
       </c>
       <c r="AR23" s="1">
-        <v>-102.705000</v>
+        <v>-102.705</v>
       </c>
       <c r="AS23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT23" s="1">
-        <v>9107.341764</v>
+        <v>9107.3417640000007</v>
       </c>
       <c r="AU23" s="1">
         <v>2.529817</v>
       </c>
       <c r="AV23" s="1">
-        <v>995.078000</v>
+        <v>995.07799999999997</v>
       </c>
       <c r="AW23" s="1">
-        <v>-124.253000</v>
+        <v>-124.253</v>
       </c>
       <c r="AX23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY23" s="1">
         <v>9118.626741</v>
       </c>
       <c r="AZ23" s="1">
-        <v>2.532952</v>
+        <v>2.5329519999999999</v>
       </c>
       <c r="BA23" s="1">
-        <v>1004.730000</v>
+        <v>1004.73</v>
       </c>
       <c r="BB23" s="1">
-        <v>-143.009000</v>
+        <v>-143.00899999999999</v>
       </c>
       <c r="BC23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD23" s="1">
-        <v>9129.301143</v>
+        <v>9129.3011430000006</v>
       </c>
       <c r="BE23" s="1">
         <v>2.535917</v>
       </c>
       <c r="BF23" s="1">
-        <v>1050.020000</v>
+        <v>1050.02</v>
       </c>
       <c r="BG23" s="1">
-        <v>-227.762000</v>
+        <v>-227.762</v>
       </c>
       <c r="BH23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI23" s="1">
-        <v>9139.315866</v>
+        <v>9139.3158660000008</v>
       </c>
       <c r="BJ23" s="1">
-        <v>2.538699</v>
+        <v>2.5386989999999998</v>
       </c>
       <c r="BK23" s="1">
-        <v>1129.210000</v>
+        <v>1129.21</v>
       </c>
       <c r="BL23" s="1">
-        <v>-363.973000</v>
+        <v>-363.97300000000001</v>
       </c>
       <c r="BM23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN23" s="1">
-        <v>9149.561260</v>
+        <v>9149.5612600000004</v>
       </c>
       <c r="BO23" s="1">
-        <v>2.541545</v>
+        <v>2.5415450000000002</v>
       </c>
       <c r="BP23" s="1">
-        <v>1260.270000</v>
+        <v>1260.27</v>
       </c>
       <c r="BQ23" s="1">
-        <v>-575.001000</v>
+        <v>-575.00099999999998</v>
       </c>
       <c r="BR23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS23" s="1">
-        <v>9160.159279</v>
+        <v>9160.1592789999995</v>
       </c>
       <c r="BT23" s="1">
         <v>2.544489</v>
       </c>
       <c r="BU23" s="1">
-        <v>1407.700000</v>
+        <v>1407.7</v>
       </c>
       <c r="BV23" s="1">
-        <v>-801.143000</v>
+        <v>-801.14300000000003</v>
       </c>
       <c r="BW23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX23" s="1">
-        <v>9171.086112</v>
+        <v>9171.0861120000009</v>
       </c>
       <c r="BY23" s="1">
-        <v>2.547524</v>
+        <v>2.5475240000000001</v>
       </c>
       <c r="BZ23" s="1">
-        <v>1570.480000</v>
+        <v>1570.48</v>
       </c>
       <c r="CA23" s="1">
-        <v>-1036.350000</v>
+        <v>-1036.3499999999999</v>
       </c>
       <c r="CB23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC23" s="1">
-        <v>9184.190447</v>
+        <v>9184.1904470000009</v>
       </c>
       <c r="CD23" s="1">
         <v>2.551164</v>
       </c>
       <c r="CE23" s="1">
-        <v>1981.290000</v>
+        <v>1981.29</v>
       </c>
       <c r="CF23" s="1">
-        <v>-1585.920000</v>
+        <v>-1585.92</v>
       </c>
       <c r="CG23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:85">
       <c r="A24" s="1">
-        <v>9011.898606</v>
+        <v>9011.8986060000007</v>
       </c>
       <c r="B24" s="1">
-        <v>2.503305</v>
+        <v>2.5033050000000001</v>
       </c>
       <c r="C24" s="1">
-        <v>902.375000</v>
+        <v>902.375</v>
       </c>
       <c r="D24" s="1">
-        <v>-195.404000</v>
+        <v>-195.404</v>
       </c>
       <c r="E24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1">
-        <v>9022.328468</v>
+        <v>9022.3284679999997</v>
       </c>
       <c r="G24" s="1">
         <v>2.506202</v>
       </c>
       <c r="H24" s="1">
-        <v>919.019000</v>
+        <v>919.01900000000001</v>
       </c>
       <c r="I24" s="1">
-        <v>-164.967000</v>
+        <v>-164.96700000000001</v>
       </c>
       <c r="J24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
-        <v>9032.815880</v>
+        <v>9032.8158800000001</v>
       </c>
       <c r="L24" s="1">
-        <v>2.509116</v>
+        <v>2.5091160000000001</v>
       </c>
       <c r="M24" s="1">
-        <v>941.583000</v>
+        <v>941.58299999999997</v>
       </c>
       <c r="N24" s="1">
-        <v>-118.542000</v>
+        <v>-118.542</v>
       </c>
       <c r="O24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P24" s="1">
-        <v>9043.382185</v>
+        <v>9043.3821850000004</v>
       </c>
       <c r="Q24" s="1">
         <v>2.512051</v>
       </c>
       <c r="R24" s="1">
-        <v>948.028000</v>
+        <v>948.02800000000002</v>
       </c>
       <c r="S24" s="1">
-        <v>-103.327000</v>
+        <v>-103.327</v>
       </c>
       <c r="T24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U24" s="1">
-        <v>9054.177083</v>
+        <v>9054.1770830000005</v>
       </c>
       <c r="V24" s="1">
-        <v>2.515049</v>
+        <v>2.5150489999999999</v>
       </c>
       <c r="W24" s="1">
-        <v>954.364000</v>
+        <v>954.36400000000003</v>
       </c>
       <c r="X24" s="1">
-        <v>-89.651700</v>
+        <v>-89.651700000000005</v>
       </c>
       <c r="Y24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="1">
-        <v>9064.633246</v>
+        <v>9064.6332459999994</v>
       </c>
       <c r="AA24" s="1">
         <v>2.517954</v>
       </c>
       <c r="AB24" s="1">
-        <v>961.482000</v>
+        <v>961.48199999999997</v>
       </c>
       <c r="AC24" s="1">
-        <v>-80.307600</v>
+        <v>-80.307599999999994</v>
       </c>
       <c r="AD24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="1">
-        <v>9075.095856</v>
+        <v>9075.0958559999999</v>
       </c>
       <c r="AF24" s="1">
-        <v>2.520860</v>
+        <v>2.5208599999999999</v>
       </c>
       <c r="AG24" s="1">
-        <v>966.445000</v>
+        <v>966.44500000000005</v>
       </c>
       <c r="AH24" s="1">
-        <v>-79.878500</v>
+        <v>-79.878500000000003</v>
       </c>
       <c r="AI24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ24" s="1">
-        <v>9085.612032</v>
+        <v>9085.6120320000009</v>
       </c>
       <c r="AK24" s="1">
-        <v>2.523781</v>
+        <v>2.5237810000000001</v>
       </c>
       <c r="AL24" s="1">
-        <v>974.420000</v>
+        <v>974.42</v>
       </c>
       <c r="AM24" s="1">
-        <v>-87.739700</v>
+        <v>-87.739699999999999</v>
       </c>
       <c r="AN24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO24" s="1">
-        <v>9096.544387</v>
+        <v>9096.5443869999999</v>
       </c>
       <c r="AP24" s="1">
         <v>2.526818</v>
       </c>
       <c r="AQ24" s="1">
-        <v>983.629000</v>
+        <v>983.62900000000002</v>
       </c>
       <c r="AR24" s="1">
-        <v>-102.700000</v>
+        <v>-102.7</v>
       </c>
       <c r="AS24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="1">
-        <v>9108.013347</v>
+        <v>9108.0133470000001</v>
       </c>
       <c r="AU24" s="1">
-        <v>2.530004</v>
+        <v>2.5300039999999999</v>
       </c>
       <c r="AV24" s="1">
-        <v>995.100000</v>
+        <v>995.1</v>
       </c>
       <c r="AW24" s="1">
-        <v>-124.259000</v>
+        <v>-124.259</v>
       </c>
       <c r="AX24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY24" s="1">
-        <v>9119.029989</v>
+        <v>9119.0299890000006</v>
       </c>
       <c r="AZ24" s="1">
         <v>2.533064</v>
       </c>
       <c r="BA24" s="1">
-        <v>1004.730000</v>
+        <v>1004.73</v>
       </c>
       <c r="BB24" s="1">
-        <v>-142.991000</v>
+        <v>-142.99100000000001</v>
       </c>
       <c r="BC24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD24" s="1">
-        <v>9129.717287</v>
+        <v>9129.7172869999995</v>
       </c>
       <c r="BE24" s="1">
-        <v>2.536033</v>
+        <v>2.5360330000000002</v>
       </c>
       <c r="BF24" s="1">
-        <v>1050.020000</v>
+        <v>1050.02</v>
       </c>
       <c r="BG24" s="1">
-        <v>-227.782000</v>
+        <v>-227.78200000000001</v>
       </c>
       <c r="BH24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI24" s="1">
-        <v>9139.690360</v>
+        <v>9139.6903600000005</v>
       </c>
       <c r="BJ24" s="1">
-        <v>2.538803</v>
+        <v>2.5388030000000001</v>
       </c>
       <c r="BK24" s="1">
-        <v>1129.230000</v>
+        <v>1129.23</v>
       </c>
       <c r="BL24" s="1">
-        <v>-363.972000</v>
+        <v>-363.97199999999998</v>
       </c>
       <c r="BM24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN24" s="1">
-        <v>9149.958524</v>
+        <v>9149.9585239999997</v>
       </c>
       <c r="BO24" s="1">
         <v>2.541655</v>
       </c>
       <c r="BP24" s="1">
-        <v>1260.330000</v>
+        <v>1260.33</v>
       </c>
       <c r="BQ24" s="1">
-        <v>-574.971000</v>
+        <v>-574.971</v>
       </c>
       <c r="BR24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS24" s="1">
-        <v>9160.590797</v>
+        <v>9160.5907970000007</v>
       </c>
       <c r="BT24" s="1">
-        <v>2.544609</v>
+        <v>2.5446089999999999</v>
       </c>
       <c r="BU24" s="1">
-        <v>1407.790000</v>
+        <v>1407.79</v>
       </c>
       <c r="BV24" s="1">
-        <v>-801.103000</v>
+        <v>-801.10299999999995</v>
       </c>
       <c r="BW24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX24" s="1">
-        <v>9171.535985</v>
+        <v>9171.5359850000004</v>
       </c>
       <c r="BY24" s="1">
-        <v>2.547649</v>
+        <v>2.5476489999999998</v>
       </c>
       <c r="BZ24" s="1">
-        <v>1570.500000</v>
+        <v>1570.5</v>
       </c>
       <c r="CA24" s="1">
-        <v>-1036.370000</v>
+        <v>-1036.3699999999999</v>
       </c>
       <c r="CB24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC24" s="1">
-        <v>9184.705760</v>
+        <v>9184.7057600000007</v>
       </c>
       <c r="CD24" s="1">
         <v>2.551307</v>
       </c>
       <c r="CE24" s="1">
-        <v>1982.320000</v>
+        <v>1982.32</v>
       </c>
       <c r="CF24" s="1">
-        <v>-1587.520000</v>
+        <v>-1587.52</v>
       </c>
       <c r="CG24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:85">
       <c r="A25" s="1">
-        <v>9012.240339</v>
+        <v>9012.2403389999999</v>
       </c>
       <c r="B25" s="1">
-        <v>2.503400</v>
+        <v>2.5034000000000001</v>
       </c>
       <c r="C25" s="1">
-        <v>902.462000</v>
+        <v>902.46199999999999</v>
       </c>
       <c r="D25" s="1">
-        <v>-195.240000</v>
+        <v>-195.24</v>
       </c>
       <c r="E25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F25" s="1">
-        <v>9022.677156</v>
+        <v>9022.6771559999997</v>
       </c>
       <c r="G25" s="1">
-        <v>2.506299</v>
+        <v>2.5062989999999998</v>
       </c>
       <c r="H25" s="1">
-        <v>919.282000</v>
+        <v>919.28200000000004</v>
       </c>
       <c r="I25" s="1">
-        <v>-165.720000</v>
+        <v>-165.72</v>
       </c>
       <c r="J25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
-        <v>9033.506838</v>
+        <v>9033.5068379999993</v>
       </c>
       <c r="L25" s="1">
-        <v>2.509307</v>
+        <v>2.5093070000000002</v>
       </c>
       <c r="M25" s="1">
-        <v>941.557000</v>
+        <v>941.55700000000002</v>
       </c>
       <c r="N25" s="1">
-        <v>-118.501000</v>
+        <v>-118.501</v>
       </c>
       <c r="O25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P25" s="1">
-        <v>9044.081514</v>
+        <v>9044.0815139999995</v>
       </c>
       <c r="Q25" s="1">
-        <v>2.512245</v>
+        <v>2.5122450000000001</v>
       </c>
       <c r="R25" s="1">
-        <v>947.999000</v>
+        <v>947.99900000000002</v>
       </c>
       <c r="S25" s="1">
-        <v>-103.322000</v>
+        <v>-103.322</v>
       </c>
       <c r="T25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U25" s="1">
-        <v>9054.519322</v>
+        <v>9054.5193220000001</v>
       </c>
       <c r="V25" s="1">
-        <v>2.515144</v>
+        <v>2.5151439999999998</v>
       </c>
       <c r="W25" s="1">
-        <v>954.387000</v>
+        <v>954.38699999999994</v>
       </c>
       <c r="X25" s="1">
-        <v>-89.653500</v>
+        <v>-89.653499999999994</v>
       </c>
       <c r="Y25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="1">
-        <v>9064.980480</v>
+        <v>9064.9804800000002</v>
       </c>
       <c r="AA25" s="1">
-        <v>2.518050</v>
+        <v>2.5180500000000001</v>
       </c>
       <c r="AB25" s="1">
-        <v>961.500000</v>
+        <v>961.5</v>
       </c>
       <c r="AC25" s="1">
-        <v>-80.265100</v>
+        <v>-80.265100000000004</v>
       </c>
       <c r="AD25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE25" s="1">
-        <v>9075.438127</v>
+        <v>9075.4381269999994</v>
       </c>
       <c r="AF25" s="1">
-        <v>2.520955</v>
+        <v>2.5209549999999998</v>
       </c>
       <c r="AG25" s="1">
-        <v>966.415000</v>
+        <v>966.41499999999996</v>
       </c>
       <c r="AH25" s="1">
-        <v>-79.915000</v>
+        <v>-79.915000000000006</v>
       </c>
       <c r="AI25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="1">
-        <v>9086.270720</v>
+        <v>9086.2707200000004</v>
       </c>
       <c r="AK25" s="1">
-        <v>2.523964</v>
+        <v>2.5239639999999999</v>
       </c>
       <c r="AL25" s="1">
-        <v>974.409000</v>
+        <v>974.40899999999999</v>
       </c>
       <c r="AM25" s="1">
-        <v>-87.729600</v>
+        <v>-87.729600000000005</v>
       </c>
       <c r="AN25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO25" s="1">
-        <v>9097.210482</v>
+        <v>9097.2104820000004</v>
       </c>
       <c r="AP25" s="1">
-        <v>2.527003</v>
+        <v>2.5270030000000001</v>
       </c>
       <c r="AQ25" s="1">
-        <v>983.630000</v>
+        <v>983.63</v>
       </c>
       <c r="AR25" s="1">
-        <v>-102.703000</v>
+        <v>-102.703</v>
       </c>
       <c r="AS25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT25" s="1">
         <v>9108.465236</v>
       </c>
       <c r="AU25" s="1">
-        <v>2.530129</v>
+        <v>2.5301290000000001</v>
       </c>
       <c r="AV25" s="1">
-        <v>995.090000</v>
+        <v>995.09</v>
       </c>
       <c r="AW25" s="1">
-        <v>-124.266000</v>
+        <v>-124.26600000000001</v>
       </c>
       <c r="AX25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY25" s="1">
-        <v>9119.389621</v>
+        <v>9119.3896210000003</v>
       </c>
       <c r="AZ25" s="1">
-        <v>2.533164</v>
+        <v>2.5331640000000002</v>
       </c>
       <c r="BA25" s="1">
-        <v>1004.730000</v>
+        <v>1004.73</v>
       </c>
       <c r="BB25" s="1">
-        <v>-143.016000</v>
+        <v>-143.01599999999999</v>
       </c>
       <c r="BC25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD25" s="1">
-        <v>9130.110152</v>
+        <v>9130.1101519999993</v>
       </c>
       <c r="BE25" s="1">
-        <v>2.536142</v>
+        <v>2.5361419999999999</v>
       </c>
       <c r="BF25" s="1">
-        <v>1050.010000</v>
+        <v>1050.01</v>
       </c>
       <c r="BG25" s="1">
-        <v>-227.785000</v>
+        <v>-227.785</v>
       </c>
       <c r="BH25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI25" s="1">
-        <v>9140.065322</v>
+        <v>9140.0653220000004</v>
       </c>
       <c r="BJ25" s="1">
         <v>2.538907</v>
       </c>
       <c r="BK25" s="1">
-        <v>1129.220000</v>
+        <v>1129.22</v>
       </c>
       <c r="BL25" s="1">
-        <v>-363.940000</v>
+        <v>-363.94</v>
       </c>
       <c r="BM25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN25" s="1">
-        <v>9150.412363</v>
+        <v>9150.4123629999995</v>
       </c>
       <c r="BO25" s="1">
-        <v>2.541781</v>
+        <v>2.5417809999999998</v>
       </c>
       <c r="BP25" s="1">
-        <v>1260.330000</v>
+        <v>1260.33</v>
       </c>
       <c r="BQ25" s="1">
-        <v>-574.986000</v>
+        <v>-574.98599999999999</v>
       </c>
       <c r="BR25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS25" s="1">
-        <v>9161.017325</v>
+        <v>9161.0173250000007</v>
       </c>
       <c r="BT25" s="1">
         <v>2.544727</v>
       </c>
       <c r="BU25" s="1">
-        <v>1407.690000</v>
+        <v>1407.69</v>
       </c>
       <c r="BV25" s="1">
-        <v>-801.138000</v>
+        <v>-801.13800000000003</v>
       </c>
       <c r="BW25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX25" s="1">
-        <v>9171.945679</v>
+        <v>9171.9456790000004</v>
       </c>
       <c r="BY25" s="1">
-        <v>2.547763</v>
+        <v>2.5477630000000002</v>
       </c>
       <c r="BZ25" s="1">
-        <v>1570.580000</v>
+        <v>1570.58</v>
       </c>
       <c r="CA25" s="1">
-        <v>-1036.410000</v>
+        <v>-1036.4100000000001</v>
       </c>
       <c r="CB25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC25" s="1">
         <v>9185.225101</v>
       </c>
       <c r="CD25" s="1">
-        <v>2.551451</v>
+        <v>2.5514510000000001</v>
       </c>
       <c r="CE25" s="1">
-        <v>1981.830000</v>
+        <v>1981.83</v>
       </c>
       <c r="CF25" s="1">
-        <v>-1587.210000</v>
+        <v>-1587.21</v>
       </c>
       <c r="CG25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:85">
       <c r="A26" s="1">
-        <v>9012.581586</v>
+        <v>9012.5815860000002</v>
       </c>
       <c r="B26" s="1">
         <v>2.503495</v>
       </c>
       <c r="C26" s="1">
-        <v>902.459000</v>
+        <v>902.45899999999995</v>
       </c>
       <c r="D26" s="1">
-        <v>-195.296000</v>
+        <v>-195.29599999999999</v>
       </c>
       <c r="E26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F26" s="1">
-        <v>9023.369102</v>
+        <v>9023.3691020000006</v>
       </c>
       <c r="G26" s="1">
         <v>2.506491</v>
       </c>
       <c r="H26" s="1">
-        <v>919.495000</v>
+        <v>919.495</v>
       </c>
       <c r="I26" s="1">
-        <v>-165.565000</v>
+        <v>-165.565</v>
       </c>
       <c r="J26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
-        <v>9033.852022</v>
+        <v>9033.8520219999991</v>
       </c>
       <c r="L26" s="1">
-        <v>2.509403</v>
+        <v>2.5094029999999998</v>
       </c>
       <c r="M26" s="1">
-        <v>941.670000</v>
+        <v>941.67</v>
       </c>
       <c r="N26" s="1">
-        <v>-118.660000</v>
+        <v>-118.66</v>
       </c>
       <c r="O26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P26" s="1">
         <v>9044.428817</v>
       </c>
       <c r="Q26" s="1">
-        <v>2.512341</v>
+        <v>2.5123410000000002</v>
       </c>
       <c r="R26" s="1">
-        <v>947.946000</v>
+        <v>947.94600000000003</v>
       </c>
       <c r="S26" s="1">
-        <v>-103.303000</v>
+        <v>-103.303</v>
       </c>
       <c r="T26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U26" s="1">
-        <v>9054.862058</v>
+        <v>9054.8620580000006</v>
       </c>
       <c r="V26" s="1">
-        <v>2.515239</v>
+        <v>2.5152389999999998</v>
       </c>
       <c r="W26" s="1">
-        <v>954.323000</v>
+        <v>954.32299999999998</v>
       </c>
       <c r="X26" s="1">
-        <v>-89.658600</v>
+        <v>-89.658600000000007</v>
       </c>
       <c r="Y26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="1">
-        <v>9065.328140</v>
+        <v>9065.3281399999996</v>
       </c>
       <c r="AA26" s="1">
-        <v>2.518147</v>
+        <v>2.5181469999999999</v>
       </c>
       <c r="AB26" s="1">
-        <v>961.501000</v>
+        <v>961.50099999999998</v>
       </c>
       <c r="AC26" s="1">
-        <v>-80.178700</v>
+        <v>-80.178700000000006</v>
       </c>
       <c r="AD26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="1">
-        <v>9076.091833</v>
+        <v>9076.0918330000004</v>
       </c>
       <c r="AF26" s="1">
         <v>2.521137</v>
       </c>
       <c r="AG26" s="1">
-        <v>966.428000</v>
+        <v>966.428</v>
       </c>
       <c r="AH26" s="1">
-        <v>-79.905600</v>
+        <v>-79.905600000000007</v>
       </c>
       <c r="AI26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ26" s="1">
-        <v>9086.659585</v>
+        <v>9086.6595849999994</v>
       </c>
       <c r="AK26" s="1">
-        <v>2.524072</v>
+        <v>2.5240719999999999</v>
       </c>
       <c r="AL26" s="1">
-        <v>974.417000</v>
+        <v>974.41700000000003</v>
       </c>
       <c r="AM26" s="1">
-        <v>-87.716800</v>
+        <v>-87.716800000000006</v>
       </c>
       <c r="AN26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO26" s="1">
-        <v>9097.648481</v>
+        <v>9097.6484810000002</v>
       </c>
       <c r="AP26" s="1">
-        <v>2.527125</v>
+        <v>2.5271249999999998</v>
       </c>
       <c r="AQ26" s="1">
-        <v>983.644000</v>
+        <v>983.64400000000001</v>
       </c>
       <c r="AR26" s="1">
-        <v>-102.704000</v>
+        <v>-102.70399999999999</v>
       </c>
       <c r="AS26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT26" s="1">
-        <v>9108.833265</v>
+        <v>9108.8332649999993</v>
       </c>
       <c r="AU26" s="1">
-        <v>2.530231</v>
+        <v>2.5302310000000001</v>
       </c>
       <c r="AV26" s="1">
-        <v>995.055000</v>
+        <v>995.05499999999995</v>
       </c>
       <c r="AW26" s="1">
-        <v>-124.255000</v>
+        <v>-124.255</v>
       </c>
       <c r="AX26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY26" s="1">
-        <v>9119.746709</v>
+        <v>9119.7467089999991</v>
       </c>
       <c r="AZ26" s="1">
-        <v>2.533263</v>
+        <v>2.5332629999999998</v>
       </c>
       <c r="BA26" s="1">
-        <v>1004.720000</v>
+        <v>1004.72</v>
       </c>
       <c r="BB26" s="1">
-        <v>-142.998000</v>
+        <v>-142.99799999999999</v>
       </c>
       <c r="BC26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD26" s="1">
-        <v>9130.471712</v>
+        <v>9130.4717120000005</v>
       </c>
       <c r="BE26" s="1">
-        <v>2.536242</v>
+        <v>2.5362420000000001</v>
       </c>
       <c r="BF26" s="1">
-        <v>1050.010000</v>
+        <v>1050.01</v>
       </c>
       <c r="BG26" s="1">
-        <v>-227.784000</v>
+        <v>-227.78399999999999</v>
       </c>
       <c r="BH26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI26" s="1">
-        <v>9140.477000</v>
+        <v>9140.4770000000008</v>
       </c>
       <c r="BJ26" s="1">
         <v>2.539021</v>
       </c>
       <c r="BK26" s="1">
-        <v>1129.230000</v>
+        <v>1129.23</v>
       </c>
       <c r="BL26" s="1">
-        <v>-363.966000</v>
+        <v>-363.96600000000001</v>
       </c>
       <c r="BM26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN26" s="1">
-        <v>9150.844379</v>
+        <v>9150.8443790000001</v>
       </c>
       <c r="BO26" s="1">
-        <v>2.541901</v>
+        <v>2.5419010000000002</v>
       </c>
       <c r="BP26" s="1">
-        <v>1260.320000</v>
+        <v>1260.32</v>
       </c>
       <c r="BQ26" s="1">
-        <v>-574.939000</v>
+        <v>-574.93899999999996</v>
       </c>
       <c r="BR26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS26" s="1">
-        <v>9161.429501</v>
+        <v>9161.4295010000005</v>
       </c>
       <c r="BT26" s="1">
         <v>2.544842</v>
       </c>
       <c r="BU26" s="1">
-        <v>1407.710000</v>
+        <v>1407.71</v>
       </c>
       <c r="BV26" s="1">
-        <v>-801.078000</v>
+        <v>-801.07799999999997</v>
       </c>
       <c r="BW26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX26" s="1">
-        <v>9172.380190</v>
+        <v>9172.3801899999999</v>
       </c>
       <c r="BY26" s="1">
-        <v>2.547883</v>
+        <v>2.5478830000000001</v>
       </c>
       <c r="BZ26" s="1">
-        <v>1570.600000</v>
+        <v>1570.6</v>
       </c>
       <c r="CA26" s="1">
-        <v>-1036.540000</v>
+        <v>-1036.54</v>
       </c>
       <c r="CB26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC26" s="1">
-        <v>9185.780093</v>
+        <v>9185.7800929999994</v>
       </c>
       <c r="CD26" s="1">
         <v>2.551606</v>
       </c>
       <c r="CE26" s="1">
-        <v>1981.070000</v>
+        <v>1981.07</v>
       </c>
       <c r="CF26" s="1">
-        <v>-1585.820000</v>
+        <v>-1585.82</v>
       </c>
       <c r="CG26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>